--- a/outputs/aht/cb_senior_aht_monthly.xlsx
+++ b/outputs/aht/cb_senior_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42370</v>
+        <v>42917</v>
       </c>
       <c r="C2" t="n">
-        <v>302.6009842427624</v>
+        <v>342.8140903926595</v>
       </c>
       <c r="D2" t="n">
-        <v>270.3705233887949</v>
+        <v>245.189582725423</v>
       </c>
       <c r="E2" t="n">
-        <v>368.4747184615244</v>
+        <v>344.3369233491391</v>
       </c>
       <c r="F2" t="n">
-        <v>302.6009842427624</v>
+        <v>342.8140903926595</v>
       </c>
       <c r="G2" t="n">
-        <v>302.6009842427624</v>
+        <v>342.8140903926595</v>
       </c>
       <c r="H2" t="n">
-        <v>18.85935749524011</v>
+        <v>-47.45339345325958</v>
       </c>
       <c r="I2" t="n">
-        <v>18.85935749524011</v>
+        <v>-47.45339345325958</v>
       </c>
       <c r="J2" t="n">
-        <v>18.85935749524011</v>
+        <v>-47.45339345325958</v>
       </c>
       <c r="K2" t="n">
-        <v>18.85935749524011</v>
+        <v>-47.45339345325958</v>
       </c>
       <c r="L2" t="n">
-        <v>18.85935749524011</v>
+        <v>-47.45339345325958</v>
       </c>
       <c r="M2" t="n">
-        <v>18.85935749524011</v>
+        <v>-47.45339345325958</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>321.4603417380025</v>
+        <v>295.3606969393999</v>
       </c>
     </row>
     <row r="3">
@@ -577,40 +577,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42401</v>
+        <v>42948</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9948527806237</v>
+        <v>346.7396801588613</v>
       </c>
       <c r="D3" t="n">
-        <v>287.1042230849988</v>
+        <v>278.5519922874097</v>
       </c>
       <c r="E3" t="n">
-        <v>385.0626945626321</v>
+        <v>381.491665022495</v>
       </c>
       <c r="F3" t="n">
-        <v>305.9948527806237</v>
+        <v>346.7396801588613</v>
       </c>
       <c r="G3" t="n">
-        <v>305.9948527806237</v>
+        <v>346.7396801588613</v>
       </c>
       <c r="H3" t="n">
-        <v>30.21825223076402</v>
+        <v>-16.62557258730608</v>
       </c>
       <c r="I3" t="n">
-        <v>30.21825223076402</v>
+        <v>-16.62557258730608</v>
       </c>
       <c r="J3" t="n">
-        <v>30.21825223076402</v>
+        <v>-16.62557258730608</v>
       </c>
       <c r="K3" t="n">
-        <v>30.21825223076402</v>
+        <v>-16.62557258730608</v>
       </c>
       <c r="L3" t="n">
-        <v>30.21825223076402</v>
+        <v>-16.62557258730608</v>
       </c>
       <c r="M3" t="n">
-        <v>30.21825223076402</v>
+        <v>-16.62557258730608</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>336.2131050113877</v>
+        <v>330.1141075715553</v>
       </c>
     </row>
     <row r="4">
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42430</v>
+        <v>42979</v>
       </c>
       <c r="C4" t="n">
-        <v>309.1697620579777</v>
+        <v>350.6652699250633</v>
       </c>
       <c r="D4" t="n">
-        <v>271.238868309312</v>
+        <v>304.4504648764897</v>
       </c>
       <c r="E4" t="n">
-        <v>369.5198176550257</v>
+        <v>410.1620357725374</v>
       </c>
       <c r="F4" t="n">
-        <v>309.1697620579777</v>
+        <v>350.6652699250633</v>
       </c>
       <c r="G4" t="n">
-        <v>309.1697620579777</v>
+        <v>350.6652699250633</v>
       </c>
       <c r="H4" t="n">
-        <v>9.551814613128888</v>
+        <v>7.675619774696195</v>
       </c>
       <c r="I4" t="n">
-        <v>9.551814613128888</v>
+        <v>7.675619774696195</v>
       </c>
       <c r="J4" t="n">
-        <v>9.551814613128888</v>
+        <v>7.675619774696195</v>
       </c>
       <c r="K4" t="n">
-        <v>9.551814613128888</v>
+        <v>7.675619774696195</v>
       </c>
       <c r="L4" t="n">
-        <v>9.551814613128888</v>
+        <v>7.675619774696195</v>
       </c>
       <c r="M4" t="n">
-        <v>9.551814613128888</v>
+        <v>7.675619774696195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>318.7215766711066</v>
+        <v>358.3408896997595</v>
       </c>
     </row>
     <row r="5">
@@ -683,40 +683,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42461</v>
+        <v>43009</v>
       </c>
       <c r="C5" t="n">
-        <v>312.5636305879112</v>
+        <v>354.4642277689927</v>
       </c>
       <c r="D5" t="n">
-        <v>266.2721516735111</v>
+        <v>315.6625787466785</v>
       </c>
       <c r="E5" t="n">
-        <v>359.2368263121161</v>
+        <v>415.7547911034179</v>
       </c>
       <c r="F5" t="n">
-        <v>312.5636305879112</v>
+        <v>354.4642277689927</v>
       </c>
       <c r="G5" t="n">
-        <v>312.5636305879112</v>
+        <v>354.4642277689927</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1907171410208988</v>
+        <v>12.3424645285773</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1907171410208988</v>
+        <v>12.3424645285773</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1907171410208988</v>
+        <v>12.3424645285773</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1907171410208988</v>
+        <v>12.3424645285773</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1907171410208988</v>
+        <v>12.3424645285773</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1907171410208988</v>
+        <v>12.3424645285773</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>312.3729134468903</v>
+        <v>366.80669229757</v>
       </c>
     </row>
     <row r="6">
@@ -736,40 +736,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42491</v>
+        <v>43040</v>
       </c>
       <c r="C6" t="n">
-        <v>315.8480194878468</v>
+        <v>358.389817541053</v>
       </c>
       <c r="D6" t="n">
-        <v>248.230092907625</v>
+        <v>303.7739662562361</v>
       </c>
       <c r="E6" t="n">
-        <v>343.3650864449693</v>
+        <v>410.0616867694113</v>
       </c>
       <c r="F6" t="n">
-        <v>315.8480194878468</v>
+        <v>358.389817541053</v>
       </c>
       <c r="G6" t="n">
-        <v>315.8480194878468</v>
+        <v>358.389817541053</v>
       </c>
       <c r="H6" t="n">
-        <v>-20.73730216299465</v>
+        <v>2.017566972415406</v>
       </c>
       <c r="I6" t="n">
-        <v>-20.73730216299465</v>
+        <v>2.017566972415406</v>
       </c>
       <c r="J6" t="n">
-        <v>-20.73730216299465</v>
+        <v>2.017566972415406</v>
       </c>
       <c r="K6" t="n">
-        <v>-20.73730216299465</v>
+        <v>2.017566972415406</v>
       </c>
       <c r="L6" t="n">
-        <v>-20.73730216299465</v>
+        <v>2.017566972415406</v>
       </c>
       <c r="M6" t="n">
-        <v>-20.73730216299465</v>
+        <v>2.017566972415406</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>295.1107173248522</v>
+        <v>360.4073845134684</v>
       </c>
     </row>
     <row r="7">
@@ -789,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42522</v>
+        <v>43070</v>
       </c>
       <c r="C7" t="n">
-        <v>319.2418880177803</v>
+        <v>362.1887753905829</v>
       </c>
       <c r="D7" t="n">
-        <v>219.6550694311614</v>
+        <v>320.9768447454756</v>
       </c>
       <c r="E7" t="n">
-        <v>318.161351098735</v>
+        <v>426.1786899198997</v>
       </c>
       <c r="F7" t="n">
-        <v>319.2418880177803</v>
+        <v>362.1887753905829</v>
       </c>
       <c r="G7" t="n">
-        <v>319.2418880177803</v>
+        <v>362.1887753905829</v>
       </c>
       <c r="H7" t="n">
-        <v>-50.59355315388627</v>
+        <v>10.62657778800544</v>
       </c>
       <c r="I7" t="n">
-        <v>-50.59355315388627</v>
+        <v>10.62657778800544</v>
       </c>
       <c r="J7" t="n">
-        <v>-50.59355315388627</v>
+        <v>10.62657778800544</v>
       </c>
       <c r="K7" t="n">
-        <v>-50.59355315388627</v>
+        <v>10.62657778800544</v>
       </c>
       <c r="L7" t="n">
-        <v>-50.59355315388627</v>
+        <v>10.62657778800544</v>
       </c>
       <c r="M7" t="n">
-        <v>-50.59355315388627</v>
+        <v>10.62657778800544</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>268.648334863894</v>
+        <v>372.8153531785883</v>
       </c>
     </row>
     <row r="8">
@@ -842,40 +842,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42552</v>
+        <v>43101</v>
       </c>
       <c r="C8" t="n">
-        <v>322.5262769267035</v>
+        <v>366.1143651684304</v>
       </c>
       <c r="D8" t="n">
-        <v>231.1060179744257</v>
+        <v>320.1287695221967</v>
       </c>
       <c r="E8" t="n">
-        <v>333.9772469715596</v>
+        <v>422.8751376829246</v>
       </c>
       <c r="F8" t="n">
-        <v>322.5262769267035</v>
+        <v>366.1143651684304</v>
       </c>
       <c r="G8" t="n">
-        <v>322.5262769267035</v>
+        <v>366.1143651684304</v>
       </c>
       <c r="H8" t="n">
-        <v>-39.15993354192143</v>
+        <v>5.207416579288641</v>
       </c>
       <c r="I8" t="n">
-        <v>-39.15993354192143</v>
+        <v>5.207416579288641</v>
       </c>
       <c r="J8" t="n">
-        <v>-39.15993354192143</v>
+        <v>5.207416579288641</v>
       </c>
       <c r="K8" t="n">
-        <v>-39.15993354192143</v>
+        <v>5.207416579288641</v>
       </c>
       <c r="L8" t="n">
-        <v>-39.15993354192143</v>
+        <v>5.207416579288641</v>
       </c>
       <c r="M8" t="n">
-        <v>-39.15993354192143</v>
+        <v>5.207416579288641</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>283.3663433847821</v>
+        <v>371.3217817477191</v>
       </c>
     </row>
     <row r="9">
@@ -895,40 +895,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42583</v>
+        <v>43132</v>
       </c>
       <c r="C9" t="n">
-        <v>325.9201454659242</v>
+        <v>370.0399549509651</v>
       </c>
       <c r="D9" t="n">
-        <v>264.041438182894</v>
+        <v>319.8668285462866</v>
       </c>
       <c r="E9" t="n">
-        <v>358.5633741962269</v>
+        <v>422.4923911278764</v>
       </c>
       <c r="F9" t="n">
-        <v>325.9201454659242</v>
+        <v>370.0399549509651</v>
       </c>
       <c r="G9" t="n">
-        <v>325.9201454659242</v>
+        <v>370.0399549509651</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.05397803975703</v>
+        <v>-0.4992694136972263</v>
       </c>
       <c r="I9" t="n">
-        <v>-16.05397803975703</v>
+        <v>-0.4992694136972263</v>
       </c>
       <c r="J9" t="n">
-        <v>-16.05397803975703</v>
+        <v>-0.4992694136972263</v>
       </c>
       <c r="K9" t="n">
-        <v>-16.05397803975703</v>
+        <v>-0.4992694136972263</v>
       </c>
       <c r="L9" t="n">
-        <v>-16.05397803975703</v>
+        <v>-0.4992694136972263</v>
       </c>
       <c r="M9" t="n">
-        <v>-16.05397803975703</v>
+        <v>-0.4992694136972263</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>309.8661674261672</v>
+        <v>369.5406855372678</v>
       </c>
     </row>
     <row r="10">
@@ -948,40 +948,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42614</v>
+        <v>43160</v>
       </c>
       <c r="C10" t="n">
-        <v>329.3140140154297</v>
+        <v>373.5856489492494</v>
       </c>
       <c r="D10" t="n">
-        <v>279.8142790936256</v>
+        <v>307.2434495421534</v>
       </c>
       <c r="E10" t="n">
-        <v>377.4191035468646</v>
+        <v>407.9848806593387</v>
       </c>
       <c r="F10" t="n">
-        <v>329.3140140154297</v>
+        <v>373.5856489492494</v>
       </c>
       <c r="G10" t="n">
-        <v>329.3140140154297</v>
+        <v>373.5856489492494</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7588793277959355</v>
+        <v>-14.3337143149087</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7588793277959355</v>
+        <v>-14.3337143149087</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.7588793277959355</v>
+        <v>-14.3337143149087</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.7588793277959355</v>
+        <v>-14.3337143149087</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.7588793277959355</v>
+        <v>-14.3337143149087</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.7588793277959355</v>
+        <v>-14.3337143149087</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>328.5551346876338</v>
+        <v>359.2519346343407</v>
       </c>
     </row>
     <row r="11">
@@ -1001,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>42644</v>
+        <v>43191</v>
       </c>
       <c r="C11" t="n">
-        <v>332.5984029343058</v>
+        <v>377.5112387330644</v>
       </c>
       <c r="D11" t="n">
-        <v>287.2738009878757</v>
+        <v>301.1304818654661</v>
       </c>
       <c r="E11" t="n">
-        <v>385.7658619226104</v>
+        <v>401.7304414260237</v>
       </c>
       <c r="F11" t="n">
-        <v>332.5984029343058</v>
+        <v>377.5112387330644</v>
       </c>
       <c r="G11" t="n">
-        <v>332.5984029343058</v>
+        <v>377.5112387330644</v>
       </c>
       <c r="H11" t="n">
-        <v>3.091747995098509</v>
+        <v>-24.2853487631521</v>
       </c>
       <c r="I11" t="n">
-        <v>3.091747995098509</v>
+        <v>-24.2853487631521</v>
       </c>
       <c r="J11" t="n">
-        <v>3.091747995098509</v>
+        <v>-24.2853487631521</v>
       </c>
       <c r="K11" t="n">
-        <v>3.091747995098509</v>
+        <v>-24.2853487631521</v>
       </c>
       <c r="L11" t="n">
-        <v>3.091747995098509</v>
+        <v>-24.2853487631521</v>
       </c>
       <c r="M11" t="n">
-        <v>3.091747995098509</v>
+        <v>-24.2853487631521</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>335.6901509294043</v>
+        <v>353.2258899699123</v>
       </c>
     </row>
     <row r="12">
@@ -1054,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42675</v>
+        <v>43221</v>
       </c>
       <c r="C12" t="n">
-        <v>335.9922714951562</v>
+        <v>381.3101965932312</v>
       </c>
       <c r="D12" t="n">
-        <v>283.0960371300321</v>
+        <v>300.8387791949183</v>
       </c>
       <c r="E12" t="n">
-        <v>380.3996999571099</v>
+        <v>399.665900874761</v>
       </c>
       <c r="F12" t="n">
-        <v>335.9922714951562</v>
+        <v>381.3101965932312</v>
       </c>
       <c r="G12" t="n">
-        <v>335.9922714951562</v>
+        <v>381.3101965932312</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.364155662591556</v>
+        <v>-28.6984505340224</v>
       </c>
       <c r="I12" t="n">
-        <v>-6.364155662591556</v>
+        <v>-28.6984505340224</v>
       </c>
       <c r="J12" t="n">
-        <v>-6.364155662591556</v>
+        <v>-28.6984505340224</v>
       </c>
       <c r="K12" t="n">
-        <v>-6.364155662591556</v>
+        <v>-28.6984505340224</v>
       </c>
       <c r="L12" t="n">
-        <v>-6.364155662591556</v>
+        <v>-28.6984505340224</v>
       </c>
       <c r="M12" t="n">
-        <v>-6.364155662591556</v>
+        <v>-28.6984505340224</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>329.6281158325646</v>
+        <v>352.6117460592088</v>
       </c>
     </row>
     <row r="13">
@@ -1107,40 +1107,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42705</v>
+        <v>43252</v>
       </c>
       <c r="C13" t="n">
-        <v>339.2766604250114</v>
+        <v>385.2357863820703</v>
       </c>
       <c r="D13" t="n">
-        <v>300.2930707366222</v>
+        <v>301.7398004048038</v>
       </c>
       <c r="E13" t="n">
-        <v>391.3608418067548</v>
+        <v>407.1168340129247</v>
       </c>
       <c r="F13" t="n">
-        <v>339.2766604250114</v>
+        <v>385.2357863820703</v>
       </c>
       <c r="G13" t="n">
-        <v>339.2766604250114</v>
+        <v>385.2357863820703</v>
       </c>
       <c r="H13" t="n">
-        <v>4.547556212991558</v>
+        <v>-29.5570405373941</v>
       </c>
       <c r="I13" t="n">
-        <v>4.547556212991558</v>
+        <v>-29.5570405373941</v>
       </c>
       <c r="J13" t="n">
-        <v>4.547556212991558</v>
+        <v>-29.5570405373941</v>
       </c>
       <c r="K13" t="n">
-        <v>4.547556212991558</v>
+        <v>-29.5570405373941</v>
       </c>
       <c r="L13" t="n">
-        <v>4.547556212991558</v>
+        <v>-29.5570405373941</v>
       </c>
       <c r="M13" t="n">
-        <v>4.547556212991558</v>
+        <v>-29.5570405373941</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>343.8242166380029</v>
+        <v>355.6787458446761</v>
       </c>
     </row>
     <row r="14">
@@ -1160,40 +1160,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>42736</v>
+        <v>43282</v>
       </c>
       <c r="C14" t="n">
-        <v>342.6705289858617</v>
+        <v>389.0347442473865</v>
       </c>
       <c r="D14" t="n">
-        <v>277.661511750107</v>
+        <v>298.6776573194925</v>
       </c>
       <c r="E14" t="n">
-        <v>373.3286809660448</v>
+        <v>400.736563176523</v>
       </c>
       <c r="F14" t="n">
-        <v>342.6705289858617</v>
+        <v>389.0347442473865</v>
       </c>
       <c r="G14" t="n">
-        <v>342.6705289858617</v>
+        <v>389.0347442473865</v>
       </c>
       <c r="H14" t="n">
-        <v>-16.39833064474533</v>
+        <v>-39.17563576882327</v>
       </c>
       <c r="I14" t="n">
-        <v>-16.39833064474533</v>
+        <v>-39.17563576882327</v>
       </c>
       <c r="J14" t="n">
-        <v>-16.39833064474533</v>
+        <v>-39.17563576882327</v>
       </c>
       <c r="K14" t="n">
-        <v>-16.39833064474533</v>
+        <v>-39.17563576882327</v>
       </c>
       <c r="L14" t="n">
-        <v>-16.39833064474533</v>
+        <v>-39.17563576882327</v>
       </c>
       <c r="M14" t="n">
-        <v>-16.39833064474533</v>
+        <v>-39.17563576882327</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>326.2721983411164</v>
+        <v>349.8591084785632</v>
       </c>
     </row>
     <row r="15">
@@ -1213,40 +1213,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42767</v>
+        <v>43313</v>
       </c>
       <c r="C15" t="n">
-        <v>346.064397562686</v>
+        <v>392.9603340415466</v>
       </c>
       <c r="D15" t="n">
-        <v>264.9539158019256</v>
+        <v>320.8424902938033</v>
       </c>
       <c r="E15" t="n">
-        <v>361.8996676984015</v>
+        <v>425.1566996078178</v>
       </c>
       <c r="F15" t="n">
-        <v>346.064397562686</v>
+        <v>392.9603340415466</v>
       </c>
       <c r="G15" t="n">
-        <v>346.064397562686</v>
+        <v>392.9603340415466</v>
       </c>
       <c r="H15" t="n">
-        <v>-30.2690989201973</v>
+        <v>-20.69968925934539</v>
       </c>
       <c r="I15" t="n">
-        <v>-30.2690989201973</v>
+        <v>-20.69968925934539</v>
       </c>
       <c r="J15" t="n">
-        <v>-30.2690989201973</v>
+        <v>-20.69968925934539</v>
       </c>
       <c r="K15" t="n">
-        <v>-30.2690989201973</v>
+        <v>-20.69968925934539</v>
       </c>
       <c r="L15" t="n">
-        <v>-30.2690989201973</v>
+        <v>-20.69968925934539</v>
       </c>
       <c r="M15" t="n">
-        <v>-30.2690989201973</v>
+        <v>-20.69968925934539</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>315.7952986424887</v>
+        <v>372.2606447822012</v>
       </c>
     </row>
     <row r="16">
@@ -1266,40 +1266,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42795</v>
+        <v>43344</v>
       </c>
       <c r="C16" t="n">
-        <v>349.1298272449789</v>
+        <v>396.8859238331389</v>
       </c>
       <c r="D16" t="n">
-        <v>291.7344498427767</v>
+        <v>353.9589003594211</v>
       </c>
       <c r="E16" t="n">
-        <v>395.197461647428</v>
+        <v>453.5685196787152</v>
       </c>
       <c r="F16" t="n">
-        <v>349.1298272449789</v>
+        <v>396.8859238331389</v>
       </c>
       <c r="G16" t="n">
-        <v>349.1298272449789</v>
+        <v>396.8859238331389</v>
       </c>
       <c r="H16" t="n">
-        <v>-4.877975884641992</v>
+        <v>6.687815827826255</v>
       </c>
       <c r="I16" t="n">
-        <v>-4.877975884641992</v>
+        <v>6.687815827826255</v>
       </c>
       <c r="J16" t="n">
-        <v>-4.877975884641992</v>
+        <v>6.687815827826255</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.877975884641992</v>
+        <v>6.687815827826255</v>
       </c>
       <c r="L16" t="n">
-        <v>-4.877975884641992</v>
+        <v>6.687815827826255</v>
       </c>
       <c r="M16" t="n">
-        <v>-4.877975884641992</v>
+        <v>6.687815827826255</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>344.2518513603368</v>
+        <v>403.5737396609651</v>
       </c>
     </row>
     <row r="17">
@@ -1319,40 +1319,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42826</v>
+        <v>43374</v>
       </c>
       <c r="C17" t="n">
-        <v>352.523695831702</v>
+        <v>400.6848816959701</v>
       </c>
       <c r="D17" t="n">
-        <v>292.8614345073563</v>
+        <v>361.5774268465452</v>
       </c>
       <c r="E17" t="n">
-        <v>390.454263620443</v>
+        <v>459.9568603309056</v>
       </c>
       <c r="F17" t="n">
-        <v>352.523695831702</v>
+        <v>400.6848816959701</v>
       </c>
       <c r="G17" t="n">
-        <v>352.523695831702</v>
+        <v>400.6848816959701</v>
       </c>
       <c r="H17" t="n">
-        <v>-11.86781842305618</v>
+        <v>10.81835325027121</v>
       </c>
       <c r="I17" t="n">
-        <v>-11.86781842305618</v>
+        <v>10.81835325027121</v>
       </c>
       <c r="J17" t="n">
-        <v>-11.86781842305618</v>
+        <v>10.81835325027121</v>
       </c>
       <c r="K17" t="n">
-        <v>-11.86781842305618</v>
+        <v>10.81835325027121</v>
       </c>
       <c r="L17" t="n">
-        <v>-11.86781842305618</v>
+        <v>10.81835325027121</v>
       </c>
       <c r="M17" t="n">
-        <v>-11.86781842305618</v>
+        <v>10.81835325027121</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>340.6558774086458</v>
+        <v>411.5032349462414</v>
       </c>
     </row>
     <row r="18">
@@ -1372,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42856</v>
+        <v>43405</v>
       </c>
       <c r="C18" t="n">
-        <v>355.8080847865954</v>
+        <v>404.6104714912009</v>
       </c>
       <c r="D18" t="n">
-        <v>281.0315745918887</v>
+        <v>352.1832090455476</v>
       </c>
       <c r="E18" t="n">
-        <v>375.0312659713677</v>
+        <v>448.7133682312728</v>
       </c>
       <c r="F18" t="n">
-        <v>355.8080847865954</v>
+        <v>404.6104714912009</v>
       </c>
       <c r="G18" t="n">
-        <v>355.8080847865954</v>
+        <v>404.6104714912009</v>
       </c>
       <c r="H18" t="n">
-        <v>-26.94226448974467</v>
+        <v>-3.066003934137987</v>
       </c>
       <c r="I18" t="n">
-        <v>-26.94226448974467</v>
+        <v>-3.066003934137987</v>
       </c>
       <c r="J18" t="n">
-        <v>-26.94226448974467</v>
+        <v>-3.066003934137987</v>
       </c>
       <c r="K18" t="n">
-        <v>-26.94226448974467</v>
+        <v>-3.066003934137987</v>
       </c>
       <c r="L18" t="n">
-        <v>-26.94226448974467</v>
+        <v>-3.066003934137987</v>
       </c>
       <c r="M18" t="n">
-        <v>-26.94226448974467</v>
+        <v>-3.066003934137987</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>328.8658202968507</v>
+        <v>401.5444675570629</v>
       </c>
     </row>
     <row r="19">
@@ -1425,40 +1425,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42887</v>
+        <v>43435</v>
       </c>
       <c r="C19" t="n">
-        <v>359.2019533733185</v>
+        <v>408.4094293575533</v>
       </c>
       <c r="D19" t="n">
-        <v>272.4507805587367</v>
+        <v>361.3402673548434</v>
       </c>
       <c r="E19" t="n">
-        <v>370.1772317920979</v>
+        <v>460.9289755291445</v>
       </c>
       <c r="F19" t="n">
-        <v>359.2019533733185</v>
+        <v>408.4094293575533</v>
       </c>
       <c r="G19" t="n">
-        <v>359.2019533733185</v>
+        <v>408.4094293575533</v>
       </c>
       <c r="H19" t="n">
-        <v>-38.31256381522719</v>
+        <v>5.890943791279142</v>
       </c>
       <c r="I19" t="n">
-        <v>-38.31256381522719</v>
+        <v>5.890943791279142</v>
       </c>
       <c r="J19" t="n">
-        <v>-38.31256381522719</v>
+        <v>5.890943791279142</v>
       </c>
       <c r="K19" t="n">
-        <v>-38.31256381522719</v>
+        <v>5.890943791279142</v>
       </c>
       <c r="L19" t="n">
-        <v>-38.31256381522719</v>
+        <v>5.890943791279142</v>
       </c>
       <c r="M19" t="n">
-        <v>-38.31256381522719</v>
+        <v>5.890943791279142</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>320.8893895580913</v>
+        <v>414.3003731488324</v>
       </c>
     </row>
     <row r="20">
@@ -1478,40 +1478,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42917</v>
+        <v>43466</v>
       </c>
       <c r="C20" t="n">
-        <v>362.4863423454577</v>
+        <v>412.3350191460419</v>
       </c>
       <c r="D20" t="n">
-        <v>283.1774771164987</v>
+        <v>378.7813998057213</v>
       </c>
       <c r="E20" t="n">
-        <v>378.237930599601</v>
+        <v>476.5476974328844</v>
       </c>
       <c r="F20" t="n">
-        <v>362.4863423454577</v>
+        <v>412.3350191460419</v>
       </c>
       <c r="G20" t="n">
-        <v>362.4863423454577</v>
+        <v>412.3350191460419</v>
       </c>
       <c r="H20" t="n">
-        <v>-29.12644743997308</v>
+        <v>16.04670208793735</v>
       </c>
       <c r="I20" t="n">
-        <v>-29.12644743997308</v>
+        <v>16.04670208793735</v>
       </c>
       <c r="J20" t="n">
-        <v>-29.12644743997308</v>
+        <v>16.04670208793735</v>
       </c>
       <c r="K20" t="n">
-        <v>-29.12644743997308</v>
+        <v>16.04670208793735</v>
       </c>
       <c r="L20" t="n">
-        <v>-29.12644743997308</v>
+        <v>16.04670208793735</v>
       </c>
       <c r="M20" t="n">
-        <v>-29.12644743997308</v>
+        <v>16.04670208793735</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>333.3598949054846</v>
+        <v>428.3817212339792</v>
       </c>
     </row>
     <row r="21">
@@ -1531,40 +1531,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42948</v>
+        <v>43497</v>
       </c>
       <c r="C21" t="n">
-        <v>365.8802109500017</v>
+        <v>416.2606089305658</v>
       </c>
       <c r="D21" t="n">
-        <v>298.3816163325934</v>
+        <v>377.4193903380742</v>
       </c>
       <c r="E21" t="n">
-        <v>396.3090309409582</v>
+        <v>477.6945838994247</v>
       </c>
       <c r="F21" t="n">
-        <v>365.8802109500017</v>
+        <v>416.2606089305658</v>
       </c>
       <c r="G21" t="n">
-        <v>365.8802109500017</v>
+        <v>416.2606089305658</v>
       </c>
       <c r="H21" t="n">
-        <v>-20.27772744735458</v>
+        <v>13.59781920293236</v>
       </c>
       <c r="I21" t="n">
-        <v>-20.27772744735458</v>
+        <v>13.59781920293236</v>
       </c>
       <c r="J21" t="n">
-        <v>-20.27772744735458</v>
+        <v>13.59781920293236</v>
       </c>
       <c r="K21" t="n">
-        <v>-20.27772744735458</v>
+        <v>13.59781920293236</v>
       </c>
       <c r="L21" t="n">
-        <v>-20.27772744735458</v>
+        <v>13.59781920293236</v>
       </c>
       <c r="M21" t="n">
-        <v>-20.27772744735458</v>
+        <v>13.59781920293236</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>345.6024835026471</v>
+        <v>429.8584281334982</v>
       </c>
     </row>
     <row r="22">
@@ -1584,40 +1584,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42979</v>
+        <v>43525</v>
       </c>
       <c r="C22" t="n">
-        <v>369.2740795492846</v>
+        <v>419.8063029294906</v>
       </c>
       <c r="D22" t="n">
-        <v>316.0756275306265</v>
+        <v>344.3182284593039</v>
       </c>
       <c r="E22" t="n">
-        <v>419.0377672427733</v>
+        <v>442.9621295312714</v>
       </c>
       <c r="F22" t="n">
-        <v>369.2740795492846</v>
+        <v>419.8063029294906</v>
       </c>
       <c r="G22" t="n">
-        <v>369.2740795492846</v>
+        <v>419.8063029294906</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.497816349094326</v>
+        <v>-29.16565423589501</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.497816349094326</v>
+        <v>-29.16565423589501</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.497816349094326</v>
+        <v>-29.16565423589501</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.497816349094326</v>
+        <v>-29.16565423589501</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.497816349094326</v>
+        <v>-29.16565423589501</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.497816349094326</v>
+        <v>-29.16565423589501</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>367.7762632001903</v>
+        <v>390.6406486935956</v>
       </c>
     </row>
     <row r="23">
@@ -1637,40 +1637,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43009</v>
+        <v>43556</v>
       </c>
       <c r="C23" t="n">
-        <v>372.5584685163325</v>
+        <v>423.7318889134568</v>
       </c>
       <c r="D23" t="n">
-        <v>326.8060541594839</v>
+        <v>337.2483636787824</v>
       </c>
       <c r="E23" t="n">
-        <v>421.6273622523148</v>
+        <v>439.3636497790507</v>
       </c>
       <c r="F23" t="n">
-        <v>372.5584685163325</v>
+        <v>423.7318889134568</v>
       </c>
       <c r="G23" t="n">
-        <v>372.5584685163325</v>
+        <v>423.7318889134568</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3863802475445866</v>
+        <v>-33.7597521581152</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3863802475445866</v>
+        <v>-33.7597521581152</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3863802475445866</v>
+        <v>-33.7597521581152</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3863802475445866</v>
+        <v>-33.7597521581152</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3863802475445866</v>
+        <v>-33.7597521581152</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3863802475445866</v>
+        <v>-33.7597521581152</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>372.9448487638771</v>
+        <v>389.9721367553416</v>
       </c>
     </row>
     <row r="24">
@@ -1690,40 +1690,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43040</v>
+        <v>43586</v>
       </c>
       <c r="C24" t="n">
-        <v>375.9523371400404</v>
+        <v>427.5308430914885</v>
       </c>
       <c r="D24" t="n">
-        <v>312.3679067110862</v>
+        <v>353.6141458577165</v>
       </c>
       <c r="E24" t="n">
-        <v>411.861664407963</v>
+        <v>454.1610665322596</v>
       </c>
       <c r="F24" t="n">
-        <v>375.9523371400404</v>
+        <v>427.5308430914885</v>
       </c>
       <c r="G24" t="n">
-        <v>375.9523371400404</v>
+        <v>427.5308430914885</v>
       </c>
       <c r="H24" t="n">
-        <v>-12.95974044965286</v>
+        <v>-22.48339553920913</v>
       </c>
       <c r="I24" t="n">
-        <v>-12.95974044965286</v>
+        <v>-22.48339553920913</v>
       </c>
       <c r="J24" t="n">
-        <v>-12.95974044965286</v>
+        <v>-22.48339553920913</v>
       </c>
       <c r="K24" t="n">
-        <v>-12.95974044965286</v>
+        <v>-22.48339553920913</v>
       </c>
       <c r="L24" t="n">
-        <v>-12.95974044965286</v>
+        <v>-22.48339553920913</v>
       </c>
       <c r="M24" t="n">
-        <v>-12.95974044965286</v>
+        <v>-22.48339553920913</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>362.9925966903875</v>
+        <v>405.0474475522794</v>
       </c>
     </row>
     <row r="25">
@@ -1743,40 +1743,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43070</v>
+        <v>43617</v>
       </c>
       <c r="C25" t="n">
-        <v>379.2367261307255</v>
+        <v>431.4564290724268</v>
       </c>
       <c r="D25" t="n">
-        <v>329.920203530795</v>
+        <v>356.0403266562134</v>
       </c>
       <c r="E25" t="n">
-        <v>427.050240587363</v>
+        <v>456.3152533480352</v>
       </c>
       <c r="F25" t="n">
-        <v>379.2367261307255</v>
+        <v>431.4564290724268</v>
       </c>
       <c r="G25" t="n">
-        <v>379.2367261307255</v>
+        <v>431.4564290724268</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.028287375287682</v>
+        <v>-27.16308828952041</v>
       </c>
       <c r="I25" t="n">
-        <v>-3.028287375287682</v>
+        <v>-27.16308828952041</v>
       </c>
       <c r="J25" t="n">
-        <v>-3.028287375287682</v>
+        <v>-27.16308828952041</v>
       </c>
       <c r="K25" t="n">
-        <v>-3.028287375287682</v>
+        <v>-27.16308828952041</v>
       </c>
       <c r="L25" t="n">
-        <v>-3.028287375287682</v>
+        <v>-27.16308828952041</v>
       </c>
       <c r="M25" t="n">
-        <v>-3.028287375287682</v>
+        <v>-27.16308828952041</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>376.2084387554378</v>
+        <v>404.2933407829064</v>
       </c>
     </row>
     <row r="26">
@@ -1796,40 +1796,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43101</v>
+        <v>43647</v>
       </c>
       <c r="C26" t="n">
-        <v>382.6305947544334</v>
+        <v>435.2553832475284</v>
       </c>
       <c r="D26" t="n">
-        <v>329.277512338053</v>
+        <v>356.1598510206737</v>
       </c>
       <c r="E26" t="n">
-        <v>424.0122469633262</v>
+        <v>454.8706872775542</v>
       </c>
       <c r="F26" t="n">
-        <v>382.6305947544334</v>
+        <v>435.2553832475284</v>
       </c>
       <c r="G26" t="n">
-        <v>382.6305947544334</v>
+        <v>435.2553832475284</v>
       </c>
       <c r="H26" t="n">
-        <v>-5.01875183427535</v>
+        <v>-31.01582033594097</v>
       </c>
       <c r="I26" t="n">
-        <v>-5.01875183427535</v>
+        <v>-31.01582033594097</v>
       </c>
       <c r="J26" t="n">
-        <v>-5.01875183427535</v>
+        <v>-31.01582033594097</v>
       </c>
       <c r="K26" t="n">
-        <v>-5.01875183427535</v>
+        <v>-31.01582033594097</v>
       </c>
       <c r="L26" t="n">
-        <v>-5.01875183427535</v>
+        <v>-31.01582033594097</v>
       </c>
       <c r="M26" t="n">
-        <v>-5.01875183427535</v>
+        <v>-31.01582033594097</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>377.611842920158</v>
+        <v>404.2395629115874</v>
       </c>
     </row>
     <row r="27">
@@ -1849,40 +1849,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43132</v>
+        <v>43678</v>
       </c>
       <c r="C27" t="n">
-        <v>386.0251895339049</v>
+        <v>439.1809531680551</v>
       </c>
       <c r="D27" t="n">
-        <v>327.6565299002348</v>
+        <v>363.5000567266968</v>
       </c>
       <c r="E27" t="n">
-        <v>424.5161267010567</v>
+        <v>463.4195985771372</v>
       </c>
       <c r="F27" t="n">
-        <v>386.0251895339049</v>
+        <v>439.1809531680551</v>
       </c>
       <c r="G27" t="n">
-        <v>386.0251895339049</v>
+        <v>439.1809531680551</v>
       </c>
       <c r="H27" t="n">
-        <v>-9.794085312502661</v>
+        <v>-24.95675524536376</v>
       </c>
       <c r="I27" t="n">
-        <v>-9.794085312502661</v>
+        <v>-24.95675524536376</v>
       </c>
       <c r="J27" t="n">
-        <v>-9.794085312502661</v>
+        <v>-24.95675524536376</v>
       </c>
       <c r="K27" t="n">
-        <v>-9.794085312502661</v>
+        <v>-24.95675524536376</v>
       </c>
       <c r="L27" t="n">
-        <v>-9.794085312502661</v>
+        <v>-24.95675524536376</v>
       </c>
       <c r="M27" t="n">
-        <v>-9.794085312502661</v>
+        <v>-24.95675524536376</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>376.2311042214023</v>
+        <v>414.2241979226913</v>
       </c>
     </row>
     <row r="28">
@@ -1902,40 +1902,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43160</v>
+        <v>43709</v>
       </c>
       <c r="C28" t="n">
-        <v>389.0912751411695</v>
+        <v>443.1065230885818</v>
       </c>
       <c r="D28" t="n">
-        <v>320.1439514468574</v>
+        <v>400.1394321369893</v>
       </c>
       <c r="E28" t="n">
-        <v>420.7917274269959</v>
+        <v>499.0221407519836</v>
       </c>
       <c r="F28" t="n">
-        <v>389.0912751411695</v>
+        <v>443.1065230885818</v>
       </c>
       <c r="G28" t="n">
-        <v>389.0912751411695</v>
+        <v>443.1065230885818</v>
       </c>
       <c r="H28" t="n">
-        <v>-19.76744429594964</v>
+        <v>5.642024520225274</v>
       </c>
       <c r="I28" t="n">
-        <v>-19.76744429594964</v>
+        <v>5.642024520225274</v>
       </c>
       <c r="J28" t="n">
-        <v>-19.76744429594964</v>
+        <v>5.642024520225274</v>
       </c>
       <c r="K28" t="n">
-        <v>-19.76744429594964</v>
+        <v>5.642024520225274</v>
       </c>
       <c r="L28" t="n">
-        <v>-19.76744429594964</v>
+        <v>5.642024520225274</v>
       </c>
       <c r="M28" t="n">
-        <v>-19.76744429594964</v>
+        <v>5.642024520225274</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>369.3238308452198</v>
+        <v>448.748547608807</v>
       </c>
     </row>
     <row r="29">
@@ -1955,40 +1955,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43191</v>
+        <v>43739</v>
       </c>
       <c r="C29" t="n">
-        <v>392.4858908864486</v>
+        <v>446.9054217747673</v>
       </c>
       <c r="D29" t="n">
-        <v>317.2257436273039</v>
+        <v>408.9577871678117</v>
       </c>
       <c r="E29" t="n">
-        <v>419.3248688065379</v>
+        <v>507.6117808817284</v>
       </c>
       <c r="F29" t="n">
-        <v>392.4858908864486</v>
+        <v>446.9054217747673</v>
       </c>
       <c r="G29" t="n">
-        <v>392.4858908864486</v>
+        <v>446.9054217747673</v>
       </c>
       <c r="H29" t="n">
-        <v>-23.46653699452979</v>
+        <v>9.239257765162822</v>
       </c>
       <c r="I29" t="n">
-        <v>-23.46653699452979</v>
+        <v>9.239257765162822</v>
       </c>
       <c r="J29" t="n">
-        <v>-23.46653699452979</v>
+        <v>9.239257765162822</v>
       </c>
       <c r="K29" t="n">
-        <v>-23.46653699452979</v>
+        <v>9.239257765162822</v>
       </c>
       <c r="L29" t="n">
-        <v>-23.46653699452979</v>
+        <v>9.239257765162822</v>
       </c>
       <c r="M29" t="n">
-        <v>-23.46653699452979</v>
+        <v>9.239257765162822</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>369.0193538919188</v>
+        <v>456.1446795399301</v>
       </c>
     </row>
     <row r="30">
@@ -2008,40 +2008,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43221</v>
+        <v>43770</v>
       </c>
       <c r="C30" t="n">
-        <v>395.7710028980091</v>
+        <v>450.830950417159</v>
       </c>
       <c r="D30" t="n">
-        <v>314.9890689733022</v>
+        <v>394.9101217888037</v>
       </c>
       <c r="E30" t="n">
-        <v>413.7714615199922</v>
+        <v>491.2778425150522</v>
       </c>
       <c r="F30" t="n">
-        <v>395.7710028980091</v>
+        <v>450.830950417159</v>
       </c>
       <c r="G30" t="n">
-        <v>395.7710028980091</v>
+        <v>450.830950417159</v>
       </c>
       <c r="H30" t="n">
-        <v>-32.69277567709912</v>
+        <v>-8.108619944715748</v>
       </c>
       <c r="I30" t="n">
-        <v>-32.69277567709912</v>
+        <v>-8.108619944715748</v>
       </c>
       <c r="J30" t="n">
-        <v>-32.69277567709912</v>
+        <v>-8.108619944715748</v>
       </c>
       <c r="K30" t="n">
-        <v>-32.69277567709912</v>
+        <v>-8.108619944715748</v>
       </c>
       <c r="L30" t="n">
-        <v>-32.69277567709912</v>
+        <v>-8.108619944715748</v>
       </c>
       <c r="M30" t="n">
-        <v>-32.69277567709912</v>
+        <v>-8.108619944715748</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>363.07822722091</v>
+        <v>442.7223304724432</v>
       </c>
     </row>
     <row r="31">
@@ -2061,40 +2061,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43252</v>
+        <v>43800</v>
       </c>
       <c r="C31" t="n">
-        <v>399.1656186411739</v>
+        <v>454.6294416287101</v>
       </c>
       <c r="D31" t="n">
-        <v>323.7148987742682</v>
+        <v>405.329465412515</v>
       </c>
       <c r="E31" t="n">
-        <v>424.1438021343284</v>
+        <v>506.4774372265554</v>
       </c>
       <c r="F31" t="n">
-        <v>399.1656186411739</v>
+        <v>454.6294416287101</v>
       </c>
       <c r="G31" t="n">
-        <v>399.1656186411739</v>
+        <v>454.6294416287101</v>
       </c>
       <c r="H31" t="n">
-        <v>-25.71292959645825</v>
+        <v>1.453544099043967</v>
       </c>
       <c r="I31" t="n">
-        <v>-25.71292959645825</v>
+        <v>1.453544099043967</v>
       </c>
       <c r="J31" t="n">
-        <v>-25.71292959645825</v>
+        <v>1.453544099043967</v>
       </c>
       <c r="K31" t="n">
-        <v>-25.71292959645825</v>
+        <v>1.453544099043967</v>
       </c>
       <c r="L31" t="n">
-        <v>-25.71292959645825</v>
+        <v>1.453544099043967</v>
       </c>
       <c r="M31" t="n">
-        <v>-25.71292959645825</v>
+        <v>1.453544099043967</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>373.4526890447157</v>
+        <v>456.0829857277541</v>
       </c>
     </row>
     <row r="32">
@@ -2114,40 +2114,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282</v>
+        <v>43831</v>
       </c>
       <c r="C32" t="n">
-        <v>402.4507306506883</v>
+        <v>458.551443224137</v>
       </c>
       <c r="D32" t="n">
-        <v>336.7137184010857</v>
+        <v>436.541164988082</v>
       </c>
       <c r="E32" t="n">
-        <v>436.7242766999151</v>
+        <v>531.5746833563701</v>
       </c>
       <c r="F32" t="n">
-        <v>402.4507306506883</v>
+        <v>458.551443224137</v>
       </c>
       <c r="G32" t="n">
-        <v>402.4507306506883</v>
+        <v>458.551443224137</v>
       </c>
       <c r="H32" t="n">
-        <v>-19.30786726215159</v>
+        <v>27.1097402344207</v>
       </c>
       <c r="I32" t="n">
-        <v>-19.30786726215159</v>
+        <v>27.1097402344207</v>
       </c>
       <c r="J32" t="n">
-        <v>-19.30786726215159</v>
+        <v>27.1097402344207</v>
       </c>
       <c r="K32" t="n">
-        <v>-19.30786726215159</v>
+        <v>27.1097402344207</v>
       </c>
       <c r="L32" t="n">
-        <v>-19.30786726215159</v>
+        <v>27.1097402344207</v>
       </c>
       <c r="M32" t="n">
-        <v>-19.30786726215159</v>
+        <v>27.1097402344207</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>383.1428633885367</v>
+        <v>485.6611834585577</v>
       </c>
     </row>
     <row r="33">
@@ -2167,40 +2167,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43313</v>
+        <v>43862</v>
       </c>
       <c r="C33" t="n">
-        <v>405.8453463938532</v>
+        <v>462.473444819564</v>
       </c>
       <c r="D33" t="n">
-        <v>334.7672252615166</v>
+        <v>439.0686223683894</v>
       </c>
       <c r="E33" t="n">
-        <v>433.1282247652366</v>
+        <v>540.972580471361</v>
       </c>
       <c r="F33" t="n">
-        <v>405.8453463938532</v>
+        <v>462.473444819564</v>
       </c>
       <c r="G33" t="n">
-        <v>405.8453463938532</v>
+        <v>462.473444819564</v>
       </c>
       <c r="H33" t="n">
-        <v>-24.75198376505005</v>
+        <v>27.36928776365954</v>
       </c>
       <c r="I33" t="n">
-        <v>-24.75198376505005</v>
+        <v>27.36928776365954</v>
       </c>
       <c r="J33" t="n">
-        <v>-24.75198376505005</v>
+        <v>27.36928776365954</v>
       </c>
       <c r="K33" t="n">
-        <v>-24.75198376505005</v>
+        <v>27.36928776365954</v>
       </c>
       <c r="L33" t="n">
-        <v>-24.75198376505005</v>
+        <v>27.36928776365954</v>
       </c>
       <c r="M33" t="n">
-        <v>-24.75198376505005</v>
+        <v>27.36928776365954</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>381.0933626288031</v>
+        <v>489.8427325832235</v>
       </c>
     </row>
     <row r="34">
@@ -2220,40 +2220,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43344</v>
+        <v>43891</v>
       </c>
       <c r="C34" t="n">
-        <v>409.2399709787605</v>
+        <v>466.1403915608627</v>
       </c>
       <c r="D34" t="n">
-        <v>361.3687977524986</v>
+        <v>429.9024030666109</v>
       </c>
       <c r="E34" t="n">
-        <v>455.0038192582471</v>
+        <v>529.5105051248329</v>
       </c>
       <c r="F34" t="n">
-        <v>409.2399709787605</v>
+        <v>466.1403915608627</v>
       </c>
       <c r="G34" t="n">
-        <v>409.2399709787605</v>
+        <v>466.1403915608627</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.347108521852715</v>
+        <v>14.45519559238695</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.347108521852715</v>
+        <v>14.45519559238695</v>
       </c>
       <c r="J34" t="n">
-        <v>-2.347108521852715</v>
+        <v>14.45519559238695</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.347108521852715</v>
+        <v>14.45519559238695</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.347108521852715</v>
+        <v>14.45519559238695</v>
       </c>
       <c r="M34" t="n">
-        <v>-2.347108521852715</v>
+        <v>14.45519559238695</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>406.8928624569078</v>
+        <v>480.5955871532497</v>
       </c>
     </row>
     <row r="35">
@@ -2273,40 +2273,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43374</v>
+        <v>43922</v>
       </c>
       <c r="C35" t="n">
-        <v>412.5250915447999</v>
+        <v>470.0602311808718</v>
       </c>
       <c r="D35" t="n">
-        <v>359.4125405037733</v>
+        <v>415.1488052517274</v>
       </c>
       <c r="E35" t="n">
-        <v>459.8759551718432</v>
+        <v>514.5380412655987</v>
       </c>
       <c r="F35" t="n">
-        <v>412.5250915447999</v>
+        <v>470.0602311808718</v>
       </c>
       <c r="G35" t="n">
-        <v>412.5250915447999</v>
+        <v>470.0602311808718</v>
       </c>
       <c r="H35" t="n">
-        <v>-2.415865379865216</v>
+        <v>-4.613501053987094</v>
       </c>
       <c r="I35" t="n">
-        <v>-2.415865379865216</v>
+        <v>-4.613501053987094</v>
       </c>
       <c r="J35" t="n">
-        <v>-2.415865379865216</v>
+        <v>-4.613501053987094</v>
       </c>
       <c r="K35" t="n">
-        <v>-2.415865379865216</v>
+        <v>-4.613501053987094</v>
       </c>
       <c r="L35" t="n">
-        <v>-2.415865379865216</v>
+        <v>-4.613501053987094</v>
       </c>
       <c r="M35" t="n">
-        <v>-2.415865379865216</v>
+        <v>-4.613501053987094</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>410.1092261649346</v>
+        <v>465.4467301268847</v>
       </c>
     </row>
     <row r="36">
@@ -2326,40 +2326,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43405</v>
+        <v>43952</v>
       </c>
       <c r="C36" t="n">
-        <v>415.9197161257164</v>
+        <v>473.8505368347062</v>
       </c>
       <c r="D36" t="n">
-        <v>348.4255923190738</v>
+        <v>384.3998388673587</v>
       </c>
       <c r="E36" t="n">
-        <v>444.7083349510787</v>
+        <v>484.5624292101613</v>
       </c>
       <c r="F36" t="n">
-        <v>415.9197161257164</v>
+        <v>473.8505368347062</v>
       </c>
       <c r="G36" t="n">
-        <v>415.9197161257164</v>
+        <v>473.8505368347062</v>
       </c>
       <c r="H36" t="n">
-        <v>-19.52571109489224</v>
+        <v>-40.33176619357402</v>
       </c>
       <c r="I36" t="n">
-        <v>-19.52571109489224</v>
+        <v>-40.33176619357402</v>
       </c>
       <c r="J36" t="n">
-        <v>-19.52571109489224</v>
+        <v>-40.33176619357402</v>
       </c>
       <c r="K36" t="n">
-        <v>-19.52571109489224</v>
+        <v>-40.33176619357402</v>
       </c>
       <c r="L36" t="n">
-        <v>-19.52571109489224</v>
+        <v>-40.33176619357402</v>
       </c>
       <c r="M36" t="n">
-        <v>-19.52571109489224</v>
+        <v>-40.33176619357402</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>396.3940050308242</v>
+        <v>433.5187706411322</v>
       </c>
     </row>
     <row r="37">
@@ -2379,40 +2379,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43435</v>
+        <v>43983</v>
       </c>
       <c r="C37" t="n">
-        <v>419.2048366878938</v>
+        <v>477.7671860103351</v>
       </c>
       <c r="D37" t="n">
-        <v>362.5234722476483</v>
+        <v>393.3248640135803</v>
       </c>
       <c r="E37" t="n">
-        <v>456.8902811151639</v>
+        <v>492.6286058619229</v>
       </c>
       <c r="F37" t="n">
-        <v>419.2048366878938</v>
+        <v>477.7671860103351</v>
       </c>
       <c r="G37" t="n">
-        <v>419.2048366878938</v>
+        <v>477.7671860103351</v>
       </c>
       <c r="H37" t="n">
-        <v>-10.22777041299942</v>
+        <v>-34.0664097488065</v>
       </c>
       <c r="I37" t="n">
-        <v>-10.22777041299942</v>
+        <v>-34.0664097488065</v>
       </c>
       <c r="J37" t="n">
-        <v>-10.22777041299942</v>
+        <v>-34.0664097488065</v>
       </c>
       <c r="K37" t="n">
-        <v>-10.22777041299942</v>
+        <v>-34.0664097488065</v>
       </c>
       <c r="L37" t="n">
-        <v>-10.22777041299942</v>
+        <v>-34.0664097488065</v>
       </c>
       <c r="M37" t="n">
-        <v>-10.22777041299942</v>
+        <v>-34.0664097488065</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>408.9770662748944</v>
+        <v>443.7007762615286</v>
       </c>
     </row>
     <row r="38">
@@ -2432,40 +2432,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43466</v>
+        <v>44013</v>
       </c>
       <c r="C38" t="n">
-        <v>422.5994612778546</v>
+        <v>481.1387976085381</v>
       </c>
       <c r="D38" t="n">
-        <v>383.1555492393861</v>
+        <v>375.5048929022824</v>
       </c>
       <c r="E38" t="n">
-        <v>479.9771851537276</v>
+        <v>474.8202067423165</v>
       </c>
       <c r="F38" t="n">
-        <v>422.5994612778546</v>
+        <v>481.1387976085381</v>
       </c>
       <c r="G38" t="n">
-        <v>422.5994612778546</v>
+        <v>481.1387976085381</v>
       </c>
       <c r="H38" t="n">
-        <v>6.739861524367742</v>
+        <v>-55.83907226649381</v>
       </c>
       <c r="I38" t="n">
-        <v>6.739861524367742</v>
+        <v>-55.83907226649381</v>
       </c>
       <c r="J38" t="n">
-        <v>6.739861524367742</v>
+        <v>-55.83907226649381</v>
       </c>
       <c r="K38" t="n">
-        <v>6.739861524367742</v>
+        <v>-55.83907226649381</v>
       </c>
       <c r="L38" t="n">
-        <v>6.739861524367742</v>
+        <v>-55.83907226649381</v>
       </c>
       <c r="M38" t="n">
-        <v>6.739861524367742</v>
+        <v>-55.83907226649381</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>429.3393228022223</v>
+        <v>425.2997253420443</v>
       </c>
     </row>
     <row r="39">
@@ -2485,40 +2485,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43497</v>
+        <v>44044</v>
       </c>
       <c r="C39" t="n">
-        <v>425.9940858678154</v>
+        <v>484.6227962600145</v>
       </c>
       <c r="D39" t="n">
-        <v>385.7630157984711</v>
+        <v>419.9761727024694</v>
       </c>
       <c r="E39" t="n">
-        <v>487.8494243215669</v>
+        <v>522.33339155678</v>
       </c>
       <c r="F39" t="n">
-        <v>425.9940858678154</v>
+        <v>484.6227962600145</v>
       </c>
       <c r="G39" t="n">
-        <v>425.9940858678154</v>
+        <v>484.6227962600145</v>
       </c>
       <c r="H39" t="n">
-        <v>10.37685570926361</v>
+        <v>-12.73648043838437</v>
       </c>
       <c r="I39" t="n">
-        <v>10.37685570926361</v>
+        <v>-12.73648043838437</v>
       </c>
       <c r="J39" t="n">
-        <v>10.37685570926361</v>
+        <v>-12.73648043838437</v>
       </c>
       <c r="K39" t="n">
-        <v>10.37685570926361</v>
+        <v>-12.73648043838437</v>
       </c>
       <c r="L39" t="n">
-        <v>10.37685570926361</v>
+        <v>-12.73648043838437</v>
       </c>
       <c r="M39" t="n">
-        <v>10.37685570926361</v>
+        <v>-12.73648043838437</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>436.370941577079</v>
+        <v>471.8863158216301</v>
       </c>
     </row>
     <row r="40">
@@ -2538,40 +2538,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43525</v>
+        <v>44075</v>
       </c>
       <c r="C40" t="n">
-        <v>429.0601984006832</v>
+        <v>488.106782099089</v>
       </c>
       <c r="D40" t="n">
-        <v>340.3698622090742</v>
+        <v>449.0805736228341</v>
       </c>
       <c r="E40" t="n">
-        <v>439.9984229944837</v>
+        <v>547.4883232335202</v>
       </c>
       <c r="F40" t="n">
-        <v>429.0601984006832</v>
+        <v>488.106782099089</v>
       </c>
       <c r="G40" t="n">
-        <v>429.0601984006832</v>
+        <v>488.106782099089</v>
       </c>
       <c r="H40" t="n">
-        <v>-35.09849760135494</v>
+        <v>8.602790687726948</v>
       </c>
       <c r="I40" t="n">
-        <v>-35.09849760135494</v>
+        <v>8.602790687726948</v>
       </c>
       <c r="J40" t="n">
-        <v>-35.09849760135494</v>
+        <v>8.602790687726948</v>
       </c>
       <c r="K40" t="n">
-        <v>-35.09849760135494</v>
+        <v>8.602790687726948</v>
       </c>
       <c r="L40" t="n">
-        <v>-35.09849760135494</v>
+        <v>8.602790687726948</v>
       </c>
       <c r="M40" t="n">
-        <v>-35.09849760135494</v>
+        <v>8.602790687726948</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>393.9617007993283</v>
+        <v>496.709572786816</v>
       </c>
     </row>
     <row r="41">
@@ -2591,40 +2591,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43556</v>
+        <v>44105</v>
       </c>
       <c r="C41" t="n">
-        <v>432.4548229866738</v>
+        <v>491.4783812981933</v>
       </c>
       <c r="D41" t="n">
-        <v>348.7096770405624</v>
+        <v>456.3402595621308</v>
       </c>
       <c r="E41" t="n">
-        <v>445.2305127447261</v>
+        <v>555.7959958413547</v>
       </c>
       <c r="F41" t="n">
-        <v>432.4548229866738</v>
+        <v>491.4783812981933</v>
       </c>
       <c r="G41" t="n">
-        <v>432.4548229866738</v>
+        <v>491.4783812981933</v>
       </c>
       <c r="H41" t="n">
-        <v>-34.96642177662077</v>
+        <v>13.8071477954676</v>
       </c>
       <c r="I41" t="n">
-        <v>-34.96642177662077</v>
+        <v>13.8071477954676</v>
       </c>
       <c r="J41" t="n">
-        <v>-34.96642177662077</v>
+        <v>13.8071477954676</v>
       </c>
       <c r="K41" t="n">
-        <v>-34.96642177662077</v>
+        <v>13.8071477954676</v>
       </c>
       <c r="L41" t="n">
-        <v>-34.96642177662077</v>
+        <v>13.8071477954676</v>
       </c>
       <c r="M41" t="n">
-        <v>-34.96642177662077</v>
+        <v>13.8071477954676</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>397.488401210053</v>
+        <v>505.2855290936608</v>
       </c>
     </row>
     <row r="42">
@@ -2644,40 +2644,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43586</v>
+        <v>44136</v>
       </c>
       <c r="C42" t="n">
-        <v>435.7399435537613</v>
+        <v>494.9610329396139</v>
       </c>
       <c r="D42" t="n">
-        <v>345.0918231537296</v>
+        <v>449.0454517689037</v>
       </c>
       <c r="E42" t="n">
-        <v>446.5989175710999</v>
+        <v>555.6591001981162</v>
       </c>
       <c r="F42" t="n">
-        <v>435.7399435537613</v>
+        <v>494.9610329396139</v>
       </c>
       <c r="G42" t="n">
-        <v>435.7399435537613</v>
+        <v>494.9610329396139</v>
       </c>
       <c r="H42" t="n">
-        <v>-37.98217101409698</v>
+        <v>7.133951461143224</v>
       </c>
       <c r="I42" t="n">
-        <v>-37.98217101409698</v>
+        <v>7.133951461143224</v>
       </c>
       <c r="J42" t="n">
-        <v>-37.98217101409698</v>
+        <v>7.133951461143224</v>
       </c>
       <c r="K42" t="n">
-        <v>-37.98217101409698</v>
+        <v>7.133951461143224</v>
       </c>
       <c r="L42" t="n">
-        <v>-37.98217101409698</v>
+        <v>7.133951461143224</v>
       </c>
       <c r="M42" t="n">
-        <v>-37.98217101409698</v>
+        <v>7.133951461143224</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>397.7577725396643</v>
+        <v>502.0949844007571</v>
       </c>
     </row>
     <row r="43">
@@ -2697,40 +2697,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43617</v>
+        <v>44166</v>
       </c>
       <c r="C43" t="n">
-        <v>439.134568130242</v>
+        <v>498.330820516713</v>
       </c>
       <c r="D43" t="n">
-        <v>377.1519323280264</v>
+        <v>467.0679698864424</v>
       </c>
       <c r="E43" t="n">
-        <v>471.5185050647665</v>
+        <v>565.7366993172378</v>
       </c>
       <c r="F43" t="n">
-        <v>439.134568130242</v>
+        <v>498.330820516713</v>
       </c>
       <c r="G43" t="n">
-        <v>439.134568130242</v>
+        <v>498.330820516713</v>
       </c>
       <c r="H43" t="n">
-        <v>-12.81070313422761</v>
+        <v>15.65744270806382</v>
       </c>
       <c r="I43" t="n">
-        <v>-12.81070313422761</v>
+        <v>15.65744270806382</v>
       </c>
       <c r="J43" t="n">
-        <v>-12.81070313422761</v>
+        <v>15.65744270806382</v>
       </c>
       <c r="K43" t="n">
-        <v>-12.81070313422761</v>
+        <v>15.65744270806382</v>
       </c>
       <c r="L43" t="n">
-        <v>-12.81070313422761</v>
+        <v>15.65744270806382</v>
       </c>
       <c r="M43" t="n">
-        <v>-12.81070313422761</v>
+        <v>15.65744270806382</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>426.3238649960144</v>
+        <v>513.9882632247768</v>
       </c>
     </row>
     <row r="44">
@@ -2750,40 +2750,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43647</v>
+        <v>44197</v>
       </c>
       <c r="C44" t="n">
-        <v>442.4196886881265</v>
+        <v>501.812934346382</v>
       </c>
       <c r="D44" t="n">
-        <v>381.034871033922</v>
+        <v>446.2257190167429</v>
       </c>
       <c r="E44" t="n">
-        <v>482.9200475416871</v>
+        <v>543.2221686464108</v>
       </c>
       <c r="F44" t="n">
-        <v>442.4196886881265</v>
+        <v>501.812934346382</v>
       </c>
       <c r="G44" t="n">
-        <v>442.4196886881265</v>
+        <v>501.812934346382</v>
       </c>
       <c r="H44" t="n">
-        <v>-9.718885626275227</v>
+        <v>-5.392386316497785</v>
       </c>
       <c r="I44" t="n">
-        <v>-9.718885626275227</v>
+        <v>-5.392386316497785</v>
       </c>
       <c r="J44" t="n">
-        <v>-9.718885626275227</v>
+        <v>-5.392386316497785</v>
       </c>
       <c r="K44" t="n">
-        <v>-9.718885626275227</v>
+        <v>-5.392386316497785</v>
       </c>
       <c r="L44" t="n">
-        <v>-9.718885626275227</v>
+        <v>-5.392386316497785</v>
       </c>
       <c r="M44" t="n">
-        <v>-9.718885626275227</v>
+        <v>-5.392386316497785</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>432.7008030618513</v>
+        <v>496.4205480298842</v>
       </c>
     </row>
     <row r="45">
@@ -2803,40 +2803,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43678</v>
+        <v>44228</v>
       </c>
       <c r="C45" t="n">
-        <v>445.8143132599164</v>
+        <v>505.2950468329974</v>
       </c>
       <c r="D45" t="n">
-        <v>369.6032324087578</v>
+        <v>440.6115175693021</v>
       </c>
       <c r="E45" t="n">
-        <v>464.3023313859085</v>
+        <v>541.7458423758571</v>
       </c>
       <c r="F45" t="n">
-        <v>445.8143132599164</v>
+        <v>505.2950468329974</v>
       </c>
       <c r="G45" t="n">
-        <v>445.8143132599164</v>
+        <v>505.2950468329974</v>
       </c>
       <c r="H45" t="n">
-        <v>-29.47498684732078</v>
+        <v>-14.90453115695871</v>
       </c>
       <c r="I45" t="n">
-        <v>-29.47498684732078</v>
+        <v>-14.90453115695871</v>
       </c>
       <c r="J45" t="n">
-        <v>-29.47498684732078</v>
+        <v>-14.90453115695871</v>
       </c>
       <c r="K45" t="n">
-        <v>-29.47498684732078</v>
+        <v>-14.90453115695871</v>
       </c>
       <c r="L45" t="n">
-        <v>-29.47498684732078</v>
+        <v>-14.90453115695871</v>
       </c>
       <c r="M45" t="n">
-        <v>-29.47498684732078</v>
+        <v>-14.90453115695871</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>416.3393264125957</v>
+        <v>490.3905156760387</v>
       </c>
     </row>
     <row r="46">
@@ -2856,40 +2856,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43709</v>
+        <v>44256</v>
       </c>
       <c r="C46" t="n">
-        <v>449.2089378317063</v>
+        <v>508.4401806918759</v>
       </c>
       <c r="D46" t="n">
-        <v>398.5012431167815</v>
+        <v>457.9866223671526</v>
       </c>
       <c r="E46" t="n">
-        <v>494.6080800548879</v>
+        <v>562.2737705967919</v>
       </c>
       <c r="F46" t="n">
-        <v>449.2089378317063</v>
+        <v>508.4401806918759</v>
       </c>
       <c r="G46" t="n">
-        <v>449.2089378317063</v>
+        <v>508.4401806918759</v>
       </c>
       <c r="H46" t="n">
-        <v>-3.303794711174898</v>
+        <v>0.2126127243143582</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.303794711174898</v>
+        <v>0.2126127243143582</v>
       </c>
       <c r="J46" t="n">
-        <v>-3.303794711174898</v>
+        <v>0.2126127243143582</v>
       </c>
       <c r="K46" t="n">
-        <v>-3.303794711174898</v>
+        <v>0.2126127243143582</v>
       </c>
       <c r="L46" t="n">
-        <v>-3.303794711174898</v>
+        <v>0.2126127243143582</v>
       </c>
       <c r="M46" t="n">
-        <v>-3.303794711174898</v>
+        <v>0.2126127243143582</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>445.9051431205314</v>
+        <v>508.6527934161903</v>
       </c>
     </row>
     <row r="47">
@@ -2909,40 +2909,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43739</v>
+        <v>44287</v>
       </c>
       <c r="C47" t="n">
-        <v>452.4940583850514</v>
+        <v>511.9222931691369</v>
       </c>
       <c r="D47" t="n">
-        <v>402.1799487041806</v>
+        <v>447.2942265795334</v>
       </c>
       <c r="E47" t="n">
-        <v>494.0624694324422</v>
+        <v>551.7909840829751</v>
       </c>
       <c r="F47" t="n">
-        <v>452.4940583850514</v>
+        <v>511.9222931691369</v>
       </c>
       <c r="G47" t="n">
-        <v>452.4940583850514</v>
+        <v>511.9222931691369</v>
       </c>
       <c r="H47" t="n">
-        <v>-5.308213845456505</v>
+        <v>-14.56495624418632</v>
       </c>
       <c r="I47" t="n">
-        <v>-5.308213845456505</v>
+        <v>-14.56495624418632</v>
       </c>
       <c r="J47" t="n">
-        <v>-5.308213845456505</v>
+        <v>-14.56495624418632</v>
       </c>
       <c r="K47" t="n">
-        <v>-5.308213845456505</v>
+        <v>-14.56495624418632</v>
       </c>
       <c r="L47" t="n">
-        <v>-5.308213845456505</v>
+        <v>-14.56495624418632</v>
       </c>
       <c r="M47" t="n">
-        <v>-5.308213845456505</v>
+        <v>-14.56495624418632</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>447.1858445395949</v>
+        <v>497.3573369249506</v>
       </c>
     </row>
     <row r="48">
@@ -2962,40 +2962,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43770</v>
+        <v>44317</v>
       </c>
       <c r="C48" t="n">
-        <v>455.8886829475621</v>
+        <v>515.2920794374539</v>
       </c>
       <c r="D48" t="n">
-        <v>376.4215001722583</v>
+        <v>430.516241686383</v>
       </c>
       <c r="E48" t="n">
-        <v>478.4467100192651</v>
+        <v>528.7926153642163</v>
       </c>
       <c r="F48" t="n">
-        <v>455.8886829475621</v>
+        <v>515.2920794374539</v>
       </c>
       <c r="G48" t="n">
-        <v>455.8886829475621</v>
+        <v>515.2920794374539</v>
       </c>
       <c r="H48" t="n">
-        <v>-26.05081065170808</v>
+        <v>-34.64955513726996</v>
       </c>
       <c r="I48" t="n">
-        <v>-26.05081065170808</v>
+        <v>-34.64955513726996</v>
       </c>
       <c r="J48" t="n">
-        <v>-26.05081065170808</v>
+        <v>-34.64955513726996</v>
       </c>
       <c r="K48" t="n">
-        <v>-26.05081065170808</v>
+        <v>-34.64955513726996</v>
       </c>
       <c r="L48" t="n">
-        <v>-26.05081065170808</v>
+        <v>-34.64955513726996</v>
       </c>
       <c r="M48" t="n">
-        <v>-26.05081065170808</v>
+        <v>-34.64955513726996</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>429.837872295854</v>
+        <v>480.642524300184</v>
       </c>
     </row>
     <row r="49">
@@ -3015,40 +3015,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43800</v>
+        <v>44348</v>
       </c>
       <c r="C49" t="n">
-        <v>459.1738034919272</v>
+        <v>518.7741919202009</v>
       </c>
       <c r="D49" t="n">
-        <v>390.3132669772662</v>
+        <v>436.7221414330589</v>
       </c>
       <c r="E49" t="n">
-        <v>490.6514617971976</v>
+        <v>536.7366984616812</v>
       </c>
       <c r="F49" t="n">
-        <v>459.1738034919272</v>
+        <v>518.7741919202009</v>
       </c>
       <c r="G49" t="n">
-        <v>459.1738034919272</v>
+        <v>518.7741919202009</v>
       </c>
       <c r="H49" t="n">
-        <v>-17.04502460204677</v>
+        <v>-31.86040675798442</v>
       </c>
       <c r="I49" t="n">
-        <v>-17.04502460204677</v>
+        <v>-31.86040675798442</v>
       </c>
       <c r="J49" t="n">
-        <v>-17.04502460204677</v>
+        <v>-31.86040675798442</v>
       </c>
       <c r="K49" t="n">
-        <v>-17.04502460204677</v>
+        <v>-31.86040675798442</v>
       </c>
       <c r="L49" t="n">
-        <v>-17.04502460204677</v>
+        <v>-31.86040675798442</v>
       </c>
       <c r="M49" t="n">
-        <v>-17.04502460204677</v>
+        <v>-31.86040675798442</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>442.1287788898804</v>
+        <v>486.9137851622165</v>
       </c>
     </row>
     <row r="50">
@@ -3068,40 +3068,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43831</v>
+        <v>44378</v>
       </c>
       <c r="C50" t="n">
-        <v>462.5684280407945</v>
+        <v>522.1439781938271</v>
       </c>
       <c r="D50" t="n">
-        <v>432.5367637022139</v>
+        <v>426.2184253369801</v>
       </c>
       <c r="E50" t="n">
-        <v>529.0854241216102</v>
+        <v>527.0627228714767</v>
       </c>
       <c r="F50" t="n">
-        <v>462.5684280407945</v>
+        <v>522.1439781938271</v>
       </c>
       <c r="G50" t="n">
-        <v>462.5684280407945</v>
+        <v>522.1439781938271</v>
       </c>
       <c r="H50" t="n">
-        <v>18.85935749519894</v>
+        <v>-47.45339345315055</v>
       </c>
       <c r="I50" t="n">
-        <v>18.85935749519894</v>
+        <v>-47.45339345315055</v>
       </c>
       <c r="J50" t="n">
-        <v>18.85935749519894</v>
+        <v>-47.45339345315055</v>
       </c>
       <c r="K50" t="n">
-        <v>18.85935749519894</v>
+        <v>-47.45339345315055</v>
       </c>
       <c r="L50" t="n">
-        <v>18.85935749519894</v>
+        <v>-47.45339345315055</v>
       </c>
       <c r="M50" t="n">
-        <v>18.85935749519894</v>
+        <v>-47.45339345315055</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>481.4277855359935</v>
+        <v>474.6905847406766</v>
       </c>
     </row>
     <row r="51">
@@ -3121,40 +3121,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43862</v>
+        <v>44409</v>
       </c>
       <c r="C51" t="n">
-        <v>465.9630525896619</v>
+        <v>525.6260906765742</v>
       </c>
       <c r="D51" t="n">
-        <v>450.1781604359346</v>
+        <v>455.826307789173</v>
       </c>
       <c r="E51" t="n">
-        <v>545.5492564412801</v>
+        <v>558.8379391924723</v>
       </c>
       <c r="F51" t="n">
-        <v>465.9630525896619</v>
+        <v>525.6260906765742</v>
       </c>
       <c r="G51" t="n">
-        <v>465.9630525896619</v>
+        <v>525.6260906765742</v>
       </c>
       <c r="H51" t="n">
-        <v>30.21825223074321</v>
+        <v>-16.62557258733705</v>
       </c>
       <c r="I51" t="n">
-        <v>30.21825223074321</v>
+        <v>-16.62557258733705</v>
       </c>
       <c r="J51" t="n">
-        <v>30.21825223074321</v>
+        <v>-16.62557258733705</v>
       </c>
       <c r="K51" t="n">
-        <v>30.21825223074321</v>
+        <v>-16.62557258733705</v>
       </c>
       <c r="L51" t="n">
-        <v>30.21825223074321</v>
+        <v>-16.62557258733705</v>
       </c>
       <c r="M51" t="n">
-        <v>30.21825223074321</v>
+        <v>-16.62557258733705</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>496.181304820405</v>
+        <v>509.0005180892372</v>
       </c>
     </row>
     <row r="52">
@@ -3174,40 +3174,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43891</v>
+        <v>44440</v>
       </c>
       <c r="C52" t="n">
-        <v>469.1386691031184</v>
+        <v>529.1082031593213</v>
       </c>
       <c r="D52" t="n">
-        <v>427.8926690311079</v>
+        <v>487.9528735418509</v>
       </c>
       <c r="E52" t="n">
-        <v>525.9553339101958</v>
+        <v>590.2454011140023</v>
       </c>
       <c r="F52" t="n">
-        <v>469.1386691031184</v>
+        <v>529.1082031593213</v>
       </c>
       <c r="G52" t="n">
-        <v>469.1386691031184</v>
+        <v>529.1082031593213</v>
       </c>
       <c r="H52" t="n">
-        <v>9.551814613039639</v>
+        <v>7.67561977466168</v>
       </c>
       <c r="I52" t="n">
-        <v>9.551814613039639</v>
+        <v>7.67561977466168</v>
       </c>
       <c r="J52" t="n">
-        <v>9.551814613039639</v>
+        <v>7.67561977466168</v>
       </c>
       <c r="K52" t="n">
-        <v>9.551814613039639</v>
+        <v>7.67561977466168</v>
       </c>
       <c r="L52" t="n">
-        <v>9.551814613039639</v>
+        <v>7.67561977466168</v>
       </c>
       <c r="M52" t="n">
-        <v>9.551814613039639</v>
+        <v>7.67561977466168</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>478.690483716158</v>
+        <v>536.7838229339829</v>
       </c>
     </row>
     <row r="53">
@@ -3227,40 +3227,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43922</v>
+        <v>44470</v>
       </c>
       <c r="C53" t="n">
-        <v>472.5332936322422</v>
+        <v>532.4779894329475</v>
       </c>
       <c r="D53" t="n">
-        <v>424.3888414732292</v>
+        <v>494.0759613147783</v>
       </c>
       <c r="E53" t="n">
-        <v>523.5480767592653</v>
+        <v>594.3536291572475</v>
       </c>
       <c r="F53" t="n">
-        <v>472.5332936322422</v>
+        <v>532.4779894329475</v>
       </c>
       <c r="G53" t="n">
-        <v>472.5332936322422</v>
+        <v>532.4779894329475</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.1907171409875956</v>
+        <v>12.34246452856962</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.1907171409875956</v>
+        <v>12.34246452856962</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.1907171409875956</v>
+        <v>12.34246452856962</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.1907171409875956</v>
+        <v>12.34246452856962</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.1907171409875956</v>
+        <v>12.34246452856962</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.1907171409875956</v>
+        <v>12.34246452856962</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>472.3425764912546</v>
+        <v>544.8204539615172</v>
       </c>
     </row>
     <row r="54">
@@ -3280,40 +3280,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43952</v>
+        <v>44501</v>
       </c>
       <c r="C54" t="n">
-        <v>475.8184141442975</v>
+        <v>535.9601019156945</v>
       </c>
       <c r="D54" t="n">
-        <v>404.0417924253782</v>
+        <v>487.1590770678922</v>
       </c>
       <c r="E54" t="n">
-        <v>501.6246720556112</v>
+        <v>588.642998475048</v>
       </c>
       <c r="F54" t="n">
-        <v>475.8184141442975</v>
+        <v>535.9601019156945</v>
       </c>
       <c r="G54" t="n">
-        <v>475.8184141442975</v>
+        <v>535.9601019156945</v>
       </c>
       <c r="H54" t="n">
-        <v>-20.73730216309839</v>
+        <v>2.017566972377501</v>
       </c>
       <c r="I54" t="n">
-        <v>-20.73730216309839</v>
+        <v>2.017566972377501</v>
       </c>
       <c r="J54" t="n">
-        <v>-20.73730216309839</v>
+        <v>2.017566972377501</v>
       </c>
       <c r="K54" t="n">
-        <v>-20.73730216309839</v>
+        <v>2.017566972377501</v>
       </c>
       <c r="L54" t="n">
-        <v>-20.73730216309839</v>
+        <v>2.017566972377501</v>
       </c>
       <c r="M54" t="n">
-        <v>-20.73730216309839</v>
+        <v>2.017566972377501</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>455.0811119811991</v>
+        <v>537.977668888072</v>
       </c>
     </row>
     <row r="55">
@@ -3333,40 +3333,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43983</v>
+        <v>44531</v>
       </c>
       <c r="C55" t="n">
-        <v>479.2126259893527</v>
+        <v>539.3298881893207</v>
       </c>
       <c r="D55" t="n">
-        <v>378.0321163525361</v>
+        <v>506.3547834991351</v>
       </c>
       <c r="E55" t="n">
-        <v>480.0877990961285</v>
+        <v>601.0355536321086</v>
       </c>
       <c r="F55" t="n">
-        <v>479.2126259893527</v>
+        <v>539.3298881893207</v>
       </c>
       <c r="G55" t="n">
-        <v>479.2126259893527</v>
+        <v>539.3298881893207</v>
       </c>
       <c r="H55" t="n">
-        <v>-50.59355315379862</v>
+        <v>10.62657778805357</v>
       </c>
       <c r="I55" t="n">
-        <v>-50.59355315379862</v>
+        <v>10.62657778805357</v>
       </c>
       <c r="J55" t="n">
-        <v>-50.59355315379862</v>
+        <v>10.62657778805357</v>
       </c>
       <c r="K55" t="n">
-        <v>-50.59355315379862</v>
+        <v>10.62657778805357</v>
       </c>
       <c r="L55" t="n">
-        <v>-50.59355315379862</v>
+        <v>10.62657778805357</v>
       </c>
       <c r="M55" t="n">
-        <v>-50.59355315379862</v>
+        <v>10.62657778805357</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>428.6190728355541</v>
+        <v>549.9564659773744</v>
       </c>
     </row>
     <row r="56">
@@ -3386,40 +3386,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44013</v>
+        <v>44562</v>
       </c>
       <c r="C56" t="n">
-        <v>482.4973471297286</v>
+        <v>542.8120006720678</v>
       </c>
       <c r="D56" t="n">
-        <v>393.0966235893429</v>
+        <v>498.5612017961345</v>
       </c>
       <c r="E56" t="n">
-        <v>493.4470342521523</v>
+        <v>596.3003040230026</v>
       </c>
       <c r="F56" t="n">
-        <v>482.4973471297286</v>
+        <v>542.8120006720678</v>
       </c>
       <c r="G56" t="n">
-        <v>482.4973471297286</v>
+        <v>542.8120006720678</v>
       </c>
       <c r="H56" t="n">
-        <v>-39.15993354179962</v>
+        <v>5.207416579292261</v>
       </c>
       <c r="I56" t="n">
-        <v>-39.15993354179962</v>
+        <v>5.207416579292261</v>
       </c>
       <c r="J56" t="n">
-        <v>-39.15993354179962</v>
+        <v>5.207416579292261</v>
       </c>
       <c r="K56" t="n">
-        <v>-39.15993354179962</v>
+        <v>5.207416579292261</v>
       </c>
       <c r="L56" t="n">
-        <v>-39.15993354179962</v>
+        <v>5.207416579292261</v>
       </c>
       <c r="M56" t="n">
-        <v>-39.15993354179962</v>
+        <v>5.207416579292261</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>443.3374135879289</v>
+        <v>548.0194172513601</v>
       </c>
     </row>
     <row r="57">
@@ -3439,40 +3439,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44044</v>
+        <v>44593</v>
       </c>
       <c r="C57" t="n">
-        <v>485.8902671949855</v>
+        <v>546.2941131548149</v>
       </c>
       <c r="D57" t="n">
-        <v>419.7040082493734</v>
+        <v>496.694969976717</v>
       </c>
       <c r="E57" t="n">
-        <v>516.9526101144419</v>
+        <v>597.71196781084</v>
       </c>
       <c r="F57" t="n">
-        <v>485.8902671949855</v>
+        <v>546.2941131548149</v>
       </c>
       <c r="G57" t="n">
-        <v>485.8902671949855</v>
+        <v>546.2941131548149</v>
       </c>
       <c r="H57" t="n">
-        <v>-16.05397803980534</v>
+        <v>-0.4992694136909207</v>
       </c>
       <c r="I57" t="n">
-        <v>-16.05397803980534</v>
+        <v>-0.4992694136909207</v>
       </c>
       <c r="J57" t="n">
-        <v>-16.05397803980534</v>
+        <v>-0.4992694136909207</v>
       </c>
       <c r="K57" t="n">
-        <v>-16.05397803980534</v>
+        <v>-0.4992694136909207</v>
       </c>
       <c r="L57" t="n">
-        <v>-16.05397803980534</v>
+        <v>-0.4992694136909207</v>
       </c>
       <c r="M57" t="n">
-        <v>-16.05397803980534</v>
+        <v>-0.4992694136909207</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>469.8362891551802</v>
+        <v>545.7948437411239</v>
       </c>
     </row>
     <row r="58">
@@ -3492,40 +3492,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44075</v>
+        <v>44621</v>
       </c>
       <c r="C58" t="n">
-        <v>489.2831872602424</v>
+        <v>549.4392470101994</v>
       </c>
       <c r="D58" t="n">
-        <v>443.2694433766008</v>
+        <v>484.5397871327416</v>
       </c>
       <c r="E58" t="n">
-        <v>539.4590597186475</v>
+        <v>581.2547560853722</v>
       </c>
       <c r="F58" t="n">
-        <v>489.2831872602424</v>
+        <v>549.4392470101994</v>
       </c>
       <c r="G58" t="n">
-        <v>489.2831872602424</v>
+        <v>549.4392470101994</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.7588793277957745</v>
+        <v>-14.33371431492144</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.7588793277957745</v>
+        <v>-14.33371431492144</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.7588793277957745</v>
+        <v>-14.33371431492144</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.7588793277957745</v>
+        <v>-14.33371431492144</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.7588793277957745</v>
+        <v>-14.33371431492144</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.7588793277957745</v>
+        <v>-14.33371431492144</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>488.5243079324466</v>
+        <v>535.105532695278</v>
       </c>
     </row>
     <row r="59">
@@ -3545,40 +3545,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44105</v>
+        <v>44652</v>
       </c>
       <c r="C59" t="n">
-        <v>492.5666582911362</v>
+        <v>552.9213594929465</v>
       </c>
       <c r="D59" t="n">
-        <v>445.6277082475257</v>
+        <v>474.7102488836095</v>
       </c>
       <c r="E59" t="n">
-        <v>544.9253318549286</v>
+        <v>582.120539026015</v>
       </c>
       <c r="F59" t="n">
-        <v>492.5666582911362</v>
+        <v>552.9213594929465</v>
       </c>
       <c r="G59" t="n">
-        <v>492.5666582911362</v>
+        <v>552.9213594929465</v>
       </c>
       <c r="H59" t="n">
-        <v>3.091747995060413</v>
+        <v>-24.28534876312984</v>
       </c>
       <c r="I59" t="n">
-        <v>3.091747995060413</v>
+        <v>-24.28534876312984</v>
       </c>
       <c r="J59" t="n">
-        <v>3.091747995060413</v>
+        <v>-24.28534876312984</v>
       </c>
       <c r="K59" t="n">
-        <v>3.091747995060413</v>
+        <v>-24.28534876312984</v>
       </c>
       <c r="L59" t="n">
-        <v>3.091747995060413</v>
+        <v>-24.28534876312984</v>
       </c>
       <c r="M59" t="n">
-        <v>3.091747995060413</v>
+        <v>-24.28534876312984</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>495.6584062861966</v>
+        <v>528.6360107298167</v>
       </c>
     </row>
     <row r="60">
@@ -3598,40 +3598,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44136</v>
+        <v>44682</v>
       </c>
       <c r="C60" t="n">
-        <v>495.95957831121</v>
+        <v>556.2911457665726</v>
       </c>
       <c r="D60" t="n">
-        <v>438.3847671444973</v>
+        <v>477.2182802299432</v>
       </c>
       <c r="E60" t="n">
-        <v>535.9431003121276</v>
+        <v>576.2469540628532</v>
       </c>
       <c r="F60" t="n">
-        <v>495.95957831121</v>
+        <v>556.2911457665726</v>
       </c>
       <c r="G60" t="n">
-        <v>495.95957831121</v>
+        <v>556.2911457665726</v>
       </c>
       <c r="H60" t="n">
-        <v>-6.364155662649345</v>
+        <v>-28.69845053397517</v>
       </c>
       <c r="I60" t="n">
-        <v>-6.364155662649345</v>
+        <v>-28.69845053397517</v>
       </c>
       <c r="J60" t="n">
-        <v>-6.364155662649345</v>
+        <v>-28.69845053397517</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.364155662649345</v>
+        <v>-28.69845053397517</v>
       </c>
       <c r="L60" t="n">
-        <v>-6.364155662649345</v>
+        <v>-28.69845053397517</v>
       </c>
       <c r="M60" t="n">
-        <v>-6.364155662649345</v>
+        <v>-28.69845053397517</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>489.5954226485606</v>
+        <v>527.5926952325975</v>
       </c>
     </row>
     <row r="61">
@@ -3651,40 +3651,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44166</v>
+        <v>44713</v>
       </c>
       <c r="C61" t="n">
-        <v>499.2430492983781</v>
+        <v>559.7732582493198</v>
       </c>
       <c r="D61" t="n">
-        <v>458.1335323916052</v>
+        <v>480.0643634343963</v>
       </c>
       <c r="E61" t="n">
-        <v>555.0079303161576</v>
+        <v>584.2738170262511</v>
       </c>
       <c r="F61" t="n">
-        <v>499.2430492983781</v>
+        <v>559.7685846872309</v>
       </c>
       <c r="G61" t="n">
-        <v>499.2430492983781</v>
+        <v>559.7775248746517</v>
       </c>
       <c r="H61" t="n">
-        <v>4.54755621296857</v>
+        <v>-29.55704053733912</v>
       </c>
       <c r="I61" t="n">
-        <v>4.54755621296857</v>
+        <v>-29.55704053733912</v>
       </c>
       <c r="J61" t="n">
-        <v>4.54755621296857</v>
+        <v>-29.55704053733912</v>
       </c>
       <c r="K61" t="n">
-        <v>4.54755621296857</v>
+        <v>-29.55704053733912</v>
       </c>
       <c r="L61" t="n">
-        <v>4.54755621296857</v>
+        <v>-29.55704053733912</v>
       </c>
       <c r="M61" t="n">
-        <v>4.54755621296857</v>
+        <v>-29.55704053733912</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>503.7906055113467</v>
+        <v>530.2162177119807</v>
       </c>
     </row>
     <row r="62">
@@ -3704,40 +3704,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44197</v>
+        <v>44743</v>
       </c>
       <c r="C62" t="n">
-        <v>502.635969314958</v>
+        <v>563.143044522946</v>
       </c>
       <c r="D62" t="n">
-        <v>436.745943161256</v>
+        <v>475.3471277540598</v>
       </c>
       <c r="E62" t="n">
-        <v>535.717560131809</v>
+        <v>574.3366445868691</v>
       </c>
       <c r="F62" t="n">
-        <v>502.635969314958</v>
+        <v>563.1218306594034</v>
       </c>
       <c r="G62" t="n">
-        <v>502.635969314958</v>
+        <v>563.1634053308394</v>
       </c>
       <c r="H62" t="n">
-        <v>-16.39833064469816</v>
+        <v>-39.17563576883126</v>
       </c>
       <c r="I62" t="n">
-        <v>-16.39833064469816</v>
+        <v>-39.17563576883126</v>
       </c>
       <c r="J62" t="n">
-        <v>-16.39833064469816</v>
+        <v>-39.17563576883126</v>
       </c>
       <c r="K62" t="n">
-        <v>-16.39833064469816</v>
+        <v>-39.17563576883126</v>
       </c>
       <c r="L62" t="n">
-        <v>-16.39833064469816</v>
+        <v>-39.17563576883126</v>
       </c>
       <c r="M62" t="n">
-        <v>-16.39833064469816</v>
+        <v>-39.17563576883126</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>486.2376386702599</v>
+        <v>523.9674087541147</v>
       </c>
     </row>
     <row r="63">
@@ -3757,40 +3757,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44228</v>
+        <v>44774</v>
       </c>
       <c r="C63" t="n">
-        <v>506.0288893315378</v>
+        <v>566.625157005693</v>
       </c>
       <c r="D63" t="n">
-        <v>425.4171064395912</v>
+        <v>495.5505227002677</v>
       </c>
       <c r="E63" t="n">
-        <v>521.761390310766</v>
+        <v>593.4520327722106</v>
       </c>
       <c r="F63" t="n">
-        <v>506.0288893315378</v>
+        <v>566.5774922454124</v>
       </c>
       <c r="G63" t="n">
-        <v>506.0288893315378</v>
+        <v>566.671374185019</v>
       </c>
       <c r="H63" t="n">
-        <v>-30.26909892020274</v>
+        <v>-20.69968925932576</v>
       </c>
       <c r="I63" t="n">
-        <v>-30.26909892020274</v>
+        <v>-20.69968925932576</v>
       </c>
       <c r="J63" t="n">
-        <v>-30.26909892020274</v>
+        <v>-20.69968925932576</v>
       </c>
       <c r="K63" t="n">
-        <v>-30.26909892020274</v>
+        <v>-20.69968925932576</v>
       </c>
       <c r="L63" t="n">
-        <v>-30.26909892020274</v>
+        <v>-20.69968925932576</v>
       </c>
       <c r="M63" t="n">
-        <v>-30.26909892020274</v>
+        <v>-20.69968925932576</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>475.7597904113351</v>
+        <v>545.9254677463673</v>
       </c>
     </row>
     <row r="64">
@@ -3810,40 +3810,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44256</v>
+        <v>44805</v>
       </c>
       <c r="C64" t="n">
-        <v>509.093462249739</v>
+        <v>570.1072694884401</v>
       </c>
       <c r="D64" t="n">
-        <v>456.4333198633946</v>
+        <v>524.8381171551752</v>
       </c>
       <c r="E64" t="n">
-        <v>550.6189778915299</v>
+        <v>629.9790858718497</v>
       </c>
       <c r="F64" t="n">
-        <v>509.093462249739</v>
+        <v>570.0281866700993</v>
       </c>
       <c r="G64" t="n">
-        <v>509.093462249739</v>
+        <v>570.1831781382193</v>
       </c>
       <c r="H64" t="n">
-        <v>-4.877975884620421</v>
+        <v>6.687815827794414</v>
       </c>
       <c r="I64" t="n">
-        <v>-4.877975884620421</v>
+        <v>6.687815827794414</v>
       </c>
       <c r="J64" t="n">
-        <v>-4.877975884620421</v>
+        <v>6.687815827794414</v>
       </c>
       <c r="K64" t="n">
-        <v>-4.877975884620421</v>
+        <v>6.687815827794414</v>
       </c>
       <c r="L64" t="n">
-        <v>-4.877975884620421</v>
+        <v>6.687815827794414</v>
       </c>
       <c r="M64" t="n">
-        <v>-4.877975884620421</v>
+        <v>6.687815827794414</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>504.2154863651186</v>
+        <v>576.7950853162346</v>
       </c>
     </row>
     <row r="65">
@@ -3863,40 +3863,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44287</v>
+        <v>44835</v>
       </c>
       <c r="C65" t="n">
-        <v>512.4863822663189</v>
+        <v>573.4770557620662</v>
       </c>
       <c r="D65" t="n">
-        <v>454.772032093903</v>
+        <v>535.8148326492339</v>
       </c>
       <c r="E65" t="n">
-        <v>550.9765139512879</v>
+        <v>632.5846559242948</v>
       </c>
       <c r="F65" t="n">
-        <v>512.4863822663189</v>
+        <v>573.3621203334192</v>
       </c>
       <c r="G65" t="n">
-        <v>512.4863822663189</v>
+        <v>573.5903968180362</v>
       </c>
       <c r="H65" t="n">
-        <v>-11.86781842294821</v>
+        <v>10.81835325019656</v>
       </c>
       <c r="I65" t="n">
-        <v>-11.86781842294821</v>
+        <v>10.81835325019656</v>
       </c>
       <c r="J65" t="n">
-        <v>-11.86781842294821</v>
+        <v>10.81835325019656</v>
       </c>
       <c r="K65" t="n">
-        <v>-11.86781842294821</v>
+        <v>10.81835325019656</v>
       </c>
       <c r="L65" t="n">
-        <v>-11.86781842294821</v>
+        <v>10.81835325019656</v>
       </c>
       <c r="M65" t="n">
-        <v>-11.86781842294821</v>
+        <v>10.81835325019656</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>500.6185638433706</v>
+        <v>584.2954090122628</v>
       </c>
     </row>
     <row r="66">
@@ -3916,40 +3916,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44317</v>
+        <v>44866</v>
       </c>
       <c r="C66" t="n">
-        <v>515.7698532501058</v>
+        <v>576.9591682448134</v>
       </c>
       <c r="D66" t="n">
-        <v>441.9239709426727</v>
+        <v>520.0653750597745</v>
       </c>
       <c r="E66" t="n">
-        <v>536.7559720509729</v>
+        <v>623.6323451248317</v>
       </c>
       <c r="F66" t="n">
-        <v>515.7698532501058</v>
+        <v>576.8059517707495</v>
       </c>
       <c r="G66" t="n">
-        <v>515.7698532501058</v>
+        <v>577.113187638996</v>
       </c>
       <c r="H66" t="n">
-        <v>-26.94226448977995</v>
+        <v>-3.066003934150526</v>
       </c>
       <c r="I66" t="n">
-        <v>-26.94226448977995</v>
+        <v>-3.066003934150526</v>
       </c>
       <c r="J66" t="n">
-        <v>-26.94226448977995</v>
+        <v>-3.066003934150526</v>
       </c>
       <c r="K66" t="n">
-        <v>-26.94226448977995</v>
+        <v>-3.066003934150526</v>
       </c>
       <c r="L66" t="n">
-        <v>-26.94226448977995</v>
+        <v>-3.066003934150526</v>
       </c>
       <c r="M66" t="n">
-        <v>-26.94226448977995</v>
+        <v>-3.066003934150526</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>488.8275887603259</v>
+        <v>573.8931643106629</v>
       </c>
     </row>
     <row r="67">
@@ -3969,40 +3969,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44348</v>
+        <v>44896</v>
       </c>
       <c r="C67" t="n">
-        <v>519.1627732666857</v>
+        <v>580.3289545184396</v>
       </c>
       <c r="D67" t="n">
-        <v>433.9485430516394</v>
+        <v>533.1492404917547</v>
       </c>
       <c r="E67" t="n">
-        <v>531.0745323254339</v>
+        <v>635.7018781646351</v>
       </c>
       <c r="F67" t="n">
-        <v>519.1627732666857</v>
+        <v>580.1361365919101</v>
       </c>
       <c r="G67" t="n">
-        <v>519.1627732666857</v>
+        <v>580.5247772002276</v>
       </c>
       <c r="H67" t="n">
-        <v>-38.31256381529574</v>
+        <v>5.890943791311988</v>
       </c>
       <c r="I67" t="n">
-        <v>-38.31256381529574</v>
+        <v>5.890943791311988</v>
       </c>
       <c r="J67" t="n">
-        <v>-38.31256381529574</v>
+        <v>5.890943791311988</v>
       </c>
       <c r="K67" t="n">
-        <v>-38.31256381529574</v>
+        <v>5.890943791311988</v>
       </c>
       <c r="L67" t="n">
-        <v>-38.31256381529574</v>
+        <v>5.890943791311988</v>
       </c>
       <c r="M67" t="n">
-        <v>-38.31256381529574</v>
+        <v>5.890943791311988</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>480.85020945139</v>
+        <v>586.2198983097516</v>
       </c>
     </row>
     <row r="68">
@@ -4022,40 +4022,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44378</v>
+        <v>44927</v>
       </c>
       <c r="C68" t="n">
-        <v>522.4462442504727</v>
+        <v>583.8110670011868</v>
       </c>
       <c r="D68" t="n">
-        <v>441.3827395289919</v>
+        <v>552.4842754017529</v>
       </c>
       <c r="E68" t="n">
-        <v>544.9354372225934</v>
+        <v>654.3955165290627</v>
       </c>
       <c r="F68" t="n">
-        <v>522.4462442504727</v>
+        <v>583.5729225934664</v>
       </c>
       <c r="G68" t="n">
-        <v>522.4462442504727</v>
+        <v>584.0577095452471</v>
       </c>
       <c r="H68" t="n">
-        <v>-29.12644743987388</v>
+        <v>16.04670208788697</v>
       </c>
       <c r="I68" t="n">
-        <v>-29.12644743987388</v>
+        <v>16.04670208788697</v>
       </c>
       <c r="J68" t="n">
-        <v>-29.12644743987388</v>
+        <v>16.04670208788697</v>
       </c>
       <c r="K68" t="n">
-        <v>-29.12644743987388</v>
+        <v>16.04670208788697</v>
       </c>
       <c r="L68" t="n">
-        <v>-29.12644743987388</v>
+        <v>16.04670208788697</v>
       </c>
       <c r="M68" t="n">
-        <v>-29.12644743987388</v>
+        <v>16.04670208788697</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>493.3197968105988</v>
+        <v>599.8577690890737</v>
       </c>
     </row>
     <row r="69">
@@ -4075,40 +4075,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44409</v>
+        <v>44958</v>
       </c>
       <c r="C69" t="n">
-        <v>525.8391642670525</v>
+        <v>587.2931794839337</v>
       </c>
       <c r="D69" t="n">
-        <v>458.6163460106467</v>
+        <v>549.4179216974632</v>
       </c>
       <c r="E69" t="n">
-        <v>552.1459868488831</v>
+        <v>651.5262295563286</v>
       </c>
       <c r="F69" t="n">
-        <v>525.8391642670525</v>
+        <v>587.0023622583926</v>
       </c>
       <c r="G69" t="n">
-        <v>525.8391642670525</v>
+        <v>587.5862142511914</v>
       </c>
       <c r="H69" t="n">
-        <v>-20.27772744741642</v>
+        <v>13.59781920303444</v>
       </c>
       <c r="I69" t="n">
-        <v>-20.27772744741642</v>
+        <v>13.59781920303444</v>
       </c>
       <c r="J69" t="n">
-        <v>-20.27772744741642</v>
+        <v>13.59781920303444</v>
       </c>
       <c r="K69" t="n">
-        <v>-20.27772744741642</v>
+        <v>13.59781920303444</v>
       </c>
       <c r="L69" t="n">
-        <v>-20.27772744741642</v>
+        <v>13.59781920303444</v>
       </c>
       <c r="M69" t="n">
-        <v>-20.27772744741642</v>
+        <v>13.59781920303444</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>505.5614368196361</v>
+        <v>600.8909986869681</v>
       </c>
     </row>
     <row r="70">
@@ -4128,40 +4128,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44440</v>
+        <v>44986</v>
       </c>
       <c r="C70" t="n">
-        <v>529.2320842836324</v>
+        <v>590.4383133393183</v>
       </c>
       <c r="D70" t="n">
-        <v>480.5902349027602</v>
+        <v>511.3899242063343</v>
       </c>
       <c r="E70" t="n">
-        <v>576.9552894784975</v>
+        <v>617.2614165954104</v>
       </c>
       <c r="F70" t="n">
-        <v>529.2320842836324</v>
+        <v>590.1022591899623</v>
       </c>
       <c r="G70" t="n">
-        <v>529.2320842836324</v>
+        <v>590.7784804592496</v>
       </c>
       <c r="H70" t="n">
-        <v>-1.497816349101611</v>
+        <v>-29.16565423585747</v>
       </c>
       <c r="I70" t="n">
-        <v>-1.497816349101611</v>
+        <v>-29.16565423585747</v>
       </c>
       <c r="J70" t="n">
-        <v>-1.497816349101611</v>
+        <v>-29.16565423585747</v>
       </c>
       <c r="K70" t="n">
-        <v>-1.497816349101611</v>
+        <v>-29.16565423585747</v>
       </c>
       <c r="L70" t="n">
-        <v>-1.497816349101611</v>
+        <v>-29.16565423585747</v>
       </c>
       <c r="M70" t="n">
-        <v>-1.497816349101611</v>
+        <v>-29.16565423585747</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>527.7342679345307</v>
+        <v>561.2726591034608</v>
       </c>
     </row>
     <row r="71">
@@ -4181,40 +4181,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44470</v>
+        <v>45017</v>
       </c>
       <c r="C71" t="n">
-        <v>532.5155552674194</v>
+        <v>593.9204258220652</v>
       </c>
       <c r="D71" t="n">
-        <v>485.232580889133</v>
+        <v>506.1177438440802</v>
       </c>
       <c r="E71" t="n">
-        <v>585.4537936521104</v>
+        <v>608.7100898210011</v>
       </c>
       <c r="F71" t="n">
-        <v>532.5155552674194</v>
+        <v>593.5299457685996</v>
       </c>
       <c r="G71" t="n">
-        <v>532.5155552674194</v>
+        <v>594.3155531713699</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3863802475617956</v>
+        <v>-33.75975215809805</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3863802475617956</v>
+        <v>-33.75975215809805</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3863802475617956</v>
+        <v>-33.75975215809805</v>
       </c>
       <c r="K71" t="n">
-        <v>0.3863802475617956</v>
+        <v>-33.75975215809805</v>
       </c>
       <c r="L71" t="n">
-        <v>0.3863802475617956</v>
+        <v>-33.75975215809805</v>
       </c>
       <c r="M71" t="n">
-        <v>0.3863802475617956</v>
+        <v>-33.75975215809805</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>532.9019355149811</v>
+        <v>560.1606736639671</v>
       </c>
     </row>
     <row r="72">
@@ -4234,40 +4234,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44501</v>
+        <v>45047</v>
       </c>
       <c r="C72" t="n">
-        <v>535.9084752839993</v>
+        <v>597.2902120956916</v>
       </c>
       <c r="D72" t="n">
-        <v>473.4057944826617</v>
+        <v>522.0210829610417</v>
       </c>
       <c r="E72" t="n">
-        <v>568.934168553185</v>
+        <v>624.4482413550753</v>
       </c>
       <c r="F72" t="n">
-        <v>535.9084752839993</v>
+        <v>596.8490120730223</v>
       </c>
       <c r="G72" t="n">
-        <v>535.9084752839993</v>
+        <v>597.7443017656448</v>
       </c>
       <c r="H72" t="n">
-        <v>-12.95974044973276</v>
+        <v>-22.48339553925462</v>
       </c>
       <c r="I72" t="n">
-        <v>-12.95974044973276</v>
+        <v>-22.48339553925462</v>
       </c>
       <c r="J72" t="n">
-        <v>-12.95974044973276</v>
+        <v>-22.48339553925462</v>
       </c>
       <c r="K72" t="n">
-        <v>-12.95974044973276</v>
+        <v>-22.48339553925462</v>
       </c>
       <c r="L72" t="n">
-        <v>-12.95974044973276</v>
+        <v>-22.48339553925462</v>
       </c>
       <c r="M72" t="n">
-        <v>-12.95974044973276</v>
+        <v>-22.48339553925462</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>522.9487348342666</v>
+        <v>574.806816556437</v>
       </c>
     </row>
     <row r="73">
@@ -4287,40 +4287,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44531</v>
+        <v>45078</v>
       </c>
       <c r="C73" t="n">
-        <v>539.1919462677863</v>
+        <v>600.7723245784385</v>
       </c>
       <c r="D73" t="n">
-        <v>487.4387621784214</v>
+        <v>521.4142785983319</v>
       </c>
       <c r="E73" t="n">
-        <v>585.66745056279</v>
+        <v>626.3610717256175</v>
       </c>
       <c r="F73" t="n">
-        <v>539.1919462677863</v>
+        <v>600.2743966603165</v>
       </c>
       <c r="G73" t="n">
-        <v>539.1919462677863</v>
+        <v>601.2674286362929</v>
       </c>
       <c r="H73" t="n">
-        <v>-3.028287375296762</v>
+        <v>-27.16308828942718</v>
       </c>
       <c r="I73" t="n">
-        <v>-3.028287375296762</v>
+        <v>-27.16308828942718</v>
       </c>
       <c r="J73" t="n">
-        <v>-3.028287375296762</v>
+        <v>-27.16308828942718</v>
       </c>
       <c r="K73" t="n">
-        <v>-3.028287375296762</v>
+        <v>-27.16308828942718</v>
       </c>
       <c r="L73" t="n">
-        <v>-3.028287375296762</v>
+        <v>-27.16308828942718</v>
       </c>
       <c r="M73" t="n">
-        <v>-3.028287375296762</v>
+        <v>-27.16308828942718</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>536.1636588924896</v>
+        <v>573.6092362890114</v>
       </c>
     </row>
     <row r="74">
@@ -4340,40 +4340,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44562</v>
+        <v>45108</v>
       </c>
       <c r="C74" t="n">
-        <v>542.5848662843661</v>
+        <v>604.1421108520647</v>
       </c>
       <c r="D74" t="n">
-        <v>487.9478243491503</v>
+        <v>522.5385386421706</v>
       </c>
       <c r="E74" t="n">
-        <v>583.9600598502572</v>
+        <v>621.9292622056053</v>
       </c>
       <c r="F74" t="n">
-        <v>542.5848662843661</v>
+        <v>603.5705203676756</v>
       </c>
       <c r="G74" t="n">
-        <v>542.5848662843661</v>
+        <v>604.6981788177015</v>
       </c>
       <c r="H74" t="n">
-        <v>-5.018751834192509</v>
+        <v>-31.01582033597312</v>
       </c>
       <c r="I74" t="n">
-        <v>-5.018751834192509</v>
+        <v>-31.01582033597312</v>
       </c>
       <c r="J74" t="n">
-        <v>-5.018751834192509</v>
+        <v>-31.01582033597312</v>
       </c>
       <c r="K74" t="n">
-        <v>-5.018751834192509</v>
+        <v>-31.01582033597312</v>
       </c>
       <c r="L74" t="n">
-        <v>-5.018751834192509</v>
+        <v>-31.01582033597312</v>
       </c>
       <c r="M74" t="n">
-        <v>-5.018751834192509</v>
+        <v>-31.01582033597312</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>537.5661144501736</v>
+        <v>573.1262905160916</v>
       </c>
     </row>
     <row r="75">
@@ -4393,40 +4393,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44593</v>
+        <v>45139</v>
       </c>
       <c r="C75" t="n">
-        <v>545.9777863009459</v>
+        <v>607.6242233348119</v>
       </c>
       <c r="D75" t="n">
-        <v>485.94449781391</v>
+        <v>531.1443728264981</v>
       </c>
       <c r="E75" t="n">
-        <v>585.7615534670578</v>
+        <v>632.0060965779694</v>
       </c>
       <c r="F75" t="n">
-        <v>545.9777863009459</v>
+        <v>606.9889175188324</v>
       </c>
       <c r="G75" t="n">
-        <v>545.9777863009459</v>
+        <v>608.2461615498602</v>
       </c>
       <c r="H75" t="n">
-        <v>-9.794085312513158</v>
+        <v>-24.95675524534633</v>
       </c>
       <c r="I75" t="n">
-        <v>-9.794085312513158</v>
+        <v>-24.95675524534633</v>
       </c>
       <c r="J75" t="n">
-        <v>-9.794085312513158</v>
+        <v>-24.95675524534633</v>
       </c>
       <c r="K75" t="n">
-        <v>-9.794085312513158</v>
+        <v>-24.95675524534633</v>
       </c>
       <c r="L75" t="n">
-        <v>-9.794085312513158</v>
+        <v>-24.95675524534633</v>
       </c>
       <c r="M75" t="n">
-        <v>-9.794085312513158</v>
+        <v>-24.95675524534633</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>536.1837009884327</v>
+        <v>582.6674680894655</v>
       </c>
     </row>
     <row r="76">
@@ -4446,40 +4446,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44621</v>
+        <v>45170</v>
       </c>
       <c r="C76" t="n">
-        <v>549.0423592191472</v>
+        <v>611.1063358175591</v>
       </c>
       <c r="D76" t="n">
-        <v>477.4014836461021</v>
+        <v>567.8670257382884</v>
       </c>
       <c r="E76" t="n">
-        <v>578.1745812246676</v>
+        <v>669.9576266975927</v>
       </c>
       <c r="F76" t="n">
-        <v>549.0423592191472</v>
+        <v>610.394219395655</v>
       </c>
       <c r="G76" t="n">
-        <v>549.0423592191472</v>
+        <v>611.7889818014468</v>
       </c>
       <c r="H76" t="n">
-        <v>-19.76744429598905</v>
+        <v>5.642024520296646</v>
       </c>
       <c r="I76" t="n">
-        <v>-19.76744429598905</v>
+        <v>5.642024520296646</v>
       </c>
       <c r="J76" t="n">
-        <v>-19.76744429598905</v>
+        <v>5.642024520296646</v>
       </c>
       <c r="K76" t="n">
-        <v>-19.76744429598905</v>
+        <v>5.642024520296646</v>
       </c>
       <c r="L76" t="n">
-        <v>-19.76744429598905</v>
+        <v>5.642024520296646</v>
       </c>
       <c r="M76" t="n">
-        <v>-19.76744429598905</v>
+        <v>5.642024520296646</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>529.2749149231581</v>
+        <v>616.7483603378557</v>
       </c>
     </row>
     <row r="77">
@@ -4499,40 +4499,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44652</v>
+        <v>45200</v>
       </c>
       <c r="C77" t="n">
-        <v>552.435279235727</v>
+        <v>614.4761220911852</v>
       </c>
       <c r="D77" t="n">
-        <v>479.404855353807</v>
+        <v>571.5941552371536</v>
       </c>
       <c r="E77" t="n">
-        <v>576.938166801821</v>
+        <v>674.7838278834107</v>
       </c>
       <c r="F77" t="n">
-        <v>552.435279235727</v>
+        <v>613.677415802722</v>
       </c>
       <c r="G77" t="n">
-        <v>552.435279235727</v>
+        <v>615.2292700121436</v>
       </c>
       <c r="H77" t="n">
-        <v>-23.46653699449342</v>
+        <v>9.239257765303041</v>
       </c>
       <c r="I77" t="n">
-        <v>-23.46653699449342</v>
+        <v>9.239257765303041</v>
       </c>
       <c r="J77" t="n">
-        <v>-23.46653699449342</v>
+        <v>9.239257765303041</v>
       </c>
       <c r="K77" t="n">
-        <v>-23.46653699449342</v>
+        <v>9.239257765303041</v>
       </c>
       <c r="L77" t="n">
-        <v>-23.46653699449342</v>
+        <v>9.239257765303041</v>
       </c>
       <c r="M77" t="n">
-        <v>-23.46653699449342</v>
+        <v>9.239257765303041</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,908 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>528.9687422412336</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>44682</v>
-      </c>
-      <c r="C78" t="n">
-        <v>555.7187502195139</v>
-      </c>
-      <c r="D78" t="n">
-        <v>474.7313127963467</v>
-      </c>
-      <c r="E78" t="n">
-        <v>573.3659220590202</v>
-      </c>
-      <c r="F78" t="n">
-        <v>555.7187375895427</v>
-      </c>
-      <c r="G78" t="n">
-        <v>555.7187644485375</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-32.69277567705063</v>
-      </c>
-      <c r="I78" t="n">
-        <v>-32.69277567705063</v>
-      </c>
-      <c r="J78" t="n">
-        <v>-32.69277567705063</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-32.69277567705063</v>
-      </c>
-      <c r="L78" t="n">
-        <v>-32.69277567705063</v>
-      </c>
-      <c r="M78" t="n">
-        <v>-32.69277567705063</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>523.0259745424634</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>44713</v>
-      </c>
-      <c r="C79" t="n">
-        <v>559.1116702360939</v>
-      </c>
-      <c r="D79" t="n">
-        <v>484.9439192041086</v>
-      </c>
-      <c r="E79" t="n">
-        <v>583.2840767101031</v>
-      </c>
-      <c r="F79" t="n">
-        <v>559.1115916119958</v>
-      </c>
-      <c r="G79" t="n">
-        <v>559.1117708512016</v>
-      </c>
-      <c r="H79" t="n">
-        <v>-25.71292959645567</v>
-      </c>
-      <c r="I79" t="n">
-        <v>-25.71292959645567</v>
-      </c>
-      <c r="J79" t="n">
-        <v>-25.71292959645567</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-25.71292959645567</v>
-      </c>
-      <c r="L79" t="n">
-        <v>-25.71292959645567</v>
-      </c>
-      <c r="M79" t="n">
-        <v>-25.71292959645567</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>533.3987406396383</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C80" t="n">
-        <v>562.3951412198809</v>
-      </c>
-      <c r="D80" t="n">
-        <v>497.4051668089214</v>
-      </c>
-      <c r="E80" t="n">
-        <v>593.7354376152454</v>
-      </c>
-      <c r="F80" t="n">
-        <v>562.3949732376385</v>
-      </c>
-      <c r="G80" t="n">
-        <v>562.3953724223502</v>
-      </c>
-      <c r="H80" t="n">
-        <v>-19.30786726217751</v>
-      </c>
-      <c r="I80" t="n">
-        <v>-19.30786726217751</v>
-      </c>
-      <c r="J80" t="n">
-        <v>-19.30786726217751</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-19.30786726217751</v>
-      </c>
-      <c r="L80" t="n">
-        <v>-19.30786726217751</v>
-      </c>
-      <c r="M80" t="n">
-        <v>-19.30786726217751</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>543.0872739577034</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>44774</v>
-      </c>
-      <c r="C81" t="n">
-        <v>565.7880612364607</v>
-      </c>
-      <c r="D81" t="n">
-        <v>491.8939871815486</v>
-      </c>
-      <c r="E81" t="n">
-        <v>589.1211761518398</v>
-      </c>
-      <c r="F81" t="n">
-        <v>565.7877660666147</v>
-      </c>
-      <c r="G81" t="n">
-        <v>565.7884373167063</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-24.75198376498566</v>
-      </c>
-      <c r="I81" t="n">
-        <v>-24.75198376498566</v>
-      </c>
-      <c r="J81" t="n">
-        <v>-24.75198376498566</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-24.75198376498566</v>
-      </c>
-      <c r="L81" t="n">
-        <v>-24.75198376498566</v>
-      </c>
-      <c r="M81" t="n">
-        <v>-24.75198376498566</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>541.0360774714751</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>44805</v>
-      </c>
-      <c r="C82" t="n">
-        <v>569.1809812530406</v>
-      </c>
-      <c r="D82" t="n">
-        <v>515.6510453544433</v>
-      </c>
-      <c r="E82" t="n">
-        <v>613.325579771653</v>
-      </c>
-      <c r="F82" t="n">
-        <v>569.1805443149755</v>
-      </c>
-      <c r="G82" t="n">
-        <v>569.181546407229</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-2.347108521865517</v>
-      </c>
-      <c r="I82" t="n">
-        <v>-2.347108521865517</v>
-      </c>
-      <c r="J82" t="n">
-        <v>-2.347108521865517</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-2.347108521865517</v>
-      </c>
-      <c r="L82" t="n">
-        <v>-2.347108521865517</v>
-      </c>
-      <c r="M82" t="n">
-        <v>-2.347108521865517</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>566.8338727311751</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="C83" t="n">
-        <v>572.4644522368276</v>
-      </c>
-      <c r="D83" t="n">
-        <v>523.4859924938532</v>
-      </c>
-      <c r="E83" t="n">
-        <v>618.2662386197222</v>
-      </c>
-      <c r="F83" t="n">
-        <v>572.4638464837233</v>
-      </c>
-      <c r="G83" t="n">
-        <v>572.4651989789553</v>
-      </c>
-      <c r="H83" t="n">
-        <v>-2.415865379956067</v>
-      </c>
-      <c r="I83" t="n">
-        <v>-2.415865379956067</v>
-      </c>
-      <c r="J83" t="n">
-        <v>-2.415865379956067</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-2.415865379956067</v>
-      </c>
-      <c r="L83" t="n">
-        <v>-2.415865379956067</v>
-      </c>
-      <c r="M83" t="n">
-        <v>-2.415865379956067</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>570.0485868568716</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C84" t="n">
-        <v>575.8573722534074</v>
-      </c>
-      <c r="D84" t="n">
-        <v>507.3788448289272</v>
-      </c>
-      <c r="E84" t="n">
-        <v>607.2170159458109</v>
-      </c>
-      <c r="F84" t="n">
-        <v>575.8565629289074</v>
-      </c>
-      <c r="G84" t="n">
-        <v>575.8582811263417</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-19.52571109490037</v>
-      </c>
-      <c r="I84" t="n">
-        <v>-19.52571109490037</v>
-      </c>
-      <c r="J84" t="n">
-        <v>-19.52571109490037</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-19.52571109490037</v>
-      </c>
-      <c r="L84" t="n">
-        <v>-19.52571109490037</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-19.52571109490037</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>556.3316611585071</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C85" t="n">
-        <v>579.1408432371944</v>
-      </c>
-      <c r="D85" t="n">
-        <v>521.8277993168813</v>
-      </c>
-      <c r="E85" t="n">
-        <v>618.6221665146211</v>
-      </c>
-      <c r="F85" t="n">
-        <v>579.1398290908137</v>
-      </c>
-      <c r="G85" t="n">
-        <v>579.141988365658</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-10.22777041297643</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-10.22777041297643</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-10.22777041297643</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-10.22777041297643</v>
-      </c>
-      <c r="L85" t="n">
-        <v>-10.22777041297643</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-10.22777041297643</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>568.913072824218</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="C86" t="n">
-        <v>582.5337632537742</v>
-      </c>
-      <c r="D86" t="n">
-        <v>540.3753783707347</v>
-      </c>
-      <c r="E86" t="n">
-        <v>638.1582697064611</v>
-      </c>
-      <c r="F86" t="n">
-        <v>582.53254348731</v>
-      </c>
-      <c r="G86" t="n">
-        <v>582.5351873156196</v>
-      </c>
-      <c r="H86" t="n">
-        <v>6.739861524286543</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6.739861524286543</v>
-      </c>
-      <c r="J86" t="n">
-        <v>6.739861524286543</v>
-      </c>
-      <c r="K86" t="n">
-        <v>6.739861524286543</v>
-      </c>
-      <c r="L86" t="n">
-        <v>6.739861524286543</v>
-      </c>
-      <c r="M86" t="n">
-        <v>6.739861524286543</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>589.2736247780607</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="C87" t="n">
-        <v>585.9266832703541</v>
-      </c>
-      <c r="D87" t="n">
-        <v>546.0792936141509</v>
-      </c>
-      <c r="E87" t="n">
-        <v>646.7949275173877</v>
-      </c>
-      <c r="F87" t="n">
-        <v>585.9252214899238</v>
-      </c>
-      <c r="G87" t="n">
-        <v>585.9283190196534</v>
-      </c>
-      <c r="H87" t="n">
-        <v>10.37685570944452</v>
-      </c>
-      <c r="I87" t="n">
-        <v>10.37685570944452</v>
-      </c>
-      <c r="J87" t="n">
-        <v>10.37685570944452</v>
-      </c>
-      <c r="K87" t="n">
-        <v>10.37685570944452</v>
-      </c>
-      <c r="L87" t="n">
-        <v>10.37685570944452</v>
-      </c>
-      <c r="M87" t="n">
-        <v>10.37685570944452</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>596.3035389797986</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="C88" t="n">
-        <v>588.9912561885554</v>
-      </c>
-      <c r="D88" t="n">
-        <v>502.8841651235579</v>
-      </c>
-      <c r="E88" t="n">
-        <v>603.9518461721373</v>
-      </c>
-      <c r="F88" t="n">
-        <v>588.9895953775455</v>
-      </c>
-      <c r="G88" t="n">
-        <v>588.9931672008345</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-35.0984976012957</v>
-      </c>
-      <c r="I88" t="n">
-        <v>-35.0984976012957</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-35.0984976012957</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-35.0984976012957</v>
-      </c>
-      <c r="L88" t="n">
-        <v>-35.0984976012957</v>
-      </c>
-      <c r="M88" t="n">
-        <v>-35.0984976012957</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>553.8927585872598</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="C89" t="n">
-        <v>592.3841762051352</v>
-      </c>
-      <c r="D89" t="n">
-        <v>505.7587828724022</v>
-      </c>
-      <c r="E89" t="n">
-        <v>604.7619584396368</v>
-      </c>
-      <c r="F89" t="n">
-        <v>592.3822393739148</v>
-      </c>
-      <c r="G89" t="n">
-        <v>592.3863215689294</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-34.96642177661368</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-34.96642177661368</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-34.96642177661368</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-34.96642177661368</v>
-      </c>
-      <c r="L89" t="n">
-        <v>-34.96642177661368</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-34.96642177661368</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>557.4177544285216</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C90" t="n">
-        <v>595.6676471889222</v>
-      </c>
-      <c r="D90" t="n">
-        <v>509.2105200736229</v>
-      </c>
-      <c r="E90" t="n">
-        <v>605.0152130585302</v>
-      </c>
-      <c r="F90" t="n">
-        <v>595.6654034769246</v>
-      </c>
-      <c r="G90" t="n">
-        <v>595.6700919242494</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-37.98217101412473</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-37.98217101412473</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-37.98217101412473</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-37.98217101412473</v>
-      </c>
-      <c r="L90" t="n">
-        <v>-37.98217101412473</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-37.98217101412473</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>557.6854761747975</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C91" t="n">
-        <v>599.060567205502</v>
-      </c>
-      <c r="D91" t="n">
-        <v>537.4453643759</v>
-      </c>
-      <c r="E91" t="n">
-        <v>634.8453976694982</v>
-      </c>
-      <c r="F91" t="n">
-        <v>599.0580186591452</v>
-      </c>
-      <c r="G91" t="n">
-        <v>599.0633031059937</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-12.8107031341245</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-12.8107031341245</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-12.8107031341245</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-12.8107031341245</v>
-      </c>
-      <c r="L91" t="n">
-        <v>-12.8107031341245</v>
-      </c>
-      <c r="M91" t="n">
-        <v>-12.8107031341245</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>586.2498640713775</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C92" t="n">
-        <v>602.3440381892889</v>
-      </c>
-      <c r="D92" t="n">
-        <v>546.1309514369563</v>
-      </c>
-      <c r="E92" t="n">
-        <v>640.7137487454007</v>
-      </c>
-      <c r="F92" t="n">
-        <v>602.3411759908411</v>
-      </c>
-      <c r="G92" t="n">
-        <v>602.3470962952152</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-9.718885626288975</v>
-      </c>
-      <c r="I92" t="n">
-        <v>-9.718885626288975</v>
-      </c>
-      <c r="J92" t="n">
-        <v>-9.718885626288975</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-9.718885626288975</v>
-      </c>
-      <c r="L92" t="n">
-        <v>-9.718885626288975</v>
-      </c>
-      <c r="M92" t="n">
-        <v>-9.718885626288975</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>592.6251525629999</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C93" t="n">
-        <v>605.7369582058689</v>
-      </c>
-      <c r="D93" t="n">
-        <v>527.9256473975737</v>
-      </c>
-      <c r="E93" t="n">
-        <v>626.393751862263</v>
-      </c>
-      <c r="F93" t="n">
-        <v>605.7337603875474</v>
-      </c>
-      <c r="G93" t="n">
-        <v>605.7403550197686</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-29.47498684726027</v>
-      </c>
-      <c r="I93" t="n">
-        <v>-29.47498684726027</v>
-      </c>
-      <c r="J93" t="n">
-        <v>-29.47498684726027</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-29.47498684726027</v>
-      </c>
-      <c r="L93" t="n">
-        <v>-29.47498684726027</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-29.47498684726027</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>576.2619713586085</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C94" t="n">
-        <v>609.1298782224487</v>
-      </c>
-      <c r="D94" t="n">
-        <v>557.2887604444863</v>
-      </c>
-      <c r="E94" t="n">
-        <v>655.2257712135943</v>
-      </c>
-      <c r="F94" t="n">
-        <v>609.1262837056628</v>
-      </c>
-      <c r="G94" t="n">
-        <v>609.1335695536951</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-3.303794711090704</v>
-      </c>
-      <c r="I94" t="n">
-        <v>-3.303794711090704</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-3.303794711090704</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-3.303794711090704</v>
-      </c>
-      <c r="L94" t="n">
-        <v>-3.303794711090704</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-3.303794711090704</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>605.826083511358</v>
+        <v>623.7153798564882</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/aht/cb_senior_aht_monthly.xlsx
+++ b/outputs/aht/cb_senior_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42917</v>
       </c>
       <c r="C2" t="n">
-        <v>342.8140903926595</v>
+        <v>340.8847526495108</v>
       </c>
       <c r="D2" t="n">
-        <v>245.189582725423</v>
+        <v>247.1789198179523</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3369233491391</v>
+        <v>343.9915614543543</v>
       </c>
       <c r="F2" t="n">
-        <v>342.8140903926595</v>
+        <v>340.8847526495108</v>
       </c>
       <c r="G2" t="n">
-        <v>342.8140903926595</v>
+        <v>340.8847526495108</v>
       </c>
       <c r="H2" t="n">
-        <v>-47.45339345325958</v>
+        <v>-46.35131375213631</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.45339345325958</v>
+        <v>-46.35131375213631</v>
       </c>
       <c r="J2" t="n">
-        <v>-47.45339345325958</v>
+        <v>-46.35131375213631</v>
       </c>
       <c r="K2" t="n">
-        <v>-47.45339345325958</v>
+        <v>-46.35131375213631</v>
       </c>
       <c r="L2" t="n">
-        <v>-47.45339345325958</v>
+        <v>-46.35131375213631</v>
       </c>
       <c r="M2" t="n">
-        <v>-47.45339345325958</v>
+        <v>-46.35131375213631</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>295.3606969393999</v>
+        <v>294.5334388973745</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42948</v>
       </c>
       <c r="C3" t="n">
-        <v>346.7396801588613</v>
+        <v>344.8893423435825</v>
       </c>
       <c r="D3" t="n">
-        <v>278.5519922874097</v>
+        <v>278.086490264872</v>
       </c>
       <c r="E3" t="n">
-        <v>381.491665022495</v>
+        <v>378.3310567814667</v>
       </c>
       <c r="F3" t="n">
-        <v>346.7396801588613</v>
+        <v>344.8893423435825</v>
       </c>
       <c r="G3" t="n">
-        <v>346.7396801588613</v>
+        <v>344.8893423435825</v>
       </c>
       <c r="H3" t="n">
-        <v>-16.62557258730608</v>
+        <v>-15.43872368043741</v>
       </c>
       <c r="I3" t="n">
-        <v>-16.62557258730608</v>
+        <v>-15.43872368043741</v>
       </c>
       <c r="J3" t="n">
-        <v>-16.62557258730608</v>
+        <v>-15.43872368043741</v>
       </c>
       <c r="K3" t="n">
-        <v>-16.62557258730608</v>
+        <v>-15.43872368043741</v>
       </c>
       <c r="L3" t="n">
-        <v>-16.62557258730608</v>
+        <v>-15.43872368043741</v>
       </c>
       <c r="M3" t="n">
-        <v>-16.62557258730608</v>
+        <v>-15.43872368043741</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>330.1141075715553</v>
+        <v>329.4506186631451</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42979</v>
       </c>
       <c r="C4" t="n">
-        <v>350.6652699250633</v>
+        <v>348.8939320376543</v>
       </c>
       <c r="D4" t="n">
-        <v>304.4504648764897</v>
+        <v>307.9278222404637</v>
       </c>
       <c r="E4" t="n">
-        <v>410.1620357725374</v>
+        <v>409.2924911069553</v>
       </c>
       <c r="F4" t="n">
-        <v>350.6652699250633</v>
+        <v>348.8939320376543</v>
       </c>
       <c r="G4" t="n">
-        <v>350.6652699250633</v>
+        <v>348.8939320376543</v>
       </c>
       <c r="H4" t="n">
-        <v>7.675619774696195</v>
+        <v>8.93243047469616</v>
       </c>
       <c r="I4" t="n">
-        <v>7.675619774696195</v>
+        <v>8.93243047469616</v>
       </c>
       <c r="J4" t="n">
-        <v>7.675619774696195</v>
+        <v>8.93243047469616</v>
       </c>
       <c r="K4" t="n">
-        <v>7.675619774696195</v>
+        <v>8.93243047469616</v>
       </c>
       <c r="L4" t="n">
-        <v>7.675619774696195</v>
+        <v>8.93243047469616</v>
       </c>
       <c r="M4" t="n">
-        <v>7.675619774696195</v>
+        <v>8.93243047469616</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>358.3408896997595</v>
+        <v>357.8263625123504</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>43009</v>
       </c>
       <c r="C5" t="n">
-        <v>354.4642277689927</v>
+        <v>352.7693414157706</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6625787466785</v>
+        <v>320.2449122447685</v>
       </c>
       <c r="E5" t="n">
-        <v>415.7547911034179</v>
+        <v>416.8091658786411</v>
       </c>
       <c r="F5" t="n">
-        <v>354.4642277689927</v>
+        <v>352.7693414157706</v>
       </c>
       <c r="G5" t="n">
-        <v>354.4642277689927</v>
+        <v>352.7693414157706</v>
       </c>
       <c r="H5" t="n">
-        <v>12.3424645285773</v>
+        <v>13.70904622464964</v>
       </c>
       <c r="I5" t="n">
-        <v>12.3424645285773</v>
+        <v>13.70904622464964</v>
       </c>
       <c r="J5" t="n">
-        <v>12.3424645285773</v>
+        <v>13.70904622464964</v>
       </c>
       <c r="K5" t="n">
-        <v>12.3424645285773</v>
+        <v>13.70904622464964</v>
       </c>
       <c r="L5" t="n">
-        <v>12.3424645285773</v>
+        <v>13.70904622464964</v>
       </c>
       <c r="M5" t="n">
-        <v>12.3424645285773</v>
+        <v>13.70904622464964</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>366.80669229757</v>
+        <v>366.4783876404202</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>43040</v>
       </c>
       <c r="C6" t="n">
-        <v>358.389817541053</v>
+        <v>356.7739311064909</v>
       </c>
       <c r="D6" t="n">
-        <v>303.7739662562361</v>
+        <v>311.3373610516963</v>
       </c>
       <c r="E6" t="n">
-        <v>410.0616867694113</v>
+        <v>411.7474040205984</v>
       </c>
       <c r="F6" t="n">
-        <v>358.389817541053</v>
+        <v>356.7739311064909</v>
       </c>
       <c r="G6" t="n">
-        <v>358.389817541053</v>
+        <v>356.7739311064909</v>
       </c>
       <c r="H6" t="n">
-        <v>2.017566972415406</v>
+        <v>3.528473244128603</v>
       </c>
       <c r="I6" t="n">
-        <v>2.017566972415406</v>
+        <v>3.528473244128603</v>
       </c>
       <c r="J6" t="n">
-        <v>2.017566972415406</v>
+        <v>3.528473244128603</v>
       </c>
       <c r="K6" t="n">
-        <v>2.017566972415406</v>
+        <v>3.528473244128603</v>
       </c>
       <c r="L6" t="n">
-        <v>2.017566972415406</v>
+        <v>3.528473244128603</v>
       </c>
       <c r="M6" t="n">
-        <v>2.017566972415406</v>
+        <v>3.528473244128603</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>360.4073845134684</v>
+        <v>360.3024043506194</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>43070</v>
       </c>
       <c r="C7" t="n">
-        <v>362.1887753905829</v>
+        <v>360.6493404856536</v>
       </c>
       <c r="D7" t="n">
-        <v>320.9768447454756</v>
+        <v>323.8031172412334</v>
       </c>
       <c r="E7" t="n">
-        <v>426.1786899198997</v>
+        <v>421.6838091600648</v>
       </c>
       <c r="F7" t="n">
-        <v>362.1887753905829</v>
+        <v>360.6493404856536</v>
       </c>
       <c r="G7" t="n">
-        <v>362.1887753905829</v>
+        <v>360.6493404856536</v>
       </c>
       <c r="H7" t="n">
-        <v>10.62657778800544</v>
+        <v>12.30545352416428</v>
       </c>
       <c r="I7" t="n">
-        <v>10.62657778800544</v>
+        <v>12.30545352416428</v>
       </c>
       <c r="J7" t="n">
-        <v>10.62657778800544</v>
+        <v>12.30545352416428</v>
       </c>
       <c r="K7" t="n">
-        <v>10.62657778800544</v>
+        <v>12.30545352416428</v>
       </c>
       <c r="L7" t="n">
-        <v>10.62657778800544</v>
+        <v>12.30545352416428</v>
       </c>
       <c r="M7" t="n">
-        <v>10.62657778800544</v>
+        <v>12.30545352416428</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>372.8153531785883</v>
+        <v>372.9547940098179</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>43101</v>
       </c>
       <c r="C8" t="n">
-        <v>366.1143651684304</v>
+        <v>364.653930177455</v>
       </c>
       <c r="D8" t="n">
-        <v>320.1287695221967</v>
+        <v>320.7242744732933</v>
       </c>
       <c r="E8" t="n">
-        <v>422.8751376829246</v>
+        <v>420.7097778586628</v>
       </c>
       <c r="F8" t="n">
-        <v>366.1143651684304</v>
+        <v>364.653930177455</v>
       </c>
       <c r="G8" t="n">
-        <v>366.1143651684304</v>
+        <v>364.653930177455</v>
       </c>
       <c r="H8" t="n">
-        <v>5.207416579288641</v>
+        <v>7.063195853845359</v>
       </c>
       <c r="I8" t="n">
-        <v>5.207416579288641</v>
+        <v>7.063195853845359</v>
       </c>
       <c r="J8" t="n">
-        <v>5.207416579288641</v>
+        <v>7.063195853845359</v>
       </c>
       <c r="K8" t="n">
-        <v>5.207416579288641</v>
+        <v>7.063195853845359</v>
       </c>
       <c r="L8" t="n">
-        <v>5.207416579288641</v>
+        <v>7.063195853845359</v>
       </c>
       <c r="M8" t="n">
-        <v>5.207416579288641</v>
+        <v>7.063195853845359</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>371.3217817477191</v>
+        <v>371.7171260313004</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>43132</v>
       </c>
       <c r="C9" t="n">
-        <v>370.0399549509651</v>
+        <v>368.6585198729661</v>
       </c>
       <c r="D9" t="n">
-        <v>319.8668285462866</v>
+        <v>315.8482410432463</v>
       </c>
       <c r="E9" t="n">
-        <v>422.4923911278764</v>
+        <v>419.7093593494079</v>
       </c>
       <c r="F9" t="n">
-        <v>370.0399549509651</v>
+        <v>368.6585198729661</v>
       </c>
       <c r="G9" t="n">
-        <v>370.0399549509651</v>
+        <v>368.6585198729661</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4992694136972263</v>
+        <v>1.486612568360779</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4992694136972263</v>
+        <v>1.486612568360779</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.4992694136972263</v>
+        <v>1.486612568360779</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.4992694136972263</v>
+        <v>1.486612568360779</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.4992694136972263</v>
+        <v>1.486612568360779</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.4992694136972263</v>
+        <v>1.486612568360779</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>369.5406855372678</v>
+        <v>370.1451324413269</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>43160</v>
       </c>
       <c r="C10" t="n">
-        <v>373.5856489492494</v>
+        <v>372.275568630202</v>
       </c>
       <c r="D10" t="n">
-        <v>307.2434495421534</v>
+        <v>307.0517596126664</v>
       </c>
       <c r="E10" t="n">
-        <v>407.9848806593387</v>
+        <v>412.0929539105231</v>
       </c>
       <c r="F10" t="n">
-        <v>373.5856489492494</v>
+        <v>372.275568630202</v>
       </c>
       <c r="G10" t="n">
-        <v>373.5856489492494</v>
+        <v>372.275568630202</v>
       </c>
       <c r="H10" t="n">
-        <v>-14.3337143149087</v>
+        <v>-12.24916859174261</v>
       </c>
       <c r="I10" t="n">
-        <v>-14.3337143149087</v>
+        <v>-12.24916859174261</v>
       </c>
       <c r="J10" t="n">
-        <v>-14.3337143149087</v>
+        <v>-12.24916859174261</v>
       </c>
       <c r="K10" t="n">
-        <v>-14.3337143149087</v>
+        <v>-12.24916859174261</v>
       </c>
       <c r="L10" t="n">
-        <v>-14.3337143149087</v>
+        <v>-12.24916859174261</v>
       </c>
       <c r="M10" t="n">
-        <v>-14.3337143149087</v>
+        <v>-12.24916859174261</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>359.2519346343407</v>
+        <v>360.0264000384594</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43191</v>
       </c>
       <c r="C11" t="n">
-        <v>377.5112387330644</v>
+        <v>376.280158322831</v>
       </c>
       <c r="D11" t="n">
-        <v>301.1304818654661</v>
+        <v>303.2809295517743</v>
       </c>
       <c r="E11" t="n">
-        <v>401.7304414260237</v>
+        <v>402.2863862880898</v>
       </c>
       <c r="F11" t="n">
-        <v>377.5112387330644</v>
+        <v>376.280158322831</v>
       </c>
       <c r="G11" t="n">
-        <v>377.5112387330644</v>
+        <v>376.280158322831</v>
       </c>
       <c r="H11" t="n">
-        <v>-24.2853487631521</v>
+        <v>-22.15547306673167</v>
       </c>
       <c r="I11" t="n">
-        <v>-24.2853487631521</v>
+        <v>-22.15547306673167</v>
       </c>
       <c r="J11" t="n">
-        <v>-24.2853487631521</v>
+        <v>-22.15547306673167</v>
       </c>
       <c r="K11" t="n">
-        <v>-24.2853487631521</v>
+        <v>-22.15547306673167</v>
       </c>
       <c r="L11" t="n">
-        <v>-24.2853487631521</v>
+        <v>-22.15547306673167</v>
       </c>
       <c r="M11" t="n">
-        <v>-24.2853487631521</v>
+        <v>-22.15547306673167</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>353.2258899699123</v>
+        <v>354.1246852560993</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43221</v>
       </c>
       <c r="C12" t="n">
-        <v>381.3101965932312</v>
+        <v>380.1555677066528</v>
       </c>
       <c r="D12" t="n">
-        <v>300.8387791949183</v>
+        <v>305.0296436567135</v>
       </c>
       <c r="E12" t="n">
-        <v>399.665900874761</v>
+        <v>406.8085448610825</v>
       </c>
       <c r="F12" t="n">
-        <v>381.3101965932312</v>
+        <v>380.1555677066528</v>
       </c>
       <c r="G12" t="n">
-        <v>381.3101965932312</v>
+        <v>380.1555677066528</v>
       </c>
       <c r="H12" t="n">
-        <v>-28.6984505340224</v>
+        <v>-26.478540648142</v>
       </c>
       <c r="I12" t="n">
-        <v>-28.6984505340224</v>
+        <v>-26.478540648142</v>
       </c>
       <c r="J12" t="n">
-        <v>-28.6984505340224</v>
+        <v>-26.478540648142</v>
       </c>
       <c r="K12" t="n">
-        <v>-28.6984505340224</v>
+        <v>-26.478540648142</v>
       </c>
       <c r="L12" t="n">
-        <v>-28.6984505340224</v>
+        <v>-26.478540648142</v>
       </c>
       <c r="M12" t="n">
-        <v>-28.6984505340224</v>
+        <v>-26.478540648142</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>352.6117460592088</v>
+        <v>353.6770270585109</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43252</v>
       </c>
       <c r="C13" t="n">
-        <v>385.2357863820703</v>
+        <v>384.1601574032688</v>
       </c>
       <c r="D13" t="n">
-        <v>301.7398004048038</v>
+        <v>297.4729264306036</v>
       </c>
       <c r="E13" t="n">
-        <v>407.1168340129247</v>
+        <v>393.2681860213538</v>
       </c>
       <c r="F13" t="n">
-        <v>385.2357863820703</v>
+        <v>384.1601574032688</v>
       </c>
       <c r="G13" t="n">
-        <v>385.2357863820703</v>
+        <v>384.1601574032688</v>
       </c>
       <c r="H13" t="n">
-        <v>-29.5570405373941</v>
+        <v>-37.76802046236639</v>
       </c>
       <c r="I13" t="n">
-        <v>-29.5570405373941</v>
+        <v>-37.76802046236639</v>
       </c>
       <c r="J13" t="n">
-        <v>-29.5570405373941</v>
+        <v>-37.76802046236639</v>
       </c>
       <c r="K13" t="n">
-        <v>-29.5570405373941</v>
+        <v>-37.76802046236639</v>
       </c>
       <c r="L13" t="n">
-        <v>-29.5570405373941</v>
+        <v>-37.76802046236639</v>
       </c>
       <c r="M13" t="n">
-        <v>-29.5570405373941</v>
+        <v>-37.76802046236639</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>355.6787458446761</v>
+        <v>346.3921369409024</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43282</v>
       </c>
       <c r="C14" t="n">
-        <v>389.0347442473865</v>
+        <v>388.0355667895209</v>
       </c>
       <c r="D14" t="n">
-        <v>298.6776573194925</v>
+        <v>299.1404190421896</v>
       </c>
       <c r="E14" t="n">
-        <v>400.736563176523</v>
+        <v>402.1415028896653</v>
       </c>
       <c r="F14" t="n">
-        <v>389.0347442473865</v>
+        <v>388.0355667895209</v>
       </c>
       <c r="G14" t="n">
-        <v>389.0347442473865</v>
+        <v>388.0355667895209</v>
       </c>
       <c r="H14" t="n">
-        <v>-39.17563576882327</v>
+        <v>-37.61855306827303</v>
       </c>
       <c r="I14" t="n">
-        <v>-39.17563576882327</v>
+        <v>-37.61855306827303</v>
       </c>
       <c r="J14" t="n">
-        <v>-39.17563576882327</v>
+        <v>-37.61855306827303</v>
       </c>
       <c r="K14" t="n">
-        <v>-39.17563576882327</v>
+        <v>-37.61855306827303</v>
       </c>
       <c r="L14" t="n">
-        <v>-39.17563576882327</v>
+        <v>-37.61855306827303</v>
       </c>
       <c r="M14" t="n">
-        <v>-39.17563576882327</v>
+        <v>-37.61855306827303</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>349.8591084785632</v>
+        <v>350.4170137212478</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43313</v>
       </c>
       <c r="C15" t="n">
-        <v>392.9603340415466</v>
+        <v>392.040156488648</v>
       </c>
       <c r="D15" t="n">
-        <v>320.8424902938033</v>
+        <v>321.3657214380387</v>
       </c>
       <c r="E15" t="n">
-        <v>425.1566996078178</v>
+        <v>421.4188752860716</v>
       </c>
       <c r="F15" t="n">
-        <v>392.9603340415466</v>
+        <v>392.040156488648</v>
       </c>
       <c r="G15" t="n">
-        <v>392.9603340415466</v>
+        <v>392.040156488648</v>
       </c>
       <c r="H15" t="n">
-        <v>-20.69968925934539</v>
+        <v>-19.09664576567224</v>
       </c>
       <c r="I15" t="n">
-        <v>-20.69968925934539</v>
+        <v>-19.09664576567224</v>
       </c>
       <c r="J15" t="n">
-        <v>-20.69968925934539</v>
+        <v>-19.09664576567224</v>
       </c>
       <c r="K15" t="n">
-        <v>-20.69968925934539</v>
+        <v>-19.09664576567224</v>
       </c>
       <c r="L15" t="n">
-        <v>-20.69968925934539</v>
+        <v>-19.09664576567224</v>
       </c>
       <c r="M15" t="n">
-        <v>-20.69968925934539</v>
+        <v>-19.09664576567224</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.2606447822012</v>
+        <v>372.9435107229758</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43344</v>
       </c>
       <c r="C16" t="n">
-        <v>396.8859238331389</v>
+        <v>396.0447461876138</v>
       </c>
       <c r="D16" t="n">
-        <v>353.9589003594211</v>
+        <v>357.6916212479047</v>
       </c>
       <c r="E16" t="n">
-        <v>453.5685196787152</v>
+        <v>454.1890913058341</v>
       </c>
       <c r="F16" t="n">
-        <v>396.8859238331389</v>
+        <v>396.0447461876138</v>
       </c>
       <c r="G16" t="n">
-        <v>396.8859238331389</v>
+        <v>396.0447461876138</v>
       </c>
       <c r="H16" t="n">
-        <v>6.687815827826255</v>
+        <v>8.344544696675696</v>
       </c>
       <c r="I16" t="n">
-        <v>6.687815827826255</v>
+        <v>8.344544696675696</v>
       </c>
       <c r="J16" t="n">
-        <v>6.687815827826255</v>
+        <v>8.344544696675696</v>
       </c>
       <c r="K16" t="n">
-        <v>6.687815827826255</v>
+        <v>8.344544696675696</v>
       </c>
       <c r="L16" t="n">
-        <v>6.687815827826255</v>
+        <v>8.344544696675696</v>
       </c>
       <c r="M16" t="n">
-        <v>6.687815827826255</v>
+        <v>8.344544696675696</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>403.5737396609651</v>
+        <v>404.3892908842896</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43374</v>
       </c>
       <c r="C17" t="n">
-        <v>400.6848816959701</v>
+        <v>399.9201555737098</v>
       </c>
       <c r="D17" t="n">
-        <v>361.5774268465452</v>
+        <v>360.387104014214</v>
       </c>
       <c r="E17" t="n">
-        <v>459.9568603309056</v>
+        <v>463.2487644659715</v>
       </c>
       <c r="F17" t="n">
-        <v>400.6848816959701</v>
+        <v>399.9201555737098</v>
       </c>
       <c r="G17" t="n">
-        <v>400.6848816959701</v>
+        <v>399.9201555737098</v>
       </c>
       <c r="H17" t="n">
-        <v>10.81835325027121</v>
+        <v>12.46349373975882</v>
       </c>
       <c r="I17" t="n">
-        <v>10.81835325027121</v>
+        <v>12.46349373975882</v>
       </c>
       <c r="J17" t="n">
-        <v>10.81835325027121</v>
+        <v>12.46349373975882</v>
       </c>
       <c r="K17" t="n">
-        <v>10.81835325027121</v>
+        <v>12.46349373975882</v>
       </c>
       <c r="L17" t="n">
-        <v>10.81835325027121</v>
+        <v>12.46349373975882</v>
       </c>
       <c r="M17" t="n">
-        <v>10.81835325027121</v>
+        <v>12.46349373975882</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>411.5032349462414</v>
+        <v>412.3836493134686</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43405</v>
       </c>
       <c r="C18" t="n">
-        <v>404.6104714912009</v>
+        <v>403.9247452711393</v>
       </c>
       <c r="D18" t="n">
-        <v>352.1832090455476</v>
+        <v>353.2450299554489</v>
       </c>
       <c r="E18" t="n">
-        <v>448.7133682312728</v>
+        <v>450.071975601542</v>
       </c>
       <c r="F18" t="n">
-        <v>404.6104714912009</v>
+        <v>403.9247452711393</v>
       </c>
       <c r="G18" t="n">
-        <v>404.6104714912009</v>
+        <v>403.9247452711393</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.066003934137987</v>
+        <v>-1.499749519828504</v>
       </c>
       <c r="I18" t="n">
-        <v>-3.066003934137987</v>
+        <v>-1.499749519828504</v>
       </c>
       <c r="J18" t="n">
-        <v>-3.066003934137987</v>
+        <v>-1.499749519828504</v>
       </c>
       <c r="K18" t="n">
-        <v>-3.066003934137987</v>
+        <v>-1.499749519828504</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.066003934137987</v>
+        <v>-1.499749519828504</v>
       </c>
       <c r="M18" t="n">
-        <v>-3.066003934137987</v>
+        <v>-1.499749519828504</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>401.5444675570629</v>
+        <v>402.4249957513108</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43435</v>
       </c>
       <c r="C19" t="n">
-        <v>408.4094293575533</v>
+        <v>407.8001546557486</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3402673548434</v>
+        <v>361.8685084212695</v>
       </c>
       <c r="E19" t="n">
-        <v>460.9289755291445</v>
+        <v>465.1131371658484</v>
       </c>
       <c r="F19" t="n">
-        <v>408.4094293575533</v>
+        <v>407.8001546557486</v>
       </c>
       <c r="G19" t="n">
-        <v>408.4094293575533</v>
+        <v>407.8001546557486</v>
       </c>
       <c r="H19" t="n">
-        <v>5.890943791279142</v>
+        <v>7.346338539544711</v>
       </c>
       <c r="I19" t="n">
-        <v>5.890943791279142</v>
+        <v>7.346338539544711</v>
       </c>
       <c r="J19" t="n">
-        <v>5.890943791279142</v>
+        <v>7.346338539544711</v>
       </c>
       <c r="K19" t="n">
-        <v>5.890943791279142</v>
+        <v>7.346338539544711</v>
       </c>
       <c r="L19" t="n">
-        <v>5.890943791279142</v>
+        <v>7.346338539544711</v>
       </c>
       <c r="M19" t="n">
-        <v>5.890943791279142</v>
+        <v>7.346338539544711</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>414.3003731488324</v>
+        <v>415.1464931952933</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43466</v>
       </c>
       <c r="C20" t="n">
-        <v>412.3350191460419</v>
+        <v>411.8047443490892</v>
       </c>
       <c r="D20" t="n">
-        <v>378.7813998057213</v>
+        <v>376.6721403085174</v>
       </c>
       <c r="E20" t="n">
-        <v>476.5476974328844</v>
+        <v>478.5000881280352</v>
       </c>
       <c r="F20" t="n">
-        <v>412.3350191460419</v>
+        <v>411.8047443490892</v>
       </c>
       <c r="G20" t="n">
-        <v>412.3350191460419</v>
+        <v>411.8047443490892</v>
       </c>
       <c r="H20" t="n">
-        <v>16.04670208793735</v>
+        <v>17.36472723267378</v>
       </c>
       <c r="I20" t="n">
-        <v>16.04670208793735</v>
+        <v>17.36472723267378</v>
       </c>
       <c r="J20" t="n">
-        <v>16.04670208793735</v>
+        <v>17.36472723267378</v>
       </c>
       <c r="K20" t="n">
-        <v>16.04670208793735</v>
+        <v>17.36472723267378</v>
       </c>
       <c r="L20" t="n">
-        <v>16.04670208793735</v>
+        <v>17.36472723267378</v>
       </c>
       <c r="M20" t="n">
-        <v>16.04670208793735</v>
+        <v>17.36472723267378</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>428.3817212339792</v>
+        <v>429.1694715817629</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43497</v>
       </c>
       <c r="C21" t="n">
-        <v>416.2606089305658</v>
+        <v>415.8093340424296</v>
       </c>
       <c r="D21" t="n">
-        <v>377.4193903380742</v>
+        <v>379.6974544710407</v>
       </c>
       <c r="E21" t="n">
-        <v>477.6945838994247</v>
+        <v>477.5349404573595</v>
       </c>
       <c r="F21" t="n">
-        <v>416.2606089305658</v>
+        <v>415.8093340424296</v>
       </c>
       <c r="G21" t="n">
-        <v>416.2606089305658</v>
+        <v>415.8093340424296</v>
       </c>
       <c r="H21" t="n">
-        <v>13.59781920293236</v>
+        <v>14.83293171498388</v>
       </c>
       <c r="I21" t="n">
-        <v>13.59781920293236</v>
+        <v>14.83293171498388</v>
       </c>
       <c r="J21" t="n">
-        <v>13.59781920293236</v>
+        <v>14.83293171498388</v>
       </c>
       <c r="K21" t="n">
-        <v>13.59781920293236</v>
+        <v>14.83293171498388</v>
       </c>
       <c r="L21" t="n">
-        <v>13.59781920293236</v>
+        <v>14.83293171498388</v>
       </c>
       <c r="M21" t="n">
-        <v>13.59781920293236</v>
+        <v>14.83293171498388</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>429.8584281334982</v>
+        <v>430.6422657574135</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43525</v>
       </c>
       <c r="C22" t="n">
-        <v>419.8063029294906</v>
+        <v>419.4263827885858</v>
       </c>
       <c r="D22" t="n">
-        <v>344.3182284593039</v>
+        <v>340.4000849354482</v>
       </c>
       <c r="E22" t="n">
-        <v>442.9621295312714</v>
+        <v>443.5396952949842</v>
       </c>
       <c r="F22" t="n">
-        <v>419.8063029294906</v>
+        <v>419.4263827885858</v>
       </c>
       <c r="G22" t="n">
-        <v>419.8063029294906</v>
+        <v>419.4263827885858</v>
       </c>
       <c r="H22" t="n">
-        <v>-29.16565423589501</v>
+        <v>-26.18741753727137</v>
       </c>
       <c r="I22" t="n">
-        <v>-29.16565423589501</v>
+        <v>-26.18741753727137</v>
       </c>
       <c r="J22" t="n">
-        <v>-29.16565423589501</v>
+        <v>-26.18741753727137</v>
       </c>
       <c r="K22" t="n">
-        <v>-29.16565423589501</v>
+        <v>-26.18741753727137</v>
       </c>
       <c r="L22" t="n">
-        <v>-29.16565423589501</v>
+        <v>-26.18741753727137</v>
       </c>
       <c r="M22" t="n">
-        <v>-29.16565423589501</v>
+        <v>-26.18741753727137</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>390.6406486935956</v>
+        <v>393.2389652513145</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43556</v>
       </c>
       <c r="C23" t="n">
-        <v>423.7318889134568</v>
+        <v>423.4309724718303</v>
       </c>
       <c r="D23" t="n">
-        <v>337.2483636787824</v>
+        <v>345.8805531206702</v>
       </c>
       <c r="E23" t="n">
-        <v>439.3636497790507</v>
+        <v>444.8503811474414</v>
       </c>
       <c r="F23" t="n">
-        <v>423.7318889134568</v>
+        <v>423.4309724718303</v>
       </c>
       <c r="G23" t="n">
-        <v>423.7318889134568</v>
+        <v>423.4309724718303</v>
       </c>
       <c r="H23" t="n">
-        <v>-33.7597521581152</v>
+        <v>-30.81925312393715</v>
       </c>
       <c r="I23" t="n">
-        <v>-33.7597521581152</v>
+        <v>-30.81925312393715</v>
       </c>
       <c r="J23" t="n">
-        <v>-33.7597521581152</v>
+        <v>-30.81925312393715</v>
       </c>
       <c r="K23" t="n">
-        <v>-33.7597521581152</v>
+        <v>-30.81925312393715</v>
       </c>
       <c r="L23" t="n">
-        <v>-33.7597521581152</v>
+        <v>-30.81925312393715</v>
       </c>
       <c r="M23" t="n">
-        <v>-33.7597521581152</v>
+        <v>-30.81925312393715</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>389.9721367553416</v>
+        <v>392.6117193478931</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43586</v>
       </c>
       <c r="C24" t="n">
-        <v>427.5308430914885</v>
+        <v>427.3063818373459</v>
       </c>
       <c r="D24" t="n">
-        <v>353.6141458577165</v>
+        <v>360.4668212341588</v>
       </c>
       <c r="E24" t="n">
-        <v>454.1610665322596</v>
+        <v>457.486212240274</v>
       </c>
       <c r="F24" t="n">
-        <v>427.5308430914885</v>
+        <v>427.3063818373459</v>
       </c>
       <c r="G24" t="n">
-        <v>427.5308430914885</v>
+        <v>427.3063818373459</v>
       </c>
       <c r="H24" t="n">
-        <v>-22.48339553920913</v>
+        <v>-19.45442588892311</v>
       </c>
       <c r="I24" t="n">
-        <v>-22.48339553920913</v>
+        <v>-19.45442588892311</v>
       </c>
       <c r="J24" t="n">
-        <v>-22.48339553920913</v>
+        <v>-19.45442588892311</v>
       </c>
       <c r="K24" t="n">
-        <v>-22.48339553920913</v>
+        <v>-19.45442588892311</v>
       </c>
       <c r="L24" t="n">
-        <v>-22.48339553920913</v>
+        <v>-19.45442588892311</v>
       </c>
       <c r="M24" t="n">
-        <v>-22.48339553920913</v>
+        <v>-19.45442588892311</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>405.0474475522794</v>
+        <v>407.8519559484228</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43617</v>
       </c>
       <c r="C25" t="n">
-        <v>431.4564290724268</v>
+        <v>431.3109715150454</v>
       </c>
       <c r="D25" t="n">
-        <v>356.0403266562134</v>
+        <v>345.5134196229422</v>
       </c>
       <c r="E25" t="n">
-        <v>456.3152533480352</v>
+        <v>442.954069404967</v>
       </c>
       <c r="F25" t="n">
-        <v>431.4564290724268</v>
+        <v>431.3109715150454</v>
       </c>
       <c r="G25" t="n">
-        <v>431.4564290724268</v>
+        <v>431.3109715150454</v>
       </c>
       <c r="H25" t="n">
-        <v>-27.16308828952041</v>
+        <v>-38.09709003666951</v>
       </c>
       <c r="I25" t="n">
-        <v>-27.16308828952041</v>
+        <v>-38.09709003666951</v>
       </c>
       <c r="J25" t="n">
-        <v>-27.16308828952041</v>
+        <v>-38.09709003666951</v>
       </c>
       <c r="K25" t="n">
-        <v>-27.16308828952041</v>
+        <v>-38.09709003666951</v>
       </c>
       <c r="L25" t="n">
-        <v>-27.16308828952041</v>
+        <v>-38.09709003666951</v>
       </c>
       <c r="M25" t="n">
-        <v>-27.16308828952041</v>
+        <v>-38.09709003666951</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>404.2933407829064</v>
+        <v>393.2138814783759</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43647</v>
       </c>
       <c r="C26" t="n">
-        <v>435.2553832475284</v>
+        <v>435.1862429622189</v>
       </c>
       <c r="D26" t="n">
-        <v>356.1598510206737</v>
+        <v>356.5648553313197</v>
       </c>
       <c r="E26" t="n">
-        <v>454.8706872775542</v>
+        <v>456.0797897102515</v>
       </c>
       <c r="F26" t="n">
-        <v>435.2553832475284</v>
+        <v>435.1862429622189</v>
       </c>
       <c r="G26" t="n">
-        <v>435.2553832475284</v>
+        <v>435.1862429622189</v>
       </c>
       <c r="H26" t="n">
-        <v>-31.01582033594097</v>
+        <v>-28.96231626286647</v>
       </c>
       <c r="I26" t="n">
-        <v>-31.01582033594097</v>
+        <v>-28.96231626286647</v>
       </c>
       <c r="J26" t="n">
-        <v>-31.01582033594097</v>
+        <v>-28.96231626286647</v>
       </c>
       <c r="K26" t="n">
-        <v>-31.01582033594097</v>
+        <v>-28.96231626286647</v>
       </c>
       <c r="L26" t="n">
-        <v>-31.01582033594097</v>
+        <v>-28.96231626286647</v>
       </c>
       <c r="M26" t="n">
-        <v>-31.01582033594097</v>
+        <v>-28.96231626286647</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>404.2395629115874</v>
+        <v>406.2239266993524</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43678</v>
       </c>
       <c r="C27" t="n">
-        <v>439.1809531680551</v>
+        <v>439.1901485887525</v>
       </c>
       <c r="D27" t="n">
-        <v>363.5000567266968</v>
+        <v>365.7876200032916</v>
       </c>
       <c r="E27" t="n">
-        <v>463.4195985771372</v>
+        <v>467.2145763070376</v>
       </c>
       <c r="F27" t="n">
-        <v>439.1809531680551</v>
+        <v>439.1901485887525</v>
       </c>
       <c r="G27" t="n">
-        <v>439.1809531680551</v>
+        <v>439.1901485887525</v>
       </c>
       <c r="H27" t="n">
-        <v>-24.95675524536376</v>
+        <v>-22.92384483363879</v>
       </c>
       <c r="I27" t="n">
-        <v>-24.95675524536376</v>
+        <v>-22.92384483363879</v>
       </c>
       <c r="J27" t="n">
-        <v>-24.95675524536376</v>
+        <v>-22.92384483363879</v>
       </c>
       <c r="K27" t="n">
-        <v>-24.95675524536376</v>
+        <v>-22.92384483363879</v>
       </c>
       <c r="L27" t="n">
-        <v>-24.95675524536376</v>
+        <v>-22.92384483363879</v>
       </c>
       <c r="M27" t="n">
-        <v>-24.95675524536376</v>
+        <v>-22.92384483363879</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>414.2241979226913</v>
+        <v>416.2663037551138</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43709</v>
       </c>
       <c r="C28" t="n">
-        <v>443.1065230885818</v>
+        <v>443.194054215286</v>
       </c>
       <c r="D28" t="n">
-        <v>400.1394321369893</v>
+        <v>403.0674542930369</v>
       </c>
       <c r="E28" t="n">
-        <v>499.0221407519836</v>
+        <v>500.5810448350268</v>
       </c>
       <c r="F28" t="n">
-        <v>443.1065230885818</v>
+        <v>443.194054215286</v>
       </c>
       <c r="G28" t="n">
-        <v>443.1065230885818</v>
+        <v>443.194054215286</v>
       </c>
       <c r="H28" t="n">
-        <v>5.642024520225274</v>
+        <v>7.699578742220163</v>
       </c>
       <c r="I28" t="n">
-        <v>5.642024520225274</v>
+        <v>7.699578742220163</v>
       </c>
       <c r="J28" t="n">
-        <v>5.642024520225274</v>
+        <v>7.699578742220163</v>
       </c>
       <c r="K28" t="n">
-        <v>5.642024520225274</v>
+        <v>7.699578742220163</v>
       </c>
       <c r="L28" t="n">
-        <v>5.642024520225274</v>
+        <v>7.699578742220163</v>
       </c>
       <c r="M28" t="n">
-        <v>5.642024520225274</v>
+        <v>7.699578742220163</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>448.748547608807</v>
+        <v>450.8936329575062</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43739</v>
       </c>
       <c r="C29" t="n">
-        <v>446.9054217747673</v>
+        <v>447.0679394676253</v>
       </c>
       <c r="D29" t="n">
-        <v>408.9577871678117</v>
+        <v>409.9226840309826</v>
       </c>
       <c r="E29" t="n">
-        <v>507.6117808817284</v>
+        <v>506.1260493113911</v>
       </c>
       <c r="F29" t="n">
-        <v>446.9054217747673</v>
+        <v>447.0679394676253</v>
       </c>
       <c r="G29" t="n">
-        <v>446.9054217747673</v>
+        <v>447.0679394676253</v>
       </c>
       <c r="H29" t="n">
-        <v>9.239257765162822</v>
+        <v>11.15280237287245</v>
       </c>
       <c r="I29" t="n">
-        <v>9.239257765162822</v>
+        <v>11.15280237287245</v>
       </c>
       <c r="J29" t="n">
-        <v>9.239257765162822</v>
+        <v>11.15280237287245</v>
       </c>
       <c r="K29" t="n">
-        <v>9.239257765162822</v>
+        <v>11.15280237287245</v>
       </c>
       <c r="L29" t="n">
-        <v>9.239257765162822</v>
+        <v>11.15280237287245</v>
       </c>
       <c r="M29" t="n">
-        <v>9.239257765162822</v>
+        <v>11.15280237287245</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>456.1446795399301</v>
+        <v>458.2207418404977</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43770</v>
       </c>
       <c r="C30" t="n">
-        <v>450.830950417159</v>
+        <v>451.0709542283757</v>
       </c>
       <c r="D30" t="n">
-        <v>394.9101217888037</v>
+        <v>397.7628818466205</v>
       </c>
       <c r="E30" t="n">
-        <v>491.2778425150522</v>
+        <v>493.066582862961</v>
       </c>
       <c r="F30" t="n">
-        <v>450.830950417159</v>
+        <v>451.0709542283757</v>
       </c>
       <c r="G30" t="n">
-        <v>450.830950417159</v>
+        <v>451.0709542283757</v>
       </c>
       <c r="H30" t="n">
-        <v>-8.108619944715748</v>
+        <v>-6.501678254210288</v>
       </c>
       <c r="I30" t="n">
-        <v>-8.108619944715748</v>
+        <v>-6.501678254210288</v>
       </c>
       <c r="J30" t="n">
-        <v>-8.108619944715748</v>
+        <v>-6.501678254210288</v>
       </c>
       <c r="K30" t="n">
-        <v>-8.108619944715748</v>
+        <v>-6.501678254210288</v>
       </c>
       <c r="L30" t="n">
-        <v>-8.108619944715748</v>
+        <v>-6.501678254210288</v>
       </c>
       <c r="M30" t="n">
-        <v>-8.108619944715748</v>
+        <v>-6.501678254210288</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>442.7223304724432</v>
+        <v>444.5692759741654</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43800</v>
       </c>
       <c r="C31" t="n">
-        <v>454.6294416287101</v>
+        <v>454.9423958603688</v>
       </c>
       <c r="D31" t="n">
-        <v>405.329465412515</v>
+        <v>406.0718348378847</v>
       </c>
       <c r="E31" t="n">
-        <v>506.4774372265554</v>
+        <v>504.8505427244839</v>
       </c>
       <c r="F31" t="n">
-        <v>454.6294416287101</v>
+        <v>454.9423958603688</v>
       </c>
       <c r="G31" t="n">
-        <v>454.6294416287101</v>
+        <v>454.9423958603688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.453544099043967</v>
+        <v>2.672718672012885</v>
       </c>
       <c r="I31" t="n">
-        <v>1.453544099043967</v>
+        <v>2.672718672012885</v>
       </c>
       <c r="J31" t="n">
-        <v>1.453544099043967</v>
+        <v>2.672718672012885</v>
       </c>
       <c r="K31" t="n">
-        <v>1.453544099043967</v>
+        <v>2.672718672012885</v>
       </c>
       <c r="L31" t="n">
-        <v>1.453544099043967</v>
+        <v>2.672718672012885</v>
       </c>
       <c r="M31" t="n">
-        <v>1.453544099043967</v>
+        <v>2.672718672012885</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>456.0829857277541</v>
+        <v>457.6151145323817</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43831</v>
       </c>
       <c r="C32" t="n">
-        <v>458.551443224137</v>
+        <v>458.9428855467617</v>
       </c>
       <c r="D32" t="n">
-        <v>436.541164988082</v>
+        <v>435.6084541521197</v>
       </c>
       <c r="E32" t="n">
-        <v>531.5746833563701</v>
+        <v>537.9324502177597</v>
       </c>
       <c r="F32" t="n">
-        <v>458.551443224137</v>
+        <v>458.9428855467617</v>
       </c>
       <c r="G32" t="n">
-        <v>458.551443224137</v>
+        <v>458.9428855467617</v>
       </c>
       <c r="H32" t="n">
-        <v>27.1097402344207</v>
+        <v>27.88744673204228</v>
       </c>
       <c r="I32" t="n">
-        <v>27.1097402344207</v>
+        <v>27.88744673204228</v>
       </c>
       <c r="J32" t="n">
-        <v>27.1097402344207</v>
+        <v>27.88744673204228</v>
       </c>
       <c r="K32" t="n">
-        <v>27.1097402344207</v>
+        <v>27.88744673204228</v>
       </c>
       <c r="L32" t="n">
-        <v>27.1097402344207</v>
+        <v>27.88744673204228</v>
       </c>
       <c r="M32" t="n">
-        <v>27.1097402344207</v>
+        <v>27.88744673204228</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>485.6611834585577</v>
+        <v>486.830332278804</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43862</v>
       </c>
       <c r="C33" t="n">
-        <v>462.473444819564</v>
+        <v>462.9377075092328</v>
       </c>
       <c r="D33" t="n">
-        <v>439.0686223683894</v>
+        <v>438.6212983241197</v>
       </c>
       <c r="E33" t="n">
-        <v>540.972580471361</v>
+        <v>538.8818694687664</v>
       </c>
       <c r="F33" t="n">
-        <v>462.473444819564</v>
+        <v>462.9377075092328</v>
       </c>
       <c r="G33" t="n">
-        <v>462.473444819564</v>
+        <v>462.9377075092328</v>
       </c>
       <c r="H33" t="n">
-        <v>27.36928776365954</v>
+        <v>27.87683293383617</v>
       </c>
       <c r="I33" t="n">
-        <v>27.36928776365954</v>
+        <v>27.87683293383617</v>
       </c>
       <c r="J33" t="n">
-        <v>27.36928776365954</v>
+        <v>27.87683293383617</v>
       </c>
       <c r="K33" t="n">
-        <v>27.36928776365954</v>
+        <v>27.87683293383617</v>
       </c>
       <c r="L33" t="n">
-        <v>27.36928776365954</v>
+        <v>27.87683293383617</v>
       </c>
       <c r="M33" t="n">
-        <v>27.36928776365954</v>
+        <v>27.87683293383617</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>489.8427325832235</v>
+        <v>490.814540443069</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43891</v>
       </c>
       <c r="C34" t="n">
-        <v>466.1403915608627</v>
+        <v>466.6747990225123</v>
       </c>
       <c r="D34" t="n">
-        <v>429.9024030666109</v>
+        <v>427.0671745189771</v>
       </c>
       <c r="E34" t="n">
-        <v>529.5105051248329</v>
+        <v>533.3534801964746</v>
       </c>
       <c r="F34" t="n">
-        <v>466.1403915608627</v>
+        <v>466.6747990225123</v>
       </c>
       <c r="G34" t="n">
-        <v>466.1403915608627</v>
+        <v>466.6747990225123</v>
       </c>
       <c r="H34" t="n">
-        <v>14.45519559238695</v>
+        <v>14.816225331331</v>
       </c>
       <c r="I34" t="n">
-        <v>14.45519559238695</v>
+        <v>14.816225331331</v>
       </c>
       <c r="J34" t="n">
-        <v>14.45519559238695</v>
+        <v>14.816225331331</v>
       </c>
       <c r="K34" t="n">
-        <v>14.45519559238695</v>
+        <v>14.816225331331</v>
       </c>
       <c r="L34" t="n">
-        <v>14.45519559238695</v>
+        <v>14.816225331331</v>
       </c>
       <c r="M34" t="n">
-        <v>14.45519559238695</v>
+        <v>14.816225331331</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>480.5955871532497</v>
+        <v>481.4910243538433</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43922</v>
       </c>
       <c r="C35" t="n">
-        <v>470.0602311808718</v>
+        <v>470.660438456704</v>
       </c>
       <c r="D35" t="n">
-        <v>415.1488052517274</v>
+        <v>419.8229352438565</v>
       </c>
       <c r="E35" t="n">
-        <v>514.5380412655987</v>
+        <v>515.2852604010246</v>
       </c>
       <c r="F35" t="n">
-        <v>470.0602311808718</v>
+        <v>470.660438456704</v>
       </c>
       <c r="G35" t="n">
-        <v>470.0602311808718</v>
+        <v>470.660438456704</v>
       </c>
       <c r="H35" t="n">
-        <v>-4.613501053987094</v>
+        <v>-4.131307442106347</v>
       </c>
       <c r="I35" t="n">
-        <v>-4.613501053987094</v>
+        <v>-4.131307442106347</v>
       </c>
       <c r="J35" t="n">
-        <v>-4.613501053987094</v>
+        <v>-4.131307442106347</v>
       </c>
       <c r="K35" t="n">
-        <v>-4.613501053987094</v>
+        <v>-4.131307442106347</v>
       </c>
       <c r="L35" t="n">
-        <v>-4.613501053987094</v>
+        <v>-4.131307442106347</v>
       </c>
       <c r="M35" t="n">
-        <v>-4.613501053987094</v>
+        <v>-4.131307442106347</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>465.4467301268847</v>
+        <v>466.5291310145976</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43952</v>
       </c>
       <c r="C36" t="n">
-        <v>473.8505368347062</v>
+        <v>474.5175088768893</v>
       </c>
       <c r="D36" t="n">
-        <v>384.3998388673587</v>
+        <v>381.6815179765662</v>
       </c>
       <c r="E36" t="n">
-        <v>484.5624292101613</v>
+        <v>484.2353953245014</v>
       </c>
       <c r="F36" t="n">
-        <v>473.8505368347062</v>
+        <v>474.5175088768893</v>
       </c>
       <c r="G36" t="n">
-        <v>473.8505368347062</v>
+        <v>474.5175088768893</v>
       </c>
       <c r="H36" t="n">
-        <v>-40.33176619357402</v>
+        <v>-39.89325082487352</v>
       </c>
       <c r="I36" t="n">
-        <v>-40.33176619357402</v>
+        <v>-39.89325082487352</v>
       </c>
       <c r="J36" t="n">
-        <v>-40.33176619357402</v>
+        <v>-39.89325082487352</v>
       </c>
       <c r="K36" t="n">
-        <v>-40.33176619357402</v>
+        <v>-39.89325082487352</v>
       </c>
       <c r="L36" t="n">
-        <v>-40.33176619357402</v>
+        <v>-39.89325082487352</v>
       </c>
       <c r="M36" t="n">
-        <v>-40.33176619357402</v>
+        <v>-39.89325082487352</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>433.5187706411322</v>
+        <v>434.6242580520158</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43983</v>
       </c>
       <c r="C37" t="n">
-        <v>477.7671860103351</v>
+        <v>477.7581256458768</v>
       </c>
       <c r="D37" t="n">
-        <v>393.3248640135803</v>
+        <v>387.2158124961407</v>
       </c>
       <c r="E37" t="n">
-        <v>492.6286058619229</v>
+        <v>496.3233001970939</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7671860103351</v>
+        <v>477.7581256458768</v>
       </c>
       <c r="G37" t="n">
-        <v>477.7671860103351</v>
+        <v>477.7581256458768</v>
       </c>
       <c r="H37" t="n">
-        <v>-34.0664097488065</v>
+        <v>-36.85508359892293</v>
       </c>
       <c r="I37" t="n">
-        <v>-34.0664097488065</v>
+        <v>-36.85508359892293</v>
       </c>
       <c r="J37" t="n">
-        <v>-34.0664097488065</v>
+        <v>-36.85508359892293</v>
       </c>
       <c r="K37" t="n">
-        <v>-34.0664097488065</v>
+        <v>-36.85508359892293</v>
       </c>
       <c r="L37" t="n">
-        <v>-34.0664097488065</v>
+        <v>-36.85508359892293</v>
       </c>
       <c r="M37" t="n">
-        <v>-34.0664097488065</v>
+        <v>-36.85508359892293</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>443.7007762615286</v>
+        <v>440.9030420469538</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>44013</v>
       </c>
       <c r="C38" t="n">
-        <v>481.1387976085381</v>
+        <v>480.8942063900581</v>
       </c>
       <c r="D38" t="n">
-        <v>375.5048929022824</v>
+        <v>376.563685517463</v>
       </c>
       <c r="E38" t="n">
-        <v>474.8202067423165</v>
+        <v>475.596683913659</v>
       </c>
       <c r="F38" t="n">
-        <v>481.1387976085381</v>
+        <v>480.8942063900581</v>
       </c>
       <c r="G38" t="n">
-        <v>481.1387976085381</v>
+        <v>480.8942063900581</v>
       </c>
       <c r="H38" t="n">
-        <v>-55.83907226649381</v>
+        <v>-55.15062349695584</v>
       </c>
       <c r="I38" t="n">
-        <v>-55.83907226649381</v>
+        <v>-55.15062349695584</v>
       </c>
       <c r="J38" t="n">
-        <v>-55.83907226649381</v>
+        <v>-55.15062349695584</v>
       </c>
       <c r="K38" t="n">
-        <v>-55.83907226649381</v>
+        <v>-55.15062349695584</v>
       </c>
       <c r="L38" t="n">
-        <v>-55.83907226649381</v>
+        <v>-55.15062349695584</v>
       </c>
       <c r="M38" t="n">
-        <v>-55.83907226649381</v>
+        <v>-55.15062349695584</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>425.2997253420443</v>
+        <v>425.7435828931023</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>44044</v>
       </c>
       <c r="C39" t="n">
-        <v>484.6227962600145</v>
+        <v>484.1270396346956</v>
       </c>
       <c r="D39" t="n">
-        <v>419.9761727024694</v>
+        <v>418.8104175931227</v>
       </c>
       <c r="E39" t="n">
-        <v>522.33339155678</v>
+        <v>524.9271723097623</v>
       </c>
       <c r="F39" t="n">
-        <v>484.6227962600145</v>
+        <v>484.1270396346956</v>
       </c>
       <c r="G39" t="n">
-        <v>484.6227962600145</v>
+        <v>484.1270396346956</v>
       </c>
       <c r="H39" t="n">
-        <v>-12.73648043838437</v>
+        <v>-11.95146147056636</v>
       </c>
       <c r="I39" t="n">
-        <v>-12.73648043838437</v>
+        <v>-11.95146147056636</v>
       </c>
       <c r="J39" t="n">
-        <v>-12.73648043838437</v>
+        <v>-11.95146147056636</v>
       </c>
       <c r="K39" t="n">
-        <v>-12.73648043838437</v>
+        <v>-11.95146147056636</v>
       </c>
       <c r="L39" t="n">
-        <v>-12.73648043838437</v>
+        <v>-11.95146147056636</v>
       </c>
       <c r="M39" t="n">
-        <v>-12.73648043838437</v>
+        <v>-11.95146147056636</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>471.8863158216301</v>
+        <v>472.1755781641292</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>44075</v>
       </c>
       <c r="C40" t="n">
-        <v>488.106782099089</v>
+        <v>487.3598728793331</v>
       </c>
       <c r="D40" t="n">
-        <v>449.0805736228341</v>
+        <v>446.4776504106045</v>
       </c>
       <c r="E40" t="n">
-        <v>547.4883232335202</v>
+        <v>550.5628510181213</v>
       </c>
       <c r="F40" t="n">
-        <v>488.106782099089</v>
+        <v>487.3598728793331</v>
       </c>
       <c r="G40" t="n">
-        <v>488.106782099089</v>
+        <v>487.3598728793331</v>
       </c>
       <c r="H40" t="n">
-        <v>8.602790687726948</v>
+        <v>9.461335188634134</v>
       </c>
       <c r="I40" t="n">
-        <v>8.602790687726948</v>
+        <v>9.461335188634134</v>
       </c>
       <c r="J40" t="n">
-        <v>8.602790687726948</v>
+        <v>9.461335188634134</v>
       </c>
       <c r="K40" t="n">
-        <v>8.602790687726948</v>
+        <v>9.461335188634134</v>
       </c>
       <c r="L40" t="n">
-        <v>8.602790687726948</v>
+        <v>9.461335188634134</v>
       </c>
       <c r="M40" t="n">
-        <v>8.602790687726948</v>
+        <v>9.461335188634134</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>496.709572786816</v>
+        <v>496.8212080679672</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>44105</v>
       </c>
       <c r="C41" t="n">
-        <v>491.4783812981933</v>
+        <v>490.4833792594652</v>
       </c>
       <c r="D41" t="n">
-        <v>456.3402595621308</v>
+        <v>452.6593065950095</v>
       </c>
       <c r="E41" t="n">
-        <v>555.7959958413547</v>
+        <v>551.1829338420541</v>
       </c>
       <c r="F41" t="n">
-        <v>491.4783812981933</v>
+        <v>490.4833792594652</v>
       </c>
       <c r="G41" t="n">
-        <v>491.4783812981933</v>
+        <v>490.4833792594652</v>
       </c>
       <c r="H41" t="n">
-        <v>13.8071477954676</v>
+        <v>14.88552430125601</v>
       </c>
       <c r="I41" t="n">
-        <v>13.8071477954676</v>
+        <v>14.88552430125601</v>
       </c>
       <c r="J41" t="n">
-        <v>13.8071477954676</v>
+        <v>14.88552430125601</v>
       </c>
       <c r="K41" t="n">
-        <v>13.8071477954676</v>
+        <v>14.88552430125601</v>
       </c>
       <c r="L41" t="n">
-        <v>13.8071477954676</v>
+        <v>14.88552430125601</v>
       </c>
       <c r="M41" t="n">
-        <v>13.8071477954676</v>
+        <v>14.88552430125601</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>505.2855290936608</v>
+        <v>505.3689035607212</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>44136</v>
       </c>
       <c r="C42" t="n">
-        <v>494.9610329396139</v>
+        <v>493.7094957996376</v>
       </c>
       <c r="D42" t="n">
-        <v>449.0454517689037</v>
+        <v>451.1817041475053</v>
       </c>
       <c r="E42" t="n">
-        <v>555.6591001981162</v>
+        <v>550.1172306187883</v>
       </c>
       <c r="F42" t="n">
-        <v>494.9610329396139</v>
+        <v>493.7094957996376</v>
       </c>
       <c r="G42" t="n">
-        <v>494.9610329396139</v>
+        <v>493.7094957996376</v>
       </c>
       <c r="H42" t="n">
-        <v>7.133951461143224</v>
+        <v>8.574951661191994</v>
       </c>
       <c r="I42" t="n">
-        <v>7.133951461143224</v>
+        <v>8.574951661191994</v>
       </c>
       <c r="J42" t="n">
-        <v>7.133951461143224</v>
+        <v>8.574951661191994</v>
       </c>
       <c r="K42" t="n">
-        <v>7.133951461143224</v>
+        <v>8.574951661191994</v>
       </c>
       <c r="L42" t="n">
-        <v>7.133951461143224</v>
+        <v>8.574951661191994</v>
       </c>
       <c r="M42" t="n">
-        <v>7.133951461143224</v>
+        <v>8.574951661191994</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>502.0949844007571</v>
+        <v>502.2844474608297</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>44166</v>
       </c>
       <c r="C43" t="n">
-        <v>498.330820516713</v>
+        <v>496.8315440643207</v>
       </c>
       <c r="D43" t="n">
-        <v>467.0679698864424</v>
+        <v>465.81952856751</v>
       </c>
       <c r="E43" t="n">
-        <v>565.7366993172378</v>
+        <v>566.3786198042247</v>
       </c>
       <c r="F43" t="n">
-        <v>498.330820516713</v>
+        <v>496.8315440643207</v>
       </c>
       <c r="G43" t="n">
-        <v>498.330820516713</v>
+        <v>496.8315440643207</v>
       </c>
       <c r="H43" t="n">
-        <v>15.65744270806382</v>
+        <v>17.54657414897992</v>
       </c>
       <c r="I43" t="n">
-        <v>15.65744270806382</v>
+        <v>17.54657414897992</v>
       </c>
       <c r="J43" t="n">
-        <v>15.65744270806382</v>
+        <v>17.54657414897992</v>
       </c>
       <c r="K43" t="n">
-        <v>15.65744270806382</v>
+        <v>17.54657414897992</v>
       </c>
       <c r="L43" t="n">
-        <v>15.65744270806382</v>
+        <v>17.54657414897992</v>
       </c>
       <c r="M43" t="n">
-        <v>15.65744270806382</v>
+        <v>17.54657414897992</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>513.9882632247768</v>
+        <v>514.3781182133007</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44197</v>
       </c>
       <c r="C44" t="n">
-        <v>501.812934346382</v>
+        <v>500.0566429224046</v>
       </c>
       <c r="D44" t="n">
-        <v>446.2257190167429</v>
+        <v>451.5697748164887</v>
       </c>
       <c r="E44" t="n">
-        <v>543.2221686464108</v>
+        <v>545.2340357330085</v>
       </c>
       <c r="F44" t="n">
-        <v>501.812934346382</v>
+        <v>500.0566429224046</v>
       </c>
       <c r="G44" t="n">
-        <v>501.812934346382</v>
+        <v>500.0566429224046</v>
       </c>
       <c r="H44" t="n">
-        <v>-5.392386316497785</v>
+        <v>-3.002380313769518</v>
       </c>
       <c r="I44" t="n">
-        <v>-5.392386316497785</v>
+        <v>-3.002380313769518</v>
       </c>
       <c r="J44" t="n">
-        <v>-5.392386316497785</v>
+        <v>-3.002380313769518</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.392386316497785</v>
+        <v>-3.002380313769518</v>
       </c>
       <c r="L44" t="n">
-        <v>-5.392386316497785</v>
+        <v>-3.002380313769518</v>
       </c>
       <c r="M44" t="n">
-        <v>-5.392386316497785</v>
+        <v>-3.002380313769518</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.4205480298842</v>
+        <v>497.0542626086352</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44228</v>
       </c>
       <c r="C45" t="n">
-        <v>505.2950468329974</v>
+        <v>503.2817417804885</v>
       </c>
       <c r="D45" t="n">
-        <v>440.6115175693021</v>
+        <v>437.1057086258675</v>
       </c>
       <c r="E45" t="n">
-        <v>541.7458423758571</v>
+        <v>537.7964596435909</v>
       </c>
       <c r="F45" t="n">
-        <v>505.2950468329974</v>
+        <v>503.2817417804885</v>
       </c>
       <c r="G45" t="n">
-        <v>505.2950468329974</v>
+        <v>503.2817417804885</v>
       </c>
       <c r="H45" t="n">
-        <v>-14.90453115695871</v>
+        <v>-12.14560275818695</v>
       </c>
       <c r="I45" t="n">
-        <v>-14.90453115695871</v>
+        <v>-12.14560275818695</v>
       </c>
       <c r="J45" t="n">
-        <v>-14.90453115695871</v>
+        <v>-12.14560275818695</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.90453115695871</v>
+        <v>-12.14560275818695</v>
       </c>
       <c r="L45" t="n">
-        <v>-14.90453115695871</v>
+        <v>-12.14560275818695</v>
       </c>
       <c r="M45" t="n">
-        <v>-14.90453115695871</v>
+        <v>-12.14560275818695</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>490.3905156760387</v>
+        <v>491.1361390223015</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44256</v>
       </c>
       <c r="C46" t="n">
-        <v>508.4401806918759</v>
+        <v>506.1938016962645</v>
       </c>
       <c r="D46" t="n">
-        <v>457.9866223671526</v>
+        <v>456.1038398470126</v>
       </c>
       <c r="E46" t="n">
-        <v>562.2737705967919</v>
+        <v>560.1829983668507</v>
       </c>
       <c r="F46" t="n">
-        <v>508.4401806918759</v>
+        <v>506.1938016962645</v>
       </c>
       <c r="G46" t="n">
-        <v>508.4401806918759</v>
+        <v>506.1938016962645</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2126127243143582</v>
+        <v>1.424339580838679</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2126127243143582</v>
+        <v>1.424339580838679</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2126127243143582</v>
+        <v>1.424339580838679</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2126127243143582</v>
+        <v>1.424339580838679</v>
       </c>
       <c r="L46" t="n">
-        <v>0.2126127243143582</v>
+        <v>1.424339580838679</v>
       </c>
       <c r="M46" t="n">
-        <v>0.2126127243143582</v>
+        <v>1.424339580838679</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>508.6527934161903</v>
+        <v>507.6181412771032</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44287</v>
       </c>
       <c r="C47" t="n">
-        <v>511.9222931691369</v>
+        <v>509.4178680315879</v>
       </c>
       <c r="D47" t="n">
-        <v>447.2942265795334</v>
+        <v>448.5159867312502</v>
       </c>
       <c r="E47" t="n">
-        <v>551.7909840829751</v>
+        <v>544.348750007061</v>
       </c>
       <c r="F47" t="n">
-        <v>511.9222931691369</v>
+        <v>509.4178680315879</v>
       </c>
       <c r="G47" t="n">
-        <v>511.9222931691369</v>
+        <v>509.4178680315879</v>
       </c>
       <c r="H47" t="n">
-        <v>-14.56495624418632</v>
+        <v>-13.25501121355302</v>
       </c>
       <c r="I47" t="n">
-        <v>-14.56495624418632</v>
+        <v>-13.25501121355302</v>
       </c>
       <c r="J47" t="n">
-        <v>-14.56495624418632</v>
+        <v>-13.25501121355302</v>
       </c>
       <c r="K47" t="n">
-        <v>-14.56495624418632</v>
+        <v>-13.25501121355302</v>
       </c>
       <c r="L47" t="n">
-        <v>-14.56495624418632</v>
+        <v>-13.25501121355302</v>
       </c>
       <c r="M47" t="n">
-        <v>-14.56495624418632</v>
+        <v>-13.25501121355302</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>497.3573369249506</v>
+        <v>496.1628568180349</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44317</v>
       </c>
       <c r="C48" t="n">
-        <v>515.2920794374539</v>
+        <v>512.5379322113801</v>
       </c>
       <c r="D48" t="n">
-        <v>430.516241686383</v>
+        <v>431.3106636357745</v>
       </c>
       <c r="E48" t="n">
-        <v>528.7926153642163</v>
+        <v>528.6001229742791</v>
       </c>
       <c r="F48" t="n">
-        <v>515.2920794374539</v>
+        <v>512.5379322113801</v>
       </c>
       <c r="G48" t="n">
-        <v>515.2920794374539</v>
+        <v>512.5379322113801</v>
       </c>
       <c r="H48" t="n">
-        <v>-34.64955513726996</v>
+        <v>-33.29326103445057</v>
       </c>
       <c r="I48" t="n">
-        <v>-34.64955513726996</v>
+        <v>-33.29326103445057</v>
       </c>
       <c r="J48" t="n">
-        <v>-34.64955513726996</v>
+        <v>-33.29326103445057</v>
       </c>
       <c r="K48" t="n">
-        <v>-34.64955513726996</v>
+        <v>-33.29326103445057</v>
       </c>
       <c r="L48" t="n">
-        <v>-34.64955513726996</v>
+        <v>-33.29326103445057</v>
       </c>
       <c r="M48" t="n">
-        <v>-34.64955513726996</v>
+        <v>-33.29326103445057</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>480.642524300184</v>
+        <v>479.2446711769295</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44348</v>
       </c>
       <c r="C49" t="n">
-        <v>518.7741919202009</v>
+        <v>515.7619985304984</v>
       </c>
       <c r="D49" t="n">
-        <v>436.7221414330589</v>
+        <v>428.4158011265145</v>
       </c>
       <c r="E49" t="n">
-        <v>536.7366984616812</v>
+        <v>525.2339967062093</v>
       </c>
       <c r="F49" t="n">
-        <v>518.7741919202009</v>
+        <v>515.7619985304984</v>
       </c>
       <c r="G49" t="n">
-        <v>518.7741919202009</v>
+        <v>515.7619985304984</v>
       </c>
       <c r="H49" t="n">
-        <v>-31.86040675798442</v>
+        <v>-37.35531160172463</v>
       </c>
       <c r="I49" t="n">
-        <v>-31.86040675798442</v>
+        <v>-37.35531160172463</v>
       </c>
       <c r="J49" t="n">
-        <v>-31.86040675798442</v>
+        <v>-37.35531160172463</v>
       </c>
       <c r="K49" t="n">
-        <v>-31.86040675798442</v>
+        <v>-37.35531160172463</v>
       </c>
       <c r="L49" t="n">
-        <v>-31.86040675798442</v>
+        <v>-37.35531160172463</v>
       </c>
       <c r="M49" t="n">
-        <v>-31.86040675798442</v>
+        <v>-37.35531160172463</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>486.9137851622165</v>
+        <v>478.4066869287738</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44378</v>
       </c>
       <c r="C50" t="n">
-        <v>522.1439781938271</v>
+        <v>518.8820627104317</v>
       </c>
       <c r="D50" t="n">
-        <v>426.2184253369801</v>
+        <v>420.0006687759479</v>
       </c>
       <c r="E50" t="n">
-        <v>527.0627228714767</v>
+        <v>520.7256505191795</v>
       </c>
       <c r="F50" t="n">
-        <v>522.1439781938271</v>
+        <v>518.8820627104317</v>
       </c>
       <c r="G50" t="n">
-        <v>522.1439781938271</v>
+        <v>518.8820627104317</v>
       </c>
       <c r="H50" t="n">
-        <v>-47.45339345315055</v>
+        <v>-46.35131375203064</v>
       </c>
       <c r="I50" t="n">
-        <v>-47.45339345315055</v>
+        <v>-46.35131375203064</v>
       </c>
       <c r="J50" t="n">
-        <v>-47.45339345315055</v>
+        <v>-46.35131375203064</v>
       </c>
       <c r="K50" t="n">
-        <v>-47.45339345315055</v>
+        <v>-46.35131375203064</v>
       </c>
       <c r="L50" t="n">
-        <v>-47.45339345315055</v>
+        <v>-46.35131375203064</v>
       </c>
       <c r="M50" t="n">
-        <v>-47.45339345315055</v>
+        <v>-46.35131375203064</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>474.6905847406766</v>
+        <v>472.530748958401</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44409</v>
       </c>
       <c r="C51" t="n">
-        <v>525.6260906765742</v>
+        <v>522.1061290296958</v>
       </c>
       <c r="D51" t="n">
-        <v>455.826307789173</v>
+        <v>456.537206527088</v>
       </c>
       <c r="E51" t="n">
-        <v>558.8379391924723</v>
+        <v>556.8734378639689</v>
       </c>
       <c r="F51" t="n">
-        <v>525.6260906765742</v>
+        <v>522.1061290296958</v>
       </c>
       <c r="G51" t="n">
-        <v>525.6260906765742</v>
+        <v>522.1061290296958</v>
       </c>
       <c r="H51" t="n">
-        <v>-16.62557258733705</v>
+        <v>-15.43872368046362</v>
       </c>
       <c r="I51" t="n">
-        <v>-16.62557258733705</v>
+        <v>-15.43872368046362</v>
       </c>
       <c r="J51" t="n">
-        <v>-16.62557258733705</v>
+        <v>-15.43872368046362</v>
       </c>
       <c r="K51" t="n">
-        <v>-16.62557258733705</v>
+        <v>-15.43872368046362</v>
       </c>
       <c r="L51" t="n">
-        <v>-16.62557258733705</v>
+        <v>-15.43872368046362</v>
       </c>
       <c r="M51" t="n">
-        <v>-16.62557258733705</v>
+        <v>-15.43872368046362</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>509.0005180892372</v>
+        <v>506.6674053492322</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44440</v>
       </c>
       <c r="C52" t="n">
-        <v>529.1082031593213</v>
+        <v>525.3301953489602</v>
       </c>
       <c r="D52" t="n">
-        <v>487.9528735418509</v>
+        <v>483.625551531239</v>
       </c>
       <c r="E52" t="n">
-        <v>590.2454011140023</v>
+        <v>586.75561927813</v>
       </c>
       <c r="F52" t="n">
-        <v>529.1082031593213</v>
+        <v>525.3301953489602</v>
       </c>
       <c r="G52" t="n">
-        <v>529.1082031593213</v>
+        <v>525.3301953489602</v>
       </c>
       <c r="H52" t="n">
-        <v>7.67561977466168</v>
+        <v>8.932430474661366</v>
       </c>
       <c r="I52" t="n">
-        <v>7.67561977466168</v>
+        <v>8.932430474661366</v>
       </c>
       <c r="J52" t="n">
-        <v>7.67561977466168</v>
+        <v>8.932430474661366</v>
       </c>
       <c r="K52" t="n">
-        <v>7.67561977466168</v>
+        <v>8.932430474661366</v>
       </c>
       <c r="L52" t="n">
-        <v>7.67561977466168</v>
+        <v>8.932430474661366</v>
       </c>
       <c r="M52" t="n">
-        <v>7.67561977466168</v>
+        <v>8.932430474661366</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>536.7838229339829</v>
+        <v>534.2626258236215</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44470</v>
       </c>
       <c r="C53" t="n">
-        <v>532.4779894329475</v>
+        <v>528.4502595288933</v>
       </c>
       <c r="D53" t="n">
-        <v>494.0759613147783</v>
+        <v>493.0871853896402</v>
       </c>
       <c r="E53" t="n">
-        <v>594.3536291572475</v>
+        <v>590.8490157474787</v>
       </c>
       <c r="F53" t="n">
-        <v>532.4779894329475</v>
+        <v>528.4502595288933</v>
       </c>
       <c r="G53" t="n">
-        <v>532.4779894329475</v>
+        <v>528.4502595288933</v>
       </c>
       <c r="H53" t="n">
-        <v>12.34246452856962</v>
+        <v>13.70904622463723</v>
       </c>
       <c r="I53" t="n">
-        <v>12.34246452856962</v>
+        <v>13.70904622463723</v>
       </c>
       <c r="J53" t="n">
-        <v>12.34246452856962</v>
+        <v>13.70904622463723</v>
       </c>
       <c r="K53" t="n">
-        <v>12.34246452856962</v>
+        <v>13.70904622463723</v>
       </c>
       <c r="L53" t="n">
-        <v>12.34246452856962</v>
+        <v>13.70904622463723</v>
       </c>
       <c r="M53" t="n">
-        <v>12.34246452856962</v>
+        <v>13.70904622463723</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>544.8204539615172</v>
+        <v>542.1593057535305</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44501</v>
       </c>
       <c r="C54" t="n">
-        <v>535.9601019156945</v>
+        <v>531.6743258481575</v>
       </c>
       <c r="D54" t="n">
-        <v>487.1590770678922</v>
+        <v>484.5919144414453</v>
       </c>
       <c r="E54" t="n">
-        <v>588.642998475048</v>
+        <v>586.2031522527528</v>
       </c>
       <c r="F54" t="n">
-        <v>535.9601019156945</v>
+        <v>531.6743258481575</v>
       </c>
       <c r="G54" t="n">
-        <v>535.9601019156945</v>
+        <v>531.6743258481575</v>
       </c>
       <c r="H54" t="n">
-        <v>2.017566972377501</v>
+        <v>3.528473244094614</v>
       </c>
       <c r="I54" t="n">
-        <v>2.017566972377501</v>
+        <v>3.528473244094614</v>
       </c>
       <c r="J54" t="n">
-        <v>2.017566972377501</v>
+        <v>3.528473244094614</v>
       </c>
       <c r="K54" t="n">
-        <v>2.017566972377501</v>
+        <v>3.528473244094614</v>
       </c>
       <c r="L54" t="n">
-        <v>2.017566972377501</v>
+        <v>3.528473244094614</v>
       </c>
       <c r="M54" t="n">
-        <v>2.017566972377501</v>
+        <v>3.528473244094614</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>537.977668888072</v>
+        <v>535.2027990922521</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44531</v>
       </c>
       <c r="C55" t="n">
-        <v>539.3298881893207</v>
+        <v>534.7943900280907</v>
       </c>
       <c r="D55" t="n">
-        <v>506.3547834991351</v>
+        <v>496.4347400529795</v>
       </c>
       <c r="E55" t="n">
-        <v>601.0355536321086</v>
+        <v>595.869391252818</v>
       </c>
       <c r="F55" t="n">
-        <v>539.3298881893207</v>
+        <v>534.7943900280907</v>
       </c>
       <c r="G55" t="n">
-        <v>539.3298881893207</v>
+        <v>534.7943900280907</v>
       </c>
       <c r="H55" t="n">
-        <v>10.62657778805357</v>
+        <v>12.30545352421974</v>
       </c>
       <c r="I55" t="n">
-        <v>10.62657778805357</v>
+        <v>12.30545352421974</v>
       </c>
       <c r="J55" t="n">
-        <v>10.62657778805357</v>
+        <v>12.30545352421974</v>
       </c>
       <c r="K55" t="n">
-        <v>10.62657778805357</v>
+        <v>12.30545352421974</v>
       </c>
       <c r="L55" t="n">
-        <v>10.62657778805357</v>
+        <v>12.30545352421974</v>
       </c>
       <c r="M55" t="n">
-        <v>10.62657778805357</v>
+        <v>12.30545352421974</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>549.9564659773744</v>
+        <v>547.0998435523104</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44562</v>
       </c>
       <c r="C56" t="n">
-        <v>542.8120006720678</v>
+        <v>538.0184563473549</v>
       </c>
       <c r="D56" t="n">
-        <v>498.5612017961345</v>
+        <v>492.6452105223038</v>
       </c>
       <c r="E56" t="n">
-        <v>596.3003040230026</v>
+        <v>593.5267976555212</v>
       </c>
       <c r="F56" t="n">
-        <v>542.8120006720678</v>
+        <v>538.0184563473549</v>
       </c>
       <c r="G56" t="n">
-        <v>542.8120006720678</v>
+        <v>538.0184563473549</v>
       </c>
       <c r="H56" t="n">
-        <v>5.207416579292261</v>
+        <v>7.063195853838732</v>
       </c>
       <c r="I56" t="n">
-        <v>5.207416579292261</v>
+        <v>7.063195853838732</v>
       </c>
       <c r="J56" t="n">
-        <v>5.207416579292261</v>
+        <v>7.063195853838732</v>
       </c>
       <c r="K56" t="n">
-        <v>5.207416579292261</v>
+        <v>7.063195853838732</v>
       </c>
       <c r="L56" t="n">
-        <v>5.207416579292261</v>
+        <v>7.063195853838732</v>
       </c>
       <c r="M56" t="n">
-        <v>5.207416579292261</v>
+        <v>7.063195853838732</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>548.0194172513601</v>
+        <v>545.0816522011936</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44593</v>
       </c>
       <c r="C57" t="n">
-        <v>546.2941131548149</v>
+        <v>541.2425226666192</v>
       </c>
       <c r="D57" t="n">
-        <v>496.694969976717</v>
+        <v>494.786638794961</v>
       </c>
       <c r="E57" t="n">
-        <v>597.71196781084</v>
+        <v>592.8866069157816</v>
       </c>
       <c r="F57" t="n">
-        <v>546.2941131548149</v>
+        <v>541.2425226666192</v>
       </c>
       <c r="G57" t="n">
-        <v>546.2941131548149</v>
+        <v>541.2425226666192</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.4992694136909207</v>
+        <v>1.486612568364029</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.4992694136909207</v>
+        <v>1.486612568364029</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.4992694136909207</v>
+        <v>1.486612568364029</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.4992694136909207</v>
+        <v>1.486612568364029</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.4992694136909207</v>
+        <v>1.486612568364029</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.4992694136909207</v>
+        <v>1.486612568364029</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>545.7948437411239</v>
+        <v>542.7291352349832</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44621</v>
       </c>
       <c r="C58" t="n">
-        <v>549.4392470101994</v>
+        <v>544.1545825678901</v>
       </c>
       <c r="D58" t="n">
-        <v>484.5397871327416</v>
+        <v>483.4816944997966</v>
       </c>
       <c r="E58" t="n">
-        <v>581.2547560853722</v>
+        <v>582.6610502493205</v>
       </c>
       <c r="F58" t="n">
-        <v>549.4392470101994</v>
+        <v>544.1545825678901</v>
       </c>
       <c r="G58" t="n">
-        <v>549.4392470101994</v>
+        <v>544.1545825678901</v>
       </c>
       <c r="H58" t="n">
-        <v>-14.33371431492144</v>
+        <v>-12.24916859174898</v>
       </c>
       <c r="I58" t="n">
-        <v>-14.33371431492144</v>
+        <v>-12.24916859174898</v>
       </c>
       <c r="J58" t="n">
-        <v>-14.33371431492144</v>
+        <v>-12.24916859174898</v>
       </c>
       <c r="K58" t="n">
-        <v>-14.33371431492144</v>
+        <v>-12.24916859174898</v>
       </c>
       <c r="L58" t="n">
-        <v>-14.33371431492144</v>
+        <v>-12.24916859174898</v>
       </c>
       <c r="M58" t="n">
-        <v>-14.33371431492144</v>
+        <v>-12.24916859174898</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>535.105532695278</v>
+        <v>531.9054139761411</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44652</v>
       </c>
       <c r="C59" t="n">
-        <v>552.9213594929465</v>
+        <v>547.3786488871544</v>
       </c>
       <c r="D59" t="n">
-        <v>474.7102488836095</v>
+        <v>479.0210798280846</v>
       </c>
       <c r="E59" t="n">
-        <v>582.120539026015</v>
+        <v>574.7428507720701</v>
       </c>
       <c r="F59" t="n">
-        <v>552.9213594929465</v>
+        <v>547.3786488871544</v>
       </c>
       <c r="G59" t="n">
-        <v>552.9213594929465</v>
+        <v>547.3786488871544</v>
       </c>
       <c r="H59" t="n">
-        <v>-24.28534876312984</v>
+        <v>-22.15547306671298</v>
       </c>
       <c r="I59" t="n">
-        <v>-24.28534876312984</v>
+        <v>-22.15547306671298</v>
       </c>
       <c r="J59" t="n">
-        <v>-24.28534876312984</v>
+        <v>-22.15547306671298</v>
       </c>
       <c r="K59" t="n">
-        <v>-24.28534876312984</v>
+        <v>-22.15547306671298</v>
       </c>
       <c r="L59" t="n">
-        <v>-24.28534876312984</v>
+        <v>-22.15547306671298</v>
       </c>
       <c r="M59" t="n">
-        <v>-24.28534876312984</v>
+        <v>-22.15547306671298</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>528.6360107298167</v>
+        <v>525.2231758204415</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44682</v>
       </c>
       <c r="C60" t="n">
-        <v>556.2911457665726</v>
+        <v>550.4987130670876</v>
       </c>
       <c r="D60" t="n">
-        <v>477.2182802299432</v>
+        <v>474.9564655003358</v>
       </c>
       <c r="E60" t="n">
-        <v>576.2469540628532</v>
+        <v>573.4103094309955</v>
       </c>
       <c r="F60" t="n">
-        <v>556.2911457665726</v>
+        <v>550.4987130670876</v>
       </c>
       <c r="G60" t="n">
-        <v>556.2911457665726</v>
+        <v>550.4987130670876</v>
       </c>
       <c r="H60" t="n">
-        <v>-28.69845053397517</v>
+        <v>-26.47854064809129</v>
       </c>
       <c r="I60" t="n">
-        <v>-28.69845053397517</v>
+        <v>-26.47854064809129</v>
       </c>
       <c r="J60" t="n">
-        <v>-28.69845053397517</v>
+        <v>-26.47854064809129</v>
       </c>
       <c r="K60" t="n">
-        <v>-28.69845053397517</v>
+        <v>-26.47854064809129</v>
       </c>
       <c r="L60" t="n">
-        <v>-28.69845053397517</v>
+        <v>-26.47854064809129</v>
       </c>
       <c r="M60" t="n">
-        <v>-28.69845053397517</v>
+        <v>-26.47854064809129</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>527.5926952325975</v>
+        <v>524.0201724189963</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44713</v>
       </c>
       <c r="C61" t="n">
-        <v>559.7732582493198</v>
+        <v>553.7227793863518</v>
       </c>
       <c r="D61" t="n">
-        <v>480.0643634343963</v>
+        <v>466.6127726288559</v>
       </c>
       <c r="E61" t="n">
-        <v>584.2738170262511</v>
+        <v>568.2431402759695</v>
       </c>
       <c r="F61" t="n">
-        <v>559.7685846872309</v>
+        <v>553.7227793863518</v>
       </c>
       <c r="G61" t="n">
-        <v>559.7775248746517</v>
+        <v>553.7227793863518</v>
       </c>
       <c r="H61" t="n">
-        <v>-29.55704053733912</v>
+        <v>-37.76802046230015</v>
       </c>
       <c r="I61" t="n">
-        <v>-29.55704053733912</v>
+        <v>-37.76802046230015</v>
       </c>
       <c r="J61" t="n">
-        <v>-29.55704053733912</v>
+        <v>-37.76802046230015</v>
       </c>
       <c r="K61" t="n">
-        <v>-29.55704053733912</v>
+        <v>-37.76802046230015</v>
       </c>
       <c r="L61" t="n">
-        <v>-29.55704053733912</v>
+        <v>-37.76802046230015</v>
       </c>
       <c r="M61" t="n">
-        <v>-29.55704053733912</v>
+        <v>-37.76802046230015</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>530.2162177119807</v>
+        <v>515.9547589240517</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44743</v>
       </c>
       <c r="C62" t="n">
-        <v>563.143044522946</v>
+        <v>556.842843566285</v>
       </c>
       <c r="D62" t="n">
-        <v>475.3471277540598</v>
+        <v>468.3013243122037</v>
       </c>
       <c r="E62" t="n">
-        <v>574.3366445868691</v>
+        <v>570.7940867566039</v>
       </c>
       <c r="F62" t="n">
-        <v>563.1218306594034</v>
+        <v>556.836506430948</v>
       </c>
       <c r="G62" t="n">
-        <v>563.1634053308394</v>
+        <v>556.8510679445058</v>
       </c>
       <c r="H62" t="n">
-        <v>-39.17563576883126</v>
+        <v>-37.61855306827969</v>
       </c>
       <c r="I62" t="n">
-        <v>-39.17563576883126</v>
+        <v>-37.61855306827969</v>
       </c>
       <c r="J62" t="n">
-        <v>-39.17563576883126</v>
+        <v>-37.61855306827969</v>
       </c>
       <c r="K62" t="n">
-        <v>-39.17563576883126</v>
+        <v>-37.61855306827969</v>
       </c>
       <c r="L62" t="n">
-        <v>-39.17563576883126</v>
+        <v>-37.61855306827969</v>
       </c>
       <c r="M62" t="n">
-        <v>-39.17563576883126</v>
+        <v>-37.61855306827969</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>523.9674087541147</v>
+        <v>519.2242904980053</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44774</v>
       </c>
       <c r="C63" t="n">
-        <v>566.625157005693</v>
+        <v>560.0669098855492</v>
       </c>
       <c r="D63" t="n">
-        <v>495.5505227002677</v>
+        <v>492.5625826767285</v>
       </c>
       <c r="E63" t="n">
-        <v>593.4520327722106</v>
+        <v>591.1904969621855</v>
       </c>
       <c r="F63" t="n">
-        <v>566.5774922454124</v>
+        <v>560.0283649780478</v>
       </c>
       <c r="G63" t="n">
-        <v>566.671374185019</v>
+        <v>560.1114249180195</v>
       </c>
       <c r="H63" t="n">
-        <v>-20.69968925932576</v>
+        <v>-19.09664576565502</v>
       </c>
       <c r="I63" t="n">
-        <v>-20.69968925932576</v>
+        <v>-19.09664576565502</v>
       </c>
       <c r="J63" t="n">
-        <v>-20.69968925932576</v>
+        <v>-19.09664576565502</v>
       </c>
       <c r="K63" t="n">
-        <v>-20.69968925932576</v>
+        <v>-19.09664576565502</v>
       </c>
       <c r="L63" t="n">
-        <v>-20.69968925932576</v>
+        <v>-19.09664576565502</v>
       </c>
       <c r="M63" t="n">
-        <v>-20.69968925932576</v>
+        <v>-19.09664576565502</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>545.9254677463673</v>
+        <v>540.9702641198942</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44805</v>
       </c>
       <c r="C64" t="n">
-        <v>570.1072694884401</v>
+        <v>563.2909762048134</v>
       </c>
       <c r="D64" t="n">
-        <v>524.8381171551752</v>
+        <v>519.7130648710945</v>
       </c>
       <c r="E64" t="n">
-        <v>629.9790858718497</v>
+        <v>620.7090437885254</v>
       </c>
       <c r="F64" t="n">
-        <v>570.0281866700993</v>
+        <v>563.2024143881631</v>
       </c>
       <c r="G64" t="n">
-        <v>570.1831781382193</v>
+        <v>563.3797864889955</v>
       </c>
       <c r="H64" t="n">
-        <v>6.687815827794414</v>
+        <v>8.34454469664152</v>
       </c>
       <c r="I64" t="n">
-        <v>6.687815827794414</v>
+        <v>8.34454469664152</v>
       </c>
       <c r="J64" t="n">
-        <v>6.687815827794414</v>
+        <v>8.34454469664152</v>
       </c>
       <c r="K64" t="n">
-        <v>6.687815827794414</v>
+        <v>8.34454469664152</v>
       </c>
       <c r="L64" t="n">
-        <v>6.687815827794414</v>
+        <v>8.34454469664152</v>
       </c>
       <c r="M64" t="n">
-        <v>6.687815827794414</v>
+        <v>8.34454469664152</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>576.7950853162346</v>
+        <v>571.6355209014549</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44835</v>
       </c>
       <c r="C65" t="n">
-        <v>573.4770557620662</v>
+        <v>566.4110403847466</v>
       </c>
       <c r="D65" t="n">
-        <v>535.8148326492339</v>
+        <v>529.8160657482608</v>
       </c>
       <c r="E65" t="n">
-        <v>632.5846559242948</v>
+        <v>627.2546642385412</v>
       </c>
       <c r="F65" t="n">
-        <v>573.3621203334192</v>
+        <v>566.2733411567111</v>
       </c>
       <c r="G65" t="n">
-        <v>573.5903968180362</v>
+        <v>566.5553791350935</v>
       </c>
       <c r="H65" t="n">
-        <v>10.81835325019656</v>
+        <v>12.46349373968705</v>
       </c>
       <c r="I65" t="n">
-        <v>10.81835325019656</v>
+        <v>12.46349373968705</v>
       </c>
       <c r="J65" t="n">
-        <v>10.81835325019656</v>
+        <v>12.46349373968705</v>
       </c>
       <c r="K65" t="n">
-        <v>10.81835325019656</v>
+        <v>12.46349373968705</v>
       </c>
       <c r="L65" t="n">
-        <v>10.81835325019656</v>
+        <v>12.46349373968705</v>
       </c>
       <c r="M65" t="n">
-        <v>10.81835325019656</v>
+        <v>12.46349373968705</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>584.2954090122628</v>
+        <v>578.8745341244336</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44866</v>
       </c>
       <c r="C66" t="n">
-        <v>576.9591682448134</v>
+        <v>569.6351067040109</v>
       </c>
       <c r="D66" t="n">
-        <v>520.0653750597745</v>
+        <v>518.9602651036954</v>
       </c>
       <c r="E66" t="n">
-        <v>623.6323451248317</v>
+        <v>618.3161187708782</v>
       </c>
       <c r="F66" t="n">
-        <v>576.8059517707495</v>
+        <v>569.4234408368312</v>
       </c>
       <c r="G66" t="n">
-        <v>577.113187638996</v>
+        <v>569.8432054232076</v>
       </c>
       <c r="H66" t="n">
-        <v>-3.066003934150526</v>
+        <v>-1.499749519839949</v>
       </c>
       <c r="I66" t="n">
-        <v>-3.066003934150526</v>
+        <v>-1.499749519839949</v>
       </c>
       <c r="J66" t="n">
-        <v>-3.066003934150526</v>
+        <v>-1.499749519839949</v>
       </c>
       <c r="K66" t="n">
-        <v>-3.066003934150526</v>
+        <v>-1.499749519839949</v>
       </c>
       <c r="L66" t="n">
-        <v>-3.066003934150526</v>
+        <v>-1.499749519839949</v>
       </c>
       <c r="M66" t="n">
-        <v>-3.066003934150526</v>
+        <v>-1.499749519839949</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>573.8931643106629</v>
+        <v>568.135357184171</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44896</v>
       </c>
       <c r="C67" t="n">
-        <v>580.3289545184396</v>
+        <v>572.7551708839441</v>
       </c>
       <c r="D67" t="n">
-        <v>533.1492404917547</v>
+        <v>531.9069748013046</v>
       </c>
       <c r="E67" t="n">
-        <v>635.7018781646351</v>
+        <v>631.5569436882377</v>
       </c>
       <c r="F67" t="n">
-        <v>580.1361365919101</v>
+        <v>572.4591717607755</v>
       </c>
       <c r="G67" t="n">
-        <v>580.5247772002276</v>
+        <v>573.0326530268475</v>
       </c>
       <c r="H67" t="n">
-        <v>5.890943791311988</v>
+        <v>7.346338539580872</v>
       </c>
       <c r="I67" t="n">
-        <v>5.890943791311988</v>
+        <v>7.346338539580872</v>
       </c>
       <c r="J67" t="n">
-        <v>5.890943791311988</v>
+        <v>7.346338539580872</v>
       </c>
       <c r="K67" t="n">
-        <v>5.890943791311988</v>
+        <v>7.346338539580872</v>
       </c>
       <c r="L67" t="n">
-        <v>5.890943791311988</v>
+        <v>7.346338539580872</v>
       </c>
       <c r="M67" t="n">
-        <v>5.890943791311988</v>
+        <v>7.346338539580872</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>586.2198983097516</v>
+        <v>580.1015094235249</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44927</v>
       </c>
       <c r="C68" t="n">
-        <v>583.8110670011868</v>
+        <v>575.9792372032083</v>
       </c>
       <c r="D68" t="n">
-        <v>552.4842754017529</v>
+        <v>544.6144204149447</v>
       </c>
       <c r="E68" t="n">
-        <v>654.3955165290627</v>
+        <v>643.7133683970392</v>
       </c>
       <c r="F68" t="n">
-        <v>583.5729225934664</v>
+        <v>575.5946436014671</v>
       </c>
       <c r="G68" t="n">
-        <v>584.0577095452471</v>
+        <v>576.341997111048</v>
       </c>
       <c r="H68" t="n">
-        <v>16.04670208788697</v>
+        <v>17.36472723263278</v>
       </c>
       <c r="I68" t="n">
-        <v>16.04670208788697</v>
+        <v>17.36472723263278</v>
       </c>
       <c r="J68" t="n">
-        <v>16.04670208788697</v>
+        <v>17.36472723263278</v>
       </c>
       <c r="K68" t="n">
-        <v>16.04670208788697</v>
+        <v>17.36472723263278</v>
       </c>
       <c r="L68" t="n">
-        <v>16.04670208788697</v>
+        <v>17.36472723263278</v>
       </c>
       <c r="M68" t="n">
-        <v>16.04670208788697</v>
+        <v>17.36472723263278</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>599.8577690890737</v>
+        <v>593.343964435841</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44958</v>
       </c>
       <c r="C69" t="n">
-        <v>587.2931794839337</v>
+        <v>579.2033035224725</v>
       </c>
       <c r="D69" t="n">
-        <v>549.4179216974632</v>
+        <v>544.7300592169721</v>
       </c>
       <c r="E69" t="n">
-        <v>651.5262295563286</v>
+        <v>644.0110757903486</v>
       </c>
       <c r="F69" t="n">
-        <v>587.0023622583926</v>
+        <v>578.7384821162284</v>
       </c>
       <c r="G69" t="n">
-        <v>587.5862142511914</v>
+        <v>579.6622569069722</v>
       </c>
       <c r="H69" t="n">
-        <v>13.59781920303444</v>
+        <v>14.83293171507228</v>
       </c>
       <c r="I69" t="n">
-        <v>13.59781920303444</v>
+        <v>14.83293171507228</v>
       </c>
       <c r="J69" t="n">
-        <v>13.59781920303444</v>
+        <v>14.83293171507228</v>
       </c>
       <c r="K69" t="n">
-        <v>13.59781920303444</v>
+        <v>14.83293171507228</v>
       </c>
       <c r="L69" t="n">
-        <v>13.59781920303444</v>
+        <v>14.83293171507228</v>
       </c>
       <c r="M69" t="n">
-        <v>13.59781920303444</v>
+        <v>14.83293171507228</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>600.8909986869681</v>
+        <v>594.0362352375448</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44986</v>
       </c>
       <c r="C70" t="n">
-        <v>590.4383133393183</v>
+        <v>582.1153634237435</v>
       </c>
       <c r="D70" t="n">
-        <v>511.3899242063343</v>
+        <v>508.1275145060276</v>
       </c>
       <c r="E70" t="n">
-        <v>617.2614165954104</v>
+        <v>607.6175462557534</v>
       </c>
       <c r="F70" t="n">
-        <v>590.1022591899623</v>
+        <v>581.5556574743761</v>
       </c>
       <c r="G70" t="n">
-        <v>590.7784804592496</v>
+        <v>582.6610849870298</v>
       </c>
       <c r="H70" t="n">
-        <v>-29.16565423585747</v>
+        <v>-26.18741753724396</v>
       </c>
       <c r="I70" t="n">
-        <v>-29.16565423585747</v>
+        <v>-26.18741753724396</v>
       </c>
       <c r="J70" t="n">
-        <v>-29.16565423585747</v>
+        <v>-26.18741753724396</v>
       </c>
       <c r="K70" t="n">
-        <v>-29.16565423585747</v>
+        <v>-26.18741753724396</v>
       </c>
       <c r="L70" t="n">
-        <v>-29.16565423585747</v>
+        <v>-26.18741753724396</v>
       </c>
       <c r="M70" t="n">
-        <v>-29.16565423585747</v>
+        <v>-26.18741753724396</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>561.2726591034608</v>
+        <v>555.9279458864995</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>45017</v>
       </c>
       <c r="C71" t="n">
-        <v>593.9204258220652</v>
+        <v>585.3394297430077</v>
       </c>
       <c r="D71" t="n">
-        <v>506.1177438440802</v>
+        <v>501.0208554921588</v>
       </c>
       <c r="E71" t="n">
-        <v>608.7100898210011</v>
+        <v>607.0359593397394</v>
       </c>
       <c r="F71" t="n">
-        <v>593.5299457685996</v>
+        <v>584.7008909681578</v>
       </c>
       <c r="G71" t="n">
-        <v>594.3155531713699</v>
+        <v>585.995477113319</v>
       </c>
       <c r="H71" t="n">
-        <v>-33.75975215809805</v>
+        <v>-30.81925312391785</v>
       </c>
       <c r="I71" t="n">
-        <v>-33.75975215809805</v>
+        <v>-30.81925312391785</v>
       </c>
       <c r="J71" t="n">
-        <v>-33.75975215809805</v>
+        <v>-30.81925312391785</v>
       </c>
       <c r="K71" t="n">
-        <v>-33.75975215809805</v>
+        <v>-30.81925312391785</v>
       </c>
       <c r="L71" t="n">
-        <v>-33.75975215809805</v>
+        <v>-30.81925312391785</v>
       </c>
       <c r="M71" t="n">
-        <v>-33.75975215809805</v>
+        <v>-30.81925312391785</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>560.1606736639671</v>
+        <v>554.5201766190899</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>45047</v>
       </c>
       <c r="C72" t="n">
-        <v>597.2902120956916</v>
+        <v>588.4594939229409</v>
       </c>
       <c r="D72" t="n">
-        <v>522.0210829610417</v>
+        <v>519.4680199629178</v>
       </c>
       <c r="E72" t="n">
-        <v>624.4482413550753</v>
+        <v>618.3644046074662</v>
       </c>
       <c r="F72" t="n">
-        <v>596.8490120730223</v>
+        <v>587.7104927778392</v>
       </c>
       <c r="G72" t="n">
-        <v>597.7443017656448</v>
+        <v>589.1967975379795</v>
       </c>
       <c r="H72" t="n">
-        <v>-22.48339553925462</v>
+        <v>-19.45442588896764</v>
       </c>
       <c r="I72" t="n">
-        <v>-22.48339553925462</v>
+        <v>-19.45442588896764</v>
       </c>
       <c r="J72" t="n">
-        <v>-22.48339553925462</v>
+        <v>-19.45442588896764</v>
       </c>
       <c r="K72" t="n">
-        <v>-22.48339553925462</v>
+        <v>-19.45442588896764</v>
       </c>
       <c r="L72" t="n">
-        <v>-22.48339553925462</v>
+        <v>-19.45442588896764</v>
       </c>
       <c r="M72" t="n">
-        <v>-22.48339553925462</v>
+        <v>-19.45442588896764</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>574.806816556437</v>
+        <v>569.0050680339732</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>45078</v>
       </c>
       <c r="C73" t="n">
-        <v>600.7723245784385</v>
+        <v>591.6835602422051</v>
       </c>
       <c r="D73" t="n">
-        <v>521.4142785983319</v>
+        <v>502.5433303258552</v>
       </c>
       <c r="E73" t="n">
-        <v>626.3610717256175</v>
+        <v>600.8833630776251</v>
       </c>
       <c r="F73" t="n">
-        <v>600.2743966603165</v>
+        <v>590.8240224592821</v>
       </c>
       <c r="G73" t="n">
-        <v>601.2674286362929</v>
+        <v>592.5093960604345</v>
       </c>
       <c r="H73" t="n">
-        <v>-27.16308828942718</v>
+        <v>-38.09709003658279</v>
       </c>
       <c r="I73" t="n">
-        <v>-27.16308828942718</v>
+        <v>-38.09709003658279</v>
       </c>
       <c r="J73" t="n">
-        <v>-27.16308828942718</v>
+        <v>-38.09709003658279</v>
       </c>
       <c r="K73" t="n">
-        <v>-27.16308828942718</v>
+        <v>-38.09709003658279</v>
       </c>
       <c r="L73" t="n">
-        <v>-27.16308828942718</v>
+        <v>-38.09709003658279</v>
       </c>
       <c r="M73" t="n">
-        <v>-27.16308828942718</v>
+        <v>-38.09709003658279</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>573.6092362890114</v>
+        <v>553.5864702056223</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>45108</v>
       </c>
       <c r="C74" t="n">
-        <v>604.1421108520647</v>
+        <v>594.8036244221383</v>
       </c>
       <c r="D74" t="n">
-        <v>522.5385386421706</v>
+        <v>518.3214841023712</v>
       </c>
       <c r="E74" t="n">
-        <v>621.9292622056053</v>
+        <v>614.9732859186024</v>
       </c>
       <c r="F74" t="n">
-        <v>603.5705203676756</v>
+        <v>593.8327749240301</v>
       </c>
       <c r="G74" t="n">
-        <v>604.6981788177015</v>
+        <v>595.7505764702679</v>
       </c>
       <c r="H74" t="n">
-        <v>-31.01582033597312</v>
+        <v>-28.96231626289817</v>
       </c>
       <c r="I74" t="n">
-        <v>-31.01582033597312</v>
+        <v>-28.96231626289817</v>
       </c>
       <c r="J74" t="n">
-        <v>-31.01582033597312</v>
+        <v>-28.96231626289817</v>
       </c>
       <c r="K74" t="n">
-        <v>-31.01582033597312</v>
+        <v>-28.96231626289817</v>
       </c>
       <c r="L74" t="n">
-        <v>-31.01582033597312</v>
+        <v>-28.96231626289817</v>
       </c>
       <c r="M74" t="n">
-        <v>-31.01582033597312</v>
+        <v>-28.96231626289817</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>573.1262905160916</v>
+        <v>565.8413081592402</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>45139</v>
       </c>
       <c r="C75" t="n">
-        <v>607.6242233348119</v>
+        <v>598.0276907414025</v>
       </c>
       <c r="D75" t="n">
-        <v>531.1443728264981</v>
+        <v>525.4788267189127</v>
       </c>
       <c r="E75" t="n">
-        <v>632.0060965779694</v>
+        <v>626.8467542362887</v>
       </c>
       <c r="F75" t="n">
-        <v>606.9889175188324</v>
+        <v>596.9288264473399</v>
       </c>
       <c r="G75" t="n">
-        <v>608.2461615498602</v>
+        <v>599.0972729429419</v>
       </c>
       <c r="H75" t="n">
-        <v>-24.95675524534633</v>
+        <v>-22.92384483362332</v>
       </c>
       <c r="I75" t="n">
-        <v>-24.95675524534633</v>
+        <v>-22.92384483362332</v>
       </c>
       <c r="J75" t="n">
-        <v>-24.95675524534633</v>
+        <v>-22.92384483362332</v>
       </c>
       <c r="K75" t="n">
-        <v>-24.95675524534633</v>
+        <v>-22.92384483362332</v>
       </c>
       <c r="L75" t="n">
-        <v>-24.95675524534633</v>
+        <v>-22.92384483362332</v>
       </c>
       <c r="M75" t="n">
-        <v>-24.95675524534633</v>
+        <v>-22.92384483362332</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>582.6674680894655</v>
+        <v>575.1038459077791</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>45170</v>
       </c>
       <c r="C76" t="n">
-        <v>611.1063358175591</v>
+        <v>601.2517570606668</v>
       </c>
       <c r="D76" t="n">
-        <v>567.8670257382884</v>
+        <v>555.7664452707788</v>
       </c>
       <c r="E76" t="n">
-        <v>669.9576266975927</v>
+        <v>658.2141336641379</v>
       </c>
       <c r="F76" t="n">
-        <v>610.394219395655</v>
+        <v>600.040359760188</v>
       </c>
       <c r="G76" t="n">
-        <v>611.7889818014468</v>
+        <v>602.4829810159482</v>
       </c>
       <c r="H76" t="n">
-        <v>5.642024520296646</v>
+        <v>7.699578742288954</v>
       </c>
       <c r="I76" t="n">
-        <v>5.642024520296646</v>
+        <v>7.699578742288954</v>
       </c>
       <c r="J76" t="n">
-        <v>5.642024520296646</v>
+        <v>7.699578742288954</v>
       </c>
       <c r="K76" t="n">
-        <v>5.642024520296646</v>
+        <v>7.699578742288954</v>
       </c>
       <c r="L76" t="n">
-        <v>5.642024520296646</v>
+        <v>7.699578742288954</v>
       </c>
       <c r="M76" t="n">
-        <v>5.642024520296646</v>
+        <v>7.699578742288954</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>616.7483603378557</v>
+        <v>608.9513358029558</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45200</v>
       </c>
       <c r="C77" t="n">
-        <v>614.4761220911852</v>
+        <v>604.3718212406</v>
       </c>
       <c r="D77" t="n">
-        <v>571.5941552371536</v>
+        <v>565.5046950753893</v>
       </c>
       <c r="E77" t="n">
-        <v>674.7838278834107</v>
+        <v>667.7878733756363</v>
       </c>
       <c r="F77" t="n">
-        <v>613.677415802722</v>
+        <v>603.0318704554114</v>
       </c>
       <c r="G77" t="n">
-        <v>615.2292700121436</v>
+        <v>605.7130277157598</v>
       </c>
       <c r="H77" t="n">
-        <v>9.239257765303041</v>
+        <v>11.1528023729919</v>
       </c>
       <c r="I77" t="n">
-        <v>9.239257765303041</v>
+        <v>11.1528023729919</v>
       </c>
       <c r="J77" t="n">
-        <v>9.239257765303041</v>
+        <v>11.1528023729919</v>
       </c>
       <c r="K77" t="n">
-        <v>9.239257765303041</v>
+        <v>11.1528023729919</v>
       </c>
       <c r="L77" t="n">
-        <v>9.239257765303041</v>
+        <v>11.1528023729919</v>
       </c>
       <c r="M77" t="n">
-        <v>9.239257765303041</v>
+        <v>11.1528023729919</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,60 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>623.7153798564882</v>
+        <v>615.5246236135919</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C78" t="n">
+        <v>607.5958875598641</v>
+      </c>
+      <c r="D78" t="n">
+        <v>551.7941154527681</v>
+      </c>
+      <c r="E78" t="n">
+        <v>649.3145715191574</v>
+      </c>
+      <c r="F78" t="n">
+        <v>606.1365151201204</v>
+      </c>
+      <c r="G78" t="n">
+        <v>609.0803488405419</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-6.501678254116183</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-6.501678254116183</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-6.501678254116183</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-6.501678254116183</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-6.501678254116183</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-6.501678254116183</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>601.0942093057479</v>
       </c>
     </row>
   </sheetData>
